--- a/scraped_articles.xlsx
+++ b/scraped_articles.xlsx
@@ -14,200 +14,235 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>META</t>
   </si>
   <si>
-    <t>The S&amp;P 500 started 2024 with a solid 4.5% rise, following a successful 2023. The main question for investors is: are these gains transient, or is this the start of another lasting bull market?
-Market legend and billionaire asset manager, Ken Fisher, has been watching current conditions, and he has some opinions about where we’re likely to go from here.
-“A strong January for global stocks has not silenced doubters,” he says, and goes on, “Higher-for-longer interest rates! Global economic malaise! Escalating regional wars! You know all the reasons bears say this bull market is definitively doomed, extending their 2023 arguments. Wrong again. Markets move on what people do not widely know and watch – surprises, positive or negative. This year, those surprises will be to the upside – shocking everyone again, like 2023.”
-But words are cheap, and money talks, so let’s take a look at two of the mega-cap tech stocks that Fisher has been buying into – Nvidia (NASDAQ:NVDA) and Meta Platforms (NASDAQ:META) – in anticipation of solid upside gains this year. A closer look may show us why Fisher is willing to buy big.
-Nvidia
-First up, on our list of Fisher’s picks, is Nvidia, the fast-growing leader in the semiconductor chip industry. Nvidia is currently the third-largest publicly traded company in the world – behind only Microsoft and Apple. The stock has been rising at a fast pace over the past several years; it is up more than 250% in the last 12 months.
-The main driver of Nvidia’s success in recent years has been the high quality of the company’s chipset products. Nvidia has long been a leader in the GPU segment, and these chips, originally designed to meet the processing needs of high-end computer graphic programs, have found ready audiences among computer gamers, professional graphic designers, data center operators, and – more recently – in AI applications. Each of these fields requires high capacity chips, and Nvidia has built a reputation as the go-to name for those users.
-The data center industry has been a particularly bright spot for Nvidia. The company’s market share in GPUs for the data center industry provides about 83% of the Nvidia’s total revenues. In raw numbers, Nvidia reported $18.4 billion in sales to data centers in its fiscal 4Q24 report. That marked a year-over-year increase of 409%.
-Overall, Nvidia’s fourth quarter of fiscal 2024 saw a total top line of $22.1 billion, a company record and a 265% y/y increase. Q4 revenues were also $1.55 billion better than had been expected. At the bottom line, Nvidia realized earnings of $5.16 per share in non-GAAP EPS; this beat the forecast by 52 cents per share.
-As for billionaire investor Ken Fisher, he is clearly bullish on Nvidia. In the last calendar-year quarter, 4Q23, he bought 594,243 shares of the stock, bringing his total holding in NVDA to 8,943,979 shares. At current prices, Fisher’s holding in Nvidia shares is valued at $6.58 billion.
-In addition to Ken Fisher, Nvidia has caught the eye of Loop Capital analyst Ananda Baruah. The 5-star expert is upbeat on Nvidia, basing his stance on the company’s solid data center business, it’s exposure to the growing AI industry, and its potential to continue realizing outsized gains.
-“Our work suggests NVDA has material upside to Street revenue and EPS through CY2024/FY2025 and into / through CY2025/FY2026 (Figures 1 &amp; 3) driven by Data Center GPUs). Specifically we’re looking for revenue &amp; EPS CY2024/FY2025 &amp; CY2025/ FY2026 of $132.4B &amp; $30.00 (vs Street of $95.8B &amp; $21.76) and $175.6B &amp; $40.00 (vs Street of $110B &amp; $24.84). We also believe there is legitimate upside potential to even our above Street estimates via both revenue and GM expansion. For those looking at quarterly trends … NVDA’s 1. Quarterly results vs Street and 2. Guidance vs. Street, which shows a distinct pattern of pronounced beats and raises since Gen AI kicked off 12 months ago,” Baruah opined.
-Quantifying this stance, Baruah puts a Buy rating on NVDA shares, along with a $1,200 price target that implies a robust 63% gain in the next 12 months. (To watch Baruah’s track record, click here)
-High-end tech stocks never fail to gain love from Wall Street, and Nvidia shares have 38 recent reviews from the Street’s analysts. These reviews include 36 Buys and just 2 Holds, for a Strong Buy consensus rating. (See Nvidia stock forecast)
-Meta Platforms
-The next stock we’re looking at is Meta, the parent company of Facebook and the most recent member of the ‘trillion-dollar club.’ Despite boasting a market cap of $1.21 trillion, making it the smallest of these mega-caps, Meta still holds the position as the world’s sixth-largest public company.
-In addition to Facebook, its flagship social media concern, Meta also owns Messenger, Instagram, and WhatsApp. In the company’s last quarterly report, covering Q4 and the full year 2023, Meta reported increased audiences across all of its social media platforms. For December 2023, the company had a DAP – family daily active people – totaling 3.19 billion, marking an 8% year-over-year increase; for the month, the monthly active people (MAP) were up 6% to 3.98 billion. Facebook makes up the largest share of this audience – the platform saw 2.11 billion daily active users in December 2023, marking a 6% increase year-over-year. Facebook’s monthly active users (MAUs) grew by 3% year-over-year to reach 3.07 billion.
-For Meta, active users are a key metric. The company leverages these numbers to generate revenue from advertising, and in 4Q23, Meta generated $40.11 billion in total revenues, marking a 25% year-over-year increase and surpassing expectations by $940 million. Annual revenue was up by 16%, reaching $134.9 billion. The company’s quarterly EPS, by GAAP measures, amounted to $5.33 per share, exceeding the forecast by 39 cents per share. Shares in META have gained more than 33% so far this year, and approximately 175% over the past 12 months.
-While these figures represent solid returns, for return-minded investors, there is an even better option. In its quarterly report, Meta announced the initiation of a regular quarterly dividend. The first payment is set at 50 cents per share, scheduled for a March 26 payout. The annualized rate of $2 provides a modest forward yield of 0.42%. The key point here is not the current yield, but the stronger commitment to capital return. The dividend announcement was accompanied by a $50 billion increase in the company’s share repurchase authorization.
-All of this provides an interesting backdrop to Ken Fisher’s heavy buy-in to Meta. In 4Q23, the billionaire added 414,520 META shares to his portfolio; his total stake in Meta now stands at 5,456,958 shares, worth $2.55 billion.
-Turning to the analysts, we’ll check in with Tigress Financial’s 5-star analyst, Ivan Feinseth, who sees Meta’s lead in social media and inroads to AI as key points for the stock.
-“META is well-positioned to benefit from ongoing innovation; increasing AI functionality integration and new product introductions will drive further increases in user engagement and ongoing acceleration of revenue growth. META continues to benefit from its dominant digital advertising position and growing user engagement. META’s ongoing advertising success continues to be driven by its strong click-to-action conversion, reflecting improvements in advertising performance due to engaging in-platform advertising experiences connecting advertisers with their marketing data and leveraging AI across its advertising platform,” Feinseth opined.
-To this end, Feinseth gives META shares a Strong Buy rating with a $575 target price, implying a 23% gain by the end of this year. (To watch Feinseth’s track record, click here)
-From the Street generally, there are 41 recent reviews of META stock, breaking down to 38 Buys, 2 Holds, and 1 Sell for a Strong Buy consensus. The shares are trading for $468.03, with a $529.02 average price target pointing toward a 13% potential upside on the one-year horizon. (See Meta stock forecast)
-To find good ideas for stocks trading at attractive valuations, visit TipRanks’ Best Stocks to Buy, a tool that unites all of TipRanks’ equity insights.
-Disclaimer: The opinions expressed in this article are solely those of the featured analysts. The content is intended to be used for informational purposes only. It is very important to do your own analysis before making any investment.</t>
-  </si>
-  <si>
-    <t>- Mark Zuckerberg is trying to avoid personal liability in lawsuits over kids' social media addiction.
-- Corporate law typically shields executives from personal liability, though there are exceptions.
-- If Zuckerberg is personally dropped from the lawsuits, it wouldn't dismiss cases against Meta.
-Meta CEO Mark Zuckerberg is arguing he can't be held personally liable for accusations that his platforms have led to kids being addicted to social media — and he may have a point.
-Zuckerberg's legal team was in court in Oakland, California, this week over a string of lawsuits filed against Meta and him personally by parents and schools that allege his actions and Meta's have harmed children by causing social media addiction, NBC Bay Area reported.
-Zuckerberg has requested he personally be dropped from the two dozen lawsuits, which were filed by people from over a dozen states. A ruling in the billionaire's favor would excuse him from being held personally liable but would not dismiss the cases against Meta.
-The lawsuits claim that Zuckerberg's actions and inaction led to social media addiction and accused him of ignoring warnings that Facebook and Instagram were unsafe for kids.
-In court records viewed by Business Insider, Zuckerberg's lawyers said, "It is a fundamental principle that individuals cannot be held personally liable for the acts or omissions of a corporation based merely on their status as corporate executives, directors, or shareholders."
-His lawyers reiterated their arguments in court on Friday, saying there is a clear difference between what Zuckerberg as an individual is personally liable for and his role as CEO, NBC Bay Area reported.
-Lawyers for Zuckerberg did not immediately respond to a request for comment sent by Business Insider.
-In corporate law, executives are typically shielded from personal liability, Bloomberg noted Friday.
-The "corporate veil" — which generally refers to distinctions between a business and its owners — shields executives in most circumstances, although there are exceptions, according to an article from the law firm Oberheiden P.C.
-Some situations in which executives can face liability include criminal acts and intentional or grossly negligent noncompliance. They can also face liability in lawsuits filed by third parties against a CEO, Oberheiden P.C. wrote, noting, "In these lawsuits, plaintiffs are not seeking to hold CEOs liable for corporate acts (or purportedly corporate acts), but instead for acts undertaken by CEOs in their individual capacities."
-In other words, when a civil lawsuit is filed against a CEO over an action they personally took.
-The plaintiffs argued in court that Zuckerberg had a duty to share findings related to social media risks for kids publicly, but US District Judge Yvonne Gonzalez Rogers seemed skeptical of the argument, Bloomberg reported.
-However, the outlet reported the judge did suggest if it's determined Meta had a duty to disclose that information, then it's possible the CEO could be held liable for concealing it.
-"If Mark Zuckerberg knew the depth and breadth to which children were harmed on a daily basis by accessing and being addicted to the platforms that he is in charge of and did not take meaningful and significant action to remedy those harms, then he should be held personally liable," Titania Jordan of Bark Technologies, an online safety and parental controls company, told NBC Bay Area.
-She added: "Now, if he can claim plausible deniability or if he was made aware of this and instructed his team to make it better or make it safer and they didn't, then that is on the company."
-If Zuckerberg is deemed personally liable, it could have major implications for other lawsuits filed against CEOs of social media giants.</t>
-  </si>
-  <si>
-    <t>Someone get Mark Zuckerberg a gadget review YouTube channel, stat.
-The Meta CEO on Monday posted a video review of Apple’s Vision Pro, the new rival mixed reality headset to Meta’s Quest 3.
-“Alright, guys, so, I finally tried Apple’s Vision Pro,” Zuckerberg begins in the video, which was posted to his Instagram.
-“Before this, I expected that Quest would be the better value for most people because it’s really good and it’s like seven times less expensive,” he said, referencing Quest 3’s $500 starting price tag compared to $3,500 for the Vision Pro. “But after using it, I don’t just think Quest is the better value, I think Quest is the better product, period.”
-Reader, I know you didn’t see that coming.
-Zuckerberg’s video, in which he sits on a couch and talks to the camera, was shot with a Quest 3 — the viewer is essentially seeing what the person wearing the headset was seeing, via the cameras on the outside of the device. It’s a feature on both devices called “passthrough,” and it’s one of the features that Apple promoted most aggressively ahead of the Vision Pro’s launch earlier this month.
-The video shows that the headset wearer can see large digital screens that appear to be floating in space next to Zuckerberg — similar to how the Vision Pro was advertised, although perhaps in lower definition. Zuckerberg also throws several other jabs at the Vision Pro in an effort to talk up his own product.
-Apple did not respond to a request for comment about Zuckerberg’s video.
-Here are the basics on each product:
-• Meta Quest 3: A white, wireless headset with handheld controllers that Meta has advertised as great for playing immersive games, for a $500 starting price. Reviewers say the device is smaller and more comfortable than earlier Meta headsets. Meta also has a more advanced, and more expensive, headset option called Meta Quest Pro.
-• Apple Vision Pro: A sleek headset reminiscent of ski goggles, with a wired attachment to an iPhone-sized battery pack but operated using hand and eye signals rather than controllers. Reviewers have lauded its familiar interface and 4K resolution screen, saying it’s unmatched for watching immersive videos and movies. But it doesn’t come cheap, with a $3,500 starting price.
-At least for now, most consumers probably aren’t going to buy either the Quest 3 or the Vision Pro. Both mixed reality headsets are still relatively large, clunky and uncomfortable, and they have limited use cases that likely leave all but the biggest gadget enthusiasts wondering how they’d incorporate the devices into their daily lives.
-But for both Meta and Apple, being viewed as the leader in the mixed reality space is crucial. The two companies see mixed reality as the future of computing, although their visions differ slightly. Meta believes the headsets will eventually let users spend large amounts of time in a still-largely-hypothetical digital world called the “metaverse,” while Apple seems to expect the device will one day augment users’ real-world lives just as the iPhone has in the nearly two decades since its launch. (So far, Meta’s metaverse has gained little traction, despite costing tens of billions of dollars, and the company has mostly moved on to talking about AI.)
-The headset race is also just the latest moment in an ongoing rivalry between Meta and Apple. The tech giants have previously competed over news and messaging features, and their CEOs have traded jabs over data privacy and app store policies. In 2022, Meta said it expected to take a $10 billion hit that year from Apple’s move to limit how apps like Facebook collect data for targeted ads — a change that meant Meta had to spend years revamping its core ad business.
-Meta has also been in the mixed reality headset game for years, and while the company has previously said it’s “always happy when more people join us in building the future,” it’s clear Zuckerberg doesn’t want to be outshined by Apple’s new entrant to the market.
-“Now, look, I know that some fanboys get upset whenever anyone dares to question if Apple’s going to be the leader in a new category,” Zuckerberg said, before going on to critique what is often referred to as Apple’s “walled garden” approach to product development, where it controls the apps users can access on its devices and its products are mostly only interoperable with each other.
-“The reality is that every generation of computing has an open and a closed model, and yeah, in mobile, Apple’s closed model won,” Zuckerberg said. “In this next generation, Meta is going to be the open model, and I really want to make sure that the open model wins out again.”
-Zuckerberg did acknowledge a few of the things the Vision Pro does better, saying “Apple’s screen does have a higher resolution” and “Apple’s eye tracking is really nice.” He added that Meta planned to bring back its older eye tracking technology for future Quest products.
-So, now we know what kinds of updates to expect from the eventual Meta Quest 4.</t>
-  </si>
-  <si>
-    <t>The new year hasn't brought much relief to the tech sector, as job cuts continue to dominate headlines. 2024 has already seen over thousands of tech workers laid off.
-From giants like Meta and Amazon to promising startups, companies have shed thousands of employees. Reasons cited for the layoffs vary. Some, like Meta, point to pandemic-era overhiring and the need for "efficiency." Others, like Unity, a gaming software company, attribute it to restructuring and refocusing priorities.
-The rise of automation and AI is also seen as a factor, with repetitive tasks becoming increasingly automated.
-In a recent interview with Morning Brew Daily, Meta CEO Mark Zuckerberg offered his perspective on the wave of job cuts sweeping the tech industry. While acknowledging the pain caused by layoffs, Zuckerberg suggested a "silver lining" exists, with companies finding benefits in becoming "leaner" after pandemic-era overhiring. In 2023, Meta laid off thousands of employees.
-"In terms of the layoffs, I actually think that was more due to companies trying to navigate Covid," Zuckerberg stated, downplaying the role of automation or specific technologies like AI."At least for us, the AI stuff was not a major driver for that," the Meta CEO said. "It was like first this overbuilding and then this sense of like let's do the best work we can by making a lean company.”
-He explained that the pandemic boom in e-commerce fuelled rapid hiring sprees, but as the world adjusted, many companies realised they had become oversized.
-This first wave of layoffs, according to Zuckerberg, was primarily about course correction. However, he went on to suggest that companies are now discovering advantages in operating with a smaller workforce. "It was obviously really tough, we parted with a lot of talented people we cared about," he admitted in the interview, referencing Meta's own job cuts as part of its "year of efficiency" initiative. "But in some ways actually becoming leaner kind of makes the company more effective."</t>
+    <t>The "Magnificent Seven" is a prestigious group of technology stocks with a combined market capitalization of $13.3 trillion. These seven stocks delivered blockbuster gains in 2023 and were responsible for most of the upside in the benchmark S&amp;P 500 index because of their sheer size.
+The companies that make up the Magnificent Seven are:
+- Nvidia (NVDA -0.98%)
+- Meta Platforms (META 0.49%)
+- Microsoft (MSFT -0.08%)
+- Alphabet (Google) (GOOGL -1.55%) (GOOG -1.43%)
+- Apple
+- Amazon
+- Tesla
+A case can be made for owning a slice of all seven companies. However, some of the shine has come off the group as a whole in the early stages of 2024, particularly because Tesla stock has plunged 22% for the year already. Apple is also in the red so far. On the other hand, Amazon is having a great 2024 with an impressive 16% gain to date, although it has yet to reclaim its all-time high from 2021.
+The other four stocks in the Magnificent Seven -- Nvidia, Meta Platforms, Microsoft, and Alphabet -- have each set a new record high this year. Momentum is a powerful thing in the stock market, and each of these four companies is underpinned by unique fundamental drivers that could lead to more gains going forward.
+Here's why it's not too late to buy these four Magnificent Seven stocks.
+1. Nvidia
+Nvidia designed a series of data center chips capable of processing artificial intelligence (AI) workloads, and they have led to a staggering amount of revenue growth, the magnitude of which the average investor may never see again in their lifetime. It's the reason Nvidia stock surged 236% in 2023, and it has already logged a further 63% gain in 2024.
+Nvidia's H100 graphics processing unit (GPU) is currently the industry leader, but the company is about to ramp up shipments of its new H200 GPU. It can inference (ingest live data to make predictions) at twice the speed of the H100, and it also consumes half the energy, so it will be far cheaper for data center operators to run. It's expected that existing Nvidia customers like Amazon, Microsoft, Google, and Meta Platforms will race to get their hands on as many H200 GPUs as possible.
+Nvidia just reported its financial results for fiscal 2024 (ended Jan. 28). Its data center revenue surged by 217% year over year to $47.5 billion, which carried its total revenue to a record $60.9 billion. The company's earnings per share (profit) also exploded higher by 288% to $12.96.
+Those growth rates are the reason Nvidia stock isn't necessarily expensive right now, even though it trades at a price-to-earnings (P/E) ratio of 60.8, which is almost twice the 34.1 P/E of the Nasdaq-100 index. Wall Street expects the company's earnings to come in at $22.09 in fiscal 2025, which would shrink its P/E to a more palatable 35.6.
+The stock will probably also deserve a premium to the broader market by then based on the company's growth, which alone paves the way for more upside. In short, it's unlikely Nvidia stock has finished delivering gains.
+2. Meta Platforms
+Meta Platforms is the parent company of social networks Facebook, Instagram, and WhatsApp, which serve more than 3.1 billion people every single day. Its stock price is up 40% in 2024, and it has logged multiple all-time highs along the way. Meta is investing heavily in AI on a few different fronts, and the company has become one of Nvidia's largest customers.
+Meta developed an open-source large language model (LLM) called Llama. LLMs are the foundation models that power AI software applications -- for example, OpenAI's GPT-4 LLMs power its ChatGPT platform. Llama is open source, unlike most other LLMs, which means it receives scrutiny from thousands of AI developers, who provide valuable feedback to Meta.
+In other words, the open-source approach can accelerate the advancement of Llama for everyone, but especially Meta, which will use Llama to deliver a number of different AI applications. The company recently announced it will purchase 350,000 of Nvidia's H100 GPUs by the end of 2024, worth an estimated $9 billion. They will help Meta churn out new versions of its LLM more quickly. Llama 3 is currently in training, and will soon supersede the current Llama 2 model.
+But AI is also helping Meta feed more relevant content to users on its social networks. AI curates 20% to 40% of the content users see on Facebook and Instagram, which drove an uptick in the amount of time they spent on those platforms last year. That creates more opportunities to serve users with ads, which leads to more revenue for Meta.
+Like Nvidia, Meta stock remains relatively cheap despite trading at an all-time high. Its P/E ratio stands at 32.5 as of this writing, which is already a small discount to the 34.1 P/E ratio of Nasdaq-100 index. Wall Street expects Meta to deliver earnings growth of 23% in 2024, so the stock will soon look even cheaper.
+3. Microsoft
+Microsoft was one of the early movers when the AI frenzy kicked in at the start of 2023. All eyes were on OpenAI and its ChatGPT chatbot, and Microsoft swooped in with a $13 billion investment into that start-up, which laid the foundation for many of its AI initiatives. Microsoft stock is up 10% so far in 2024, though it's down fractionally from the record high it set in early February.
+Microsoft has embedded AI into its entire product portfolio, including the Bing search engine and Edge internet browser. Its Copilot AI virtual assistant is also available to users of the 365 document suite (which includes applications like Word, Excel, and PowerPoint), and the Microsoft Power platform, which allows businesses to build websites and software without writing code.
+The monetization opportunity is enormous. Microsoft says it has 400 million paid 365 users and all of them are candidates for the Copilot upgrade, which costs $30 per month. For context, the standard business 365 plan is $12.50 per month.
+Microsoft's cloud platform for businesses, Azure, remains the fastest-growing piece of its entire organization. Over 53,000 businesses are accessing AI models and tools on Azure to accelerate their own development initiatives. In the recent fiscal 2024 second quarter (ended Dec. 31), Azure's revenue grew by 30% year over year, and Microsoft attributed six percentage points of that growth to AI specifically -- that was double the contribution AI made in the prior quarter just three months earlier.
+Microsoft is arguably the most diverse AI story available to investors. It could be one of the greatest beneficiaries of widespread AI adoption, and for that reason, its stock will likely march higher.
+4. Alphabet (Google)
+Alphabet is home to Google, YouTube, and the Waymo self-driving company, among other brands. The company was perceived to be under attack last year because of Microsoft's OpenAI investment, as investors feared the new ChatGPT-powered Bing would steal some of the 91.4% market share held by Google in the internet search industry.
+Those concerns have since faded because Alphabet launched a series of its own LLMs and AI applications to compete with ChatGPT. Its latest model (called Gemini) outperforms OpenAI's latest GPT-4 models across most multimodal benchmarks. In other words, Alphabet says Gemini is better at understanding and generating text, images, videos, and computer code.
+Beyond AI, the reason Alphabet stock logged an all-time high this year is because its advertising business -- led by Google Search and YouTube -- is bouncing back. In the fourth quarter of 2023, Google Search delivered a record $48 billion in revenue, marking a 12.7% year-over-year increase. It was the fastest rate of growth since mid-2022. Similarly, YouTube's quarterly ad revenue growth accelerated to 15.5%.
+Like Microsoft, Alphabet is also building a formidable presence in AI in the cloud. Google Cloud has designed its own data center chips in-house to create an edge against competitors that only offer chips from Nvidia. Plus, Google Cloud offers over 130 generative AI models -- including Gemini -- which developers can use to build their own AI applications.
+Alphabet stock trades at a P/E ratio of 24.8 as of this writing. By that metric, it's the cheapest stock in the Magnificent Seven, which paves the way for more upside in its stock beyond its recent all-time high.</t>
+  </si>
+  <si>
+    <t>- Mark Zuckerberg is having some fun in Japan.
+- Besides making and wielding a Katana, Zuckerberg also found time to dine at Japan's McDonalds.
+- The Meta chief is off on his Asia tour, and plans to hit South Korea and India next.
+Mark Zuckerberg is on his Asia tour and exploring Japan. And in what looks like the latest installment of the adventures of Relatable Zuck, the Meta CEO is indulging in activities that some American tourists might be all too familiar with.
+The Meta chief started his trip with a Threads-worthy scenery shot of a glistening, snow-capped mountaintop.
+On Sunday, the martial arts enthusiast posted photos and videos of himself learning to make and wield a katana. The curved, single-edged blade is commonly seen in Japanese pop culture and manga, and was also featured heavily in Quentin Tarantino's "Kill Bill."
+And while it's unclear if Zuckerberg's a big fan of The Bride, he did live out the Japanese anime fantasy of taking a few quick slashes with a big sword.
+"Really special afternoon learning about making katanas with master Akihira Kokaji," Zuckerberg wrote on Instagram, expressing gratitude to the seasoned sword maker.
+And when it came to meals, Zuckerberg turned to an American staple — McDonalds.
+"Japanese McDonald's: 10/10. Give these guys a Michelin star," he wrote in a Facebook post on Tuesday.
+The billionaire posted photos of his fast food meal, which included two burgers, fries, chicken McNuggets, and two drinks.
+Then came the not-so-relatable part of Zuckerberg's trip. He met with Meta's developers in Tokyo and sat down with Japanese Prime Minister Fumio Kishida to discuss AI.
+Zuckerberg's winter trip to Japan looks decidedly different from Elon Musk's summer excursion to Tokyo.
+Musk dubbed the August vacation "The Fast &amp; The Fanciful: Tōkyō Drīft 2023" in a post on X. Musk also uploaded videos of himself and his son X visiting the glittery, super-Instagrammable TeamLab Planets Tokyo exhibit in Odaiba.
+Zuckerberg still has more of Asia to see. A spokesperson for Zuckerberg told Bloomberg that the billionaire was in Japan for a "personal trip" and will head to South Korea on Wednesday. The Meta boss is expected to wrap up his tour of Asia in India, where he's scheduled to attend the pre-wedding celebrations for billionaire Mukesh Ambani's youngest son.
+Representatives for Zuckerberg did not immediately respond to a request for comment from Business Insider sent outside regular business hours.</t>
+  </si>
+  <si>
+    <t>Why Meta Platforms (META) is a Top Momentum Stock for the Long-Term
+It doesn't matter your age or experience: taking full advantage of the stock market and investing with confidence are common goals for all investors.
+Many investors also have a go-to methodology that helps guide their buy and sell decisions. One way to find winning stocks based on your preferred way of investing is to use the Zacks Style Scores, which are indicators that rate stocks based on three widely-followed investing types: value, growth, and momentum.
+Is This 1 Momentum Stock a Screaming Buy Right Now?
+Momentum investors, who live by the saying "the trend is your friend," are most interested in taking advantage of upward or downward trends in a stock's price or earnings outlook. Utilizing one-week price change and the monthly percentage change in earnings estimates, among other factors, the Momentum Style Score can help determine favorable times to buy high-momentum stocks.
+Meta Platforms (META)
+Meta Platforms is the world’s largest social media platform. The company’s portfolio offering evolved from a single Facebook app to multiple apps like photo and video sharing app Instagram and WhatsApp messaging app owing to acquisitions. Along with in-house developed Messenger, these apps now form Meta’s family of products used by almost 3.96 billion people on a monthly basis as of Sep 30, 2023.
+META sits at a Zacks Rank #1 (Strong Buy), holds a Momentum Style Score of A, and has a VGM Score of B. The stock is up 1.8% and up 20.1% over the past one-week and four-week period, respectively, and Meta Platforms has gained 184.2% in the last one-year period as well. Additionally, an average of 23,190,004 shares were traded over the last 20 trading sessions.
+Momentum investors don't just pay attention to price changes; positive earnings play a crucial role, too. 15 analysts revised their earnings estimate upwards in the last 60 days for fiscal 2024. The Zacks Consensus Estimate has increased $2.39 to $19.94 per share. META boasts an average earnings surprise of 19.7%.
+With strong earnings growth, a good Zacks Rank, and top-tier Momentum and VGM Style Scores, investors should think about adding META to their portfolios.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Meta Platforms, Inc. (META) : Free Stock Analysis Report
+To read this article on Zacks.com click here.</t>
+  </si>
+  <si>
+    <t>Zuckerberg’s Asia Tour to Range From AI to Ambani Wedding Party
+Follow Bloomberg India on WhatsApp for exclusive content and analysis on what billionaires, businesses and markets are doing. Sign up here.
+Mark Zuckerberg is poised for a packed week in Asia, with stops in Japan, South Korea and India to work on artificial intelligence services and forge ties with business and government leaders in the region.</t>
   </si>
   <si>
     <t>AAPL</t>
   </si>
   <si>
-    <t>Better Tech Stock: Microsoft vs. Apple
-Wall Street is particularly bullish about tech stocks now. Excitement about budding markets like artificial intelligence (AI) and easing inflation sent the Nasdaq-100 Technology Sector index up 47% since last February.
-As the world's two most valuable companies and leaders in tech, Microsoft (NASDAQ: MSFT) and Apple (NASDAQ: AAPL) have seen their shares rise 54% and 18% during the period. These companies are some of the most attractive ways to invest in the industry, with one a king in productivity software and the other leading the consumer tech market.
-Microsoft and Apple have long histories of delivering consistent stock growth, and that looks unlikely to change. Over the last year, Microsoft emerged as one of the biggest names in AI. Meanwhile, Apple is home to a highly profitable services business and is gaining market share in the virtual reality/augmented reality (VR/AR) industry.
-So, let's examine these businesses and determine whether Microsoft or Apple is the better tech stock this February.
-Microsoft
-In January, Microsoft overtook Apple as the world's most valuable company, with its market cap at just over $3 trillion.
-The company is a tech behemoth with positions in multiple areas of the industry, leading in productivity software, game consoles, cloud computing, and operating systems. Its diverse business model allows it to profit from tailwinds across tech, making its stock an exceptionally reliable option.
-Since 2019, Microsoft's annual revenue climbed 68%, with operating income up 106%. Additionally, its free cash flow jumped 76% to $67 billion.
-The company has significant cash reserves, allowing it to keep investing in its business and retain its prominent role in tech. Microsoft became a leader in AI after sinking billions into ChatGPT developer OpenAI. The partnership granted Microsoft access to some of the sector's most advanced AI models, which it used to carve out a lucrative position in the budding industry.
-The AI market is projected to expand at a compound annual growth rate (CAGR) of 37% through 2030, which would see it hit nearly $2 trillion before the end of the decade.
-Meanwhile, Microsoft used OpenAI's technology to introduce AI features across its product lineup. In 2023, Microsoft added new AI tools to its Azure cloud platform, integrated aspects of ChatGPT into its Bing search engine, and boosted productivity in its Office software suite with the help of AI.
-Apple
-Apple hasn't had it as easy as Microsoft in the last year. In 2023, macroeconomic headwinds caught up with the company, leading to four consecutive quarters of revenue declines.
-The streak was finally broken in Apple's latest quarter, with revenue rising 2% year over year to $120 billion in the first quarter of 2024. The company beat Wall Street forecasts by more than $1 billion.
-However, outperforming estimates wasn't enough to quell investor concern over its iPhone business, with its stock down nearly 6% year to date. Smartphone sales rose 6% in Q1 2024, yet fell 13% in China. The country has increased restrictions on the iPhone, threatening business from Apple's third-largest market.
-As a result, it's promising that the company is expanding its product lineup and prioritizing digital markets like services to lean less on iPhone sales over the long term.
-The company released the Vision Pro, its first VR/AR headset, earlier this year. Launching at $3,499, the new device created significant hype for the technology. If the company employs a similar pricing strategy to that used with past products and brings down the cost with subsequent generations, an investment in Apple could be an investment in the future leader of the VR/AR market.
-The VR market alone is expected to grow at a CAGR of 31% until at least 2030. It could be smart to invest in the tech giant at the very start of its journey into the industry.
-Alongside free cash flow that hit $107 billion last year, Apple has the funds to overcome current headwinds and keep investing in high-growth areas of tech.
-Is Microsoft or Apple the better tech stock?
-Microsoft and Apple have exciting long-term outlooks, with opportunities to profit from multiple subsectors of tech.
-However, Microsoft's more significant priority on digital markets like cloud computing and AI makes it less vulnerable to macroeconomic headwinds and potentially the more reliable buy.
-Meanwhile, earnings-per-share estimates indicate Microsoft has more growth potential than Apple in the near term.
-Microsoft's earnings could hit just under $16 per share, while Apple's may reach nearly $8 per share in the next two fiscal years. Multiplying those figures by the companies' forward price-to-earnings ratios (Microsoft's 35 and Apple's 28) yields a stock price of $546 for Microsoft and $218 for Apple.
-Looking at their current positions, these projections would see Microsoft's stock rise by 35% and Apple's increase by 20% by fiscal 2026. If these projections are correct, Microsoft has significantly more room to run and is the better tech stock to buy this month.
-Where to invest $1,000 right now
-When our analyst team has a stock tip, it can pay to listen. After all, the newsletter they have run for two decades, Motley Fool Stock Advisor, has more than tripled the market.*
-They just revealed what they believe are the 10 best stocks for investors to buy right now… and Microsoft made the list -- but there are 9 other stocks you may be overlooking.
-*Stock Advisor returns as of February 20, 2024
-Dani Cook has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Apple and Microsoft. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
-Better Tech Stock: Microsoft vs. Apple was originally published by The Motley Fool</t>
-  </si>
-  <si>
-    <t>With the European Commission set to rule on Spotify’s complaint focused on competition in the streaming music market, there are hints that the ruling will not be in Apple’s favor. This week, the Financial Times reported the EC will issue its first-ever fine against the tech giant for allegedly breaking EU law over competition in the streaming music market. The fine is expected to be around €500 million (about $539 million USD), the report noted.
-Instead of chalking up the fine as the cost of doing business, as a company that made history as the first to be valued at $3 trillion surely could, the tech giant is taking the fight to the public.
-In a statement shared with media today, Apple argued against the idea that Spotify has been harmed by any anticompetitive practices on its part. (The statement was not issued by a single spokesperson, but rather comes from Apple itself). It reads:
-We’re happy to support the success of all developers — including Spotify, which is the largest music streaming app in the world. Spotify pays Apple nothing for the services that have helped them build, update, and share their app with Apple users in 160 countries spanning the globe. Fundamentally, their complaint is about trying to get limitless access to all of Apple’s tools without paying anything for the value Apple provides.
-Apple pointed out also that Spotify has a 56% share of the market, compared with 20% for Amazon Music and Apple Music’s 11%, per MIDiA’s 2022 report on the subscription music market.
-In addition, Apple shared a number of non-public details about Spotify’s business, as it pertains to Apple’s platforms, including, for example, that Spotify uses thousands of Apple’s APIs across 60 frameworks; that Spotify uses Apple’s beta testing platform TestFlight; that Spotify has submitted over 420 versions of its app to App Review, which were approved; and even that Apple engineers have helped Spotify solve various challenges, like those impacting hardware-accelerated media playback and battery optimization.
-And, for those number watchers out there, Apple also said that Spotify’s app had been downloaded, re-downloaded or updated more than 119 billion times across Apple devices — a stat we had not heard before, we should note.
-The fact that Apple is front-running the EC’s decision with its own commentary is remarkable, in and of itself.
-It speaks to a company that so solidly believes that it’s doing the best thing for its own customers and developer partners that any sort of ruling that deems otherwise is so absurd that it demands comment and pushback. Apple believes its system of in-app purchases for things like music subscriptions saves consumers not only the headache and inconvenience of having to visit external websites on the iPhone’s small screen — they can just click the side button instead — but also protects against fraud, excess data collection, consumer confusion over cancellations and errant purchases by children. (Of course, Apple is familiar with the latter itself.)
-Apple believes that Spotify only wants to increase its profits, by leveraging regulations to its advantage. In the case of the EU complaint, the concern is that Apple’s App Store distorts competition in the music streaming market. It is not solely a complaint that Spotify has been harmed, in other words, but that the nature of the App Store may have thwarted other rivals.
-“Spotify is a big player in the music streaming market but we don’t know what would have been the conditions without this,” EVP and competition chief Margrethe Vestager said about the EC’s investigation back in 2021. “There are other rivals to Apple Music — there are Deezer, there are Soundcloud. Smaller competitors and here we have real concerns about their developments. This is not a Spotify case — this is a music streaming case,” she noted.
-Spotify, however, has been the loudest of the Apple Music rivals and has fought against the company on other matters, for instance by calling Apple’s new DMA rules “extortion” and a “complete and total farce.”
-To protect its interests (and, Apple argues, consumers), Apple’s response to the EU’s DMA (Digital Markets Act) regulation is the introduction of a new system that requires developers to pay for its services beyond just App Store payment processing. Rather, it now separates payment processing from other services by levying a “Core Technology Fee” for those developers who want to do business under the new DMA rules. In other words, it wants developers to pay Apple for the work it does to create and maintain its iOS platform, where apps can run, rather than acknowledging that access to consumers’ favorite apps helps sell its iPhones.
-For the record, Apple disputes Spotify’s claims that it’s been harmed by any anticompetitive practices. It speaks to the success Spotify has seen over the years, having grown its streaming app over eight years from 25 million to 160 million subscribers — a 27% average growth rate. It points out that Spotify users regularly subscribe to the service outside its app, and that Spotify qualifies for the “Reader app” exception to Apple’s rules, which allows it to link directly to its website for account creation and payment, similar to Netflix.
-However, Apple seems to ignore the fact that Spotify turning a quarterly profit still makes headlines, that it just laid off 17% of its workforce, and that, you know, Spotify does face competition on iOS globally from Apple Music, which is preinstalled on iPhones, iPads and other Apple devices. In addition to being offered as a standalone service, Apple’s music streaming app is upsold to customers as part of the Apple One bundles, which combine multiple Apple services, like iCloud+, News+, Apple TV+ and others, under one roof.
-Apple also stresses how closely Spotify has worked with the Commission on its complaint, having met with the regulators more than 65 times since the investigation began. The investigation, however, has been ongoing for years.
-A rep for the EC declined to comment on news related to Spotify’s complaint or any pending fines. The FT had reported the fine is expected to be announced early next month.
-Spotify responded to Apple’s statement with one of its own, saying:
-Spotify’s success has happened despite Apple’s best efforts to gain an artificial advantage by favoring their own music service at every turn while placing roadblocks and imposing unfair restrictions on ours. Under their current rules Apple controls Spotify’s access to its own customers and gives Spotify one of two untenable options: We either have to deliver a poor user experience where we can’t directly communicate how to buy or subscribe to Spotify on iPhones or we have to accept a 30% cost disadvantage against our biggest competitor. This is not a level playing field. We support the European Commission and trust that they will take action soon to create a fair ecosystem for everyone involved.
-Additional reporting: Natasha Lomas; Updated 2/22/24 5:54 PM with Spotify statement.</t>
-  </si>
-  <si>
-    <t>Reaching a $1 trillion valuation is one of the most prestigious milestones a company can achieve, and it usually takes decades of consistent operational excellence. That's why a mere six U.S. companies have valuations of $1 trillion or more right now:
-- Microsoft
-- Apple
-- Nvidia (NVDA 0.35%)
-- Alphabet (Google parent)
-- Amazon
-- Meta Platforms
-However, Apple and Microsoft are the only two companies to have valuations north of $2 trillion at the moment. In fact, they were each worth more than $3 trillion before a recent sell-off in their stock.
-One more company looks almost certain to join them and stay there. On Friday, within the first hour of the market opening, Nvidia crossed the $2 trillion mark but closed the day back under the major milestone. It is worth $1.97 trillion as of this writing, and $1 trillion of that value was created in the last 12 months alone. Following another spectacular set of financial results released this month, Nvidia is now charging toward a $2 trillion market cap. Here's why it's likely to get there -- and stay there -- this year.
-Nvidia has a rich history of innovation
-Nvidia was founded in 1993 with a goal to bring 3D graphics to the gaming and multimedia industries. It released the world's first graphics processing unit (GPU) in 1999, which marked the birth of its GeForce brand, and it remains the dominant name in gaming today.
-But GPUs are now transforming the data center. A GPU features hundreds of cores, which means it can process high volumes of data much faster than a traditional central processing unit (CPU) and makes it ideal for artificial intelligence (AI) workloads. Nvidia designed its H100 GPU for that specific purpose, and it has been almost single-handedly responsible for the company's incredible growth over the past year.
-While the H100 is already the first choice for most AI data center operators, Nvidia's innovation engine has been hard at work developing the next iteration. It's called the H200, and it's twice as fast as the H100 when it comes to inferencing, which involves feeding an AI model live data so it can make predictions. It also consumes half the energy, making it far cheaper for data center operators to run. Shipments of the H200 will ramp up this year, and Nvidia already says there is no way it will keep up with demand.
-Nvidia isn't just an AI hardware provider
-Much of Nvidia's success can be attributed to its software ecosystem, which is increasingly important. Its CUDA platform allows developers to optimize their GPUs so they can develop applications much faster. But here's the kicker -- CUDA can't be used with chips from other manufacturers, so developers who are comfortable with CUDA have to stick with Nvidia's GPUs. That's why it will be so difficult for competitors to unseat Nvidia's dominance.
-But that's not all. CEO Jensen Huang says Nvidia's engineers now manage, optimize, patch, and tune the AI software stack for businesses through its AI Enterprise platform. It's effectively an artificial intelligence operating system that offers development tools and pre-trained models to help businesses accelerate the creation of AI applications.
-Nvidia AI Enterprise is accessible through major cloud platforms like Amazon Web services, Microsoft Azure, and Google Cloud, which effectively serve as distribution channels and give Nvidia access to millions of potential customers.
-Huang believes every enterprise in the world deploying software will eventually use Nvidia AI Enterprise. It was only launched in 2021 -- before AI really took off -- yet it has already amassed $1 billion in annual revenue.
-Nvidia's revenue growth is skyrocketing thanks to AI
-Nvidia just reported its financial results for fiscal 2024 (ended Jan. 28). Its revenue surged to $60.9 billion, which was up 126% compared to fiscal 2023, and as the below chart shows, it has increased more than tenfold in just the last eight years.
-The data center was the main driver of Nvidia's spectacular fiscal year, thanks to AI and the H100 GPU. The data center segment was responsible for $47.5 billion (78%) of the company's total revenue, and it marked an increase of 217% from fiscal 2023.
-The company expects to carry its momentum into the first quarter of fiscal 2025. Its forecast points to $24 billion in total revenue, which will represent 233% growth compared to the first quarter of fiscal 2024. However, investors should really focus on the long term because Nvidia believes the generative AI revolution is only getting started.
-Jensen Huang believes accelerated computing and generative AI will lead to a doubling of the current installed base of world data center infrastructure, which is an opportunity he says will be worth hundreds of billions of dollars in just the next five years.
-Nvidia is a stone's throw away from the $2 trillion club
-As I touched on at the top, Nvidia is currently worth $1.97 trillion. It already leapfrogged tech giants like Amazon and Alphabet in terms of valuation, and if its stock gains just another 1.5%, it will join Apple and Microsoft in the $2 trillion club.
-Based on Nvidia's $12.96 in non-GAAP (adjusted) earnings per share (profit) in fiscal 2024 and its current stock price of $788.17, it trades at a price-to-earnings (P/E) ratio of 60.6. That's almost twice the 32.1 P/E ratio of the Nasdaq-100 index, which implies Nvidia is extremely expensive. However, the stock market is a forward-looking machine.
-Wall Street is already forecasting $20.44 in earnings for Nvidia in fiscal 2025, which would reduce its P/E ratio to 37.9 (assuming its stock price remained the same). While that is still more expensive than the Nasdaq-100, a company growing as quickly as Nvidia deserves a premium. There might even be significant upside to come.
-A Wall Street analyst from Loop Capital believes Nvidia stock could jump 53% to $1,200. That would take Nvidia's valuation to almost $3 trillion! That target is a little ambitious -- if not unrealistic -- in the short term, but if Jensen Huang is right about the data center opportunity in the next five years, the stock could certainly get there in the longer term.
-In any case, Nvidia's entry into the $2 trillion club now appears to be a foregone conclusion.</t>
-  </si>
-  <si>
-    <t>Apple (NASDAQ:AAPL) has yet to seriously lean into the AI opportunity but it feels like it is only a matter of time until it makes some serious AI-flavored moves. During the tech giant’s recent earnings call, CEO Tim Cook showed excitement about AI and indicated that Apple would be unveiling AI-related developments later this year.
-Since AI has already been integrated into smartphones for several years, powering features such as facial recognition, translation, and image editing, Bernstein analyst Toni Sacconaghi suggests that actually defining what constitutes an AI phone is “somewhat messy.” However, he believes the term should probably be applied to smartphones that are specifically marketed by OEMs as “AI phones.” Some big names are already doing just that, the most notable AI offerings being Google’s Pixel 8/Pixel 8 Pro, and Samsung’s Galaxy S24 series.
-Rather than being all-out revolutionary, these models’ AI capabilities “appear incremental.” Furthermore, both offerings have seen minimal hardware changes compared to their previous models, primarily focusing on upgrades to processors and batteries, which are standard features in new smartphone models.
-So, what could Apple do? Sacconaghi thinks the company could focus on enhancing AI capabilities that align closely with its existing products while introducing incremental improvements. This could include advancements in image and video capture/editing tools, bolstered translation and transcription features, improved messaging support, enhanced Siri functionality, and increased automation in services like Apple Music. Additionally, Apple may look to provide a more seamless user experience, aiming to enhance overall ease of use across its ecosystem.
-Within this context, Sacconaghi thinks that there are two important questions to consider: “1) Even if Apple’s AI functionality is not unique, will the novelty of AI + Apple’s powerful marketing be enough to trigger a material upgrade cycle, especially since Apple appears ‘due’ for a strong cycle following a weak iPhone 14 and 15? We note that Apple was late relative to peers to introduce large screens (6/6+ cycle), OLED (iPhone X) and 5G, but each triggered meaningful upgrade cycles for Apple; (2) how much of the new AI capability will be exclusive to iPhone 16 vs. be a software upgrade to Apple’s installed base? We believe more the former, which points to bigger announcements in Sept with iPhone’s launch than in June (WWDC).”
-For now, Sacconaghi remains on the sidelines with a Market-Perform (i.e., Neutral) rating on Apple shares, and a $195 price target, suggesting the shares will post growth of 6% over the coming months. (To watch Sacconaghi’s track record, click here)
-7 other analysts join Sacconaghi on the fence, and with 1 additional Sell and 16 Buys, the stock claims a Moderate Buy consensus rating. At $206.15, the average target makes room for one-year returns of ~12%. (See Apple stock forecast)
-To find good ideas for stocks trading at attractive valuations, visit TipRanks’ Best Stocks to Buy, a tool that unites all of TipRanks’ equity insights.
-Disclaimer: The opinions expressed in this article are solely those of the featured analysts. The content is intended to be used for informational purposes only. It is very important to do your own analysis before making any investment.</t>
-  </si>
-  <si>
-    <t>As I sit here writing this in the Apple Vision Pro, I’m acutely aware of how the light seal presses against my forehead and cheekbones. It was relatively comfy when I slipped it on an hour ago. But now, every so often, I push up on the bridge — as if I’m a cartoon nerd saying, um, well, actually — just to give my face a break. This is despite the fact that I’ve done the scan to figure out my perfect light seal fit (33W, in case you’re wondering). So no, I’m not surprised that many Apple fans who returned their Vision Pros cited comfort as a major issue.
-But this isn’t exclusively a Vision Pro problem. It’s a wearable problem.
-I say this a lot in my reviews, but comfort is king. For other gadget categories, comfort is mostly a question of weight. With wearables, fit adds another layer of complexity. You’re not going to wear a smartwatch, smart ring, smart glasses, or a mixed reality headset if you don’t find it comfortable. The catch is that it’s hard to scale a comfy fit for the mass market. Even if a company tries its damnedest, somebody always gets left out.
-Smartwatches often come in multiple sizes: 40–42mm for smaller wrists, 44–47mm for medium-size wrists, and 48–50mm for larger wrists. Problem solved, right? Not quite. Smaller size smartwatches often get shafted due to technical constraints. They have worse battery life compared to bigger watches, which can cram in beefier batteries. The biggest watches also tend to get the newest features first. (See: Garmin Fenix 6X and solar charging, Apple Watch Ultra and dual-frequency GPS, etc.) As a petite-wristed person, I always have to choose whether I want features and battery life or comfort. Either way, I have to give up something.
-The average ring size for women is a 6, and for men, it’s a 9 or 10. In the US and Canada, regular rings can come in sizes ranging from 3 to 16. Half sizes are also an option. With smart rings, few, if any, are available for people with ring sizes below 6 or above 13. Smart ring makers like Oura, Movano, Ultrahuman, and Circular also don’t support half sizes. It’s understandable. Smart rings have technical components stuffed inside them. That makes them impossible to resize, and it makes financial sense for companies to only mass-produce the most common sizes. But it means you only get 7 or 8 size options with smart rings, compared to roughly 28 with regular rings.
-Every time I review smart glasses, I get people in my DMs asking about how they fit. For those of us without aquiline noses, glasses without proper nose pads will constantly slip off your face. That happened to me when I reviewed the Amazon Echo Frames Carrera Cruiser. It gets old real fast. I’m sure Amazon has its reasons for only offering a standard fit, but low nose bridges are quite common. It’s leaving out a large swath of people globally.
-The root issue is that every human body is different. You could argue that companies should try to provide a bespoke fitting experience for the best results. However, that can be a logistical nightmare, too. To get a pair of the now-defunct Focals by North, I had to physically go to their store in Brooklyn and get my face 3D scanned. At launch, online scans weren’t an option. After, I had to return three weeks later for a fitting with the actual product. Those smart glasses fit me the best, but for most people, in-person fittings weren’t feasible unless they lived near the company’s Toronto or New York City stores. By the time Focals by North rolled out app-based fittings, the writing was on the wall for the company.
-I don’t have a solution. I think the best any wearable maker can do is prioritize comfort and make devices easier to wear with each generation. Those that don’t, do so at their own peril. It doesn’t have to be a category-sweeping innovation, either. The Evie Ring added an open gap up top that makes it easy to take off when your fingers swell. It’s small but dramatically improved wearability. If done well, prioritizing comfort has the added benefit of minimizing how many people are left out.
-With the Vision Pro, Apple did a reasonably good job of accommodating as many face shapes as it could. But if it truly wants spatial computing to be a thing, it needs to brainstorm ways to make it comfortable enough for the vast majority of people to wear for several hours at a time. Some people are lucky because that’s already their experience. For me, the headset is relatively comfortable. Today, that wasn’t enough. I only made it two-thirds of the way through this article before I had to take it off.</t>
+    <t>Warren Buffett is known as a buy-and-hold investor. He once stated, "When we own portions of outstanding businesses with outstanding managements, our favorite holding period is forever."
+However, Buffett doesn't hold forever every stock he buys. There's a good bit of churn in Berkshire Hathaway's (BRK.A 0.36%) (BRK.B 0.41%) portfolio. But the legendary investor has identified a handful of Berkshire's holdings that he believes are forever stocks. Buffett just revealed the eight stocks that he thinks Berkshire Hathaway will likely hold forever -- and Apple (AAPL -0.45%) wasn't one of them.
+Two long-term Berkshire holdings
+In his letter written to Berkshire Hathaway shareholders last year, Buffett discussed two long-term holdings -- American Express (AXP 0.10%) and The Coca-Cola Company (KO -0.46%). He noted that Berkshire completed building big positions in both stocks in the mid-1990s after several years of buying.
+American Express and Coca-Cola have been massive winners for Buffett and Berkshire. In his letter written last year, he used them to make an important point: "The weeds wither away in significance as the flowers bloom. Over time, it takes just a few winners to work wonders."
+Buffett mentioned AmEx and Coca-Cola again in his most recent letter to Berkshire shareholders, which was released on Saturday. He emphasized the lesson from these two purchases: "When you find a truly wonderful business, stick with it."
+Another stock Buffett really likes
+In his latest shareholder letter, Buffett added other stocks that he said Berkshire "expect[s] to maintain indefinitely." The first new addition to the list was Occidental Petroleum (OXY 0.64%).
+Berkshire has been buying Occidental shares hand over fist. At the end of 2023, the conglomerate's stake in the company stood at 27.8%. It's now the sixth-largest position in Berkshire's portfolio.
+Buffett stressed that Berkshire doesn't have any intention of fully acquiring Occidental or gaining control of the oil and gas producer. However, he said that "we very much like our ownership," along with the option to increase Berkshire's position.
+There are two things about Occidental that Buffett especially likes. First, the company has extensive oil and gas operations in the U.S. Second, Occidental is a leader in carbon capture.
+Although Buffett acknowledged that the technology is still unproven, he argued that it, along with Occidental's large oil and gas holdings, "are very much in our country's interest."
+Five birds of a feather
+Buffett discussed the other five stocks that he believes Berkshire will hold practically forever as a group, rather than individually. They're the five huge Japanese trading houses:
+- Itochu (ITOCF -2.18%) (ITOCY -0.95%)
+- Marubeni (MARUY -0.03%)
+- Mitsui (MITSF 2.27%) (MITSY -0.60%)
+- Mitsubishi (MSBHF -1.23%)
+- Sumitomo (SSUM.F -1.04%) (SSUM.Y -1.60%)
+Berkshire currently owns stakes of roughly 9% in each of these Japanese companies. Buffett noted that the conglomerate has committed that it wouldn't increase its ownership in any of them beyond 9.9%.
+What does Buffett like about these five companies? For one thing, he mentioned that each of them "operates in a highly diversified manner somewhat similar to the way Berkshire itself is run." He likes the Japanese companies' policies that are beneficial to shareholders, including smart stock buybacks. Buffett also stated that the investments could open the door for Berkshire to partner with the companies down the road.
+What about Apple?
+Apple remains Berkshire's largest holding, by far. Buffett didn't list the tech giant in his list of stocks that Berkshire would hold forever. In the fourth quarter of 2023, Berkshire even trimmed its position in Apple.
+Does this mean that Buffett doesn't view Apple as a forever kind of stock? I don't think so.
+For one thing, it's important to remember that Buffett only focuses on a small number of specific Berkshire holdings in each shareholder letter. He didn't discuss Occidental (except for one brief mention), Itochu, Marubeni, Mitsui, Mitsubishi, or Sumitomo in last year's letter, even though Berkshire owned all of these stocks then.
+In May 2023 at Berkshire's shareholder meeting, Buffett stated that Apple "is a better business than any we own." Again, all eight of the stocks that he indicated he thinks Berkshire will own indefinitely were in Berkshire's portfolio when he made that statement.
+The bottom line is that we shouldn't assume that there aren't other stocks in addition to American Express, Coca-Cola, Occidental, and the five Japanese trading-house stocks that Berkshire will hold for decades to come. I'd bet that if Buffett were asked to name the full list, Apple would be on it -- and probably several other stocks, too.</t>
+  </si>
+  <si>
+    <t>Stock futures, TJX earnings, Apple Car cancelled: 3 Things
+Stock futures pull back on Wednesday as markets await the February Personal Consumption Expenditures (PCE) index print and bitcoin (BTC-USD) prices soar.
+TJX Companies (TJX) — the parent company of TJ Maxx and Marshalls — same-store sales rose in the fourth quarter as the retail company updated its first-quarter earnings guidance.
+Apple (AAPL) has officially stepped back from its plans to develop an electric vehicle.
+For more expert insight and the latest market action, click here to watch this full episode of Yahoo Finance Live.
+Editor's note: This article was written by Luke Carberry Mogan.
+Video Transcript
+SEANA SMITH: So let's get right to it. The three things that you need to know, your roadmap for the trading day. "Yahoo Finance's" Josh Schafer, Jared Blikre, and Dan Howley have more.
+JOSH SCHAFER: Yeah, Seana. Futures retreating this morning coming off Tuesday's mixed close, as investors await Thursday's crucial inflation report. The latest reading on personal consumption expenditures widely known as the Federal Reserve's preferred inflation gauge will help traders search for clues about the potential timing of a Fed interest rate cut.
+Meanwhile, though, enthusiasm for the world's largest cryptocurrency is reaching a level last seen during its 2021 boom. Bitcoin breaking $60,000 putting it within striking distance of its all-time highs.
+JARED BLIKRE: And retail earnings are occupying investors' attention this morning. TJ Maxx parent, TJX, posting better than expected sales in its fiscal fourth quarter with same-store sales jumping 5% thanks to those holiday deals.
+The department store did however issue weaker guidance. TJX also announced its plan to repurchase approximately 2 billion to 2.5 billion of stock in fiscal 2025.
+DAN HOWLEY: And Apple is reportedly pulling the plug on its plans of building electric vehicles. For the last decade, the iPhone maker was rumored to be spending billions of dollars on the project, which initially called for a fully autonomous car before being scaled back to a vehicle with advanced safety features.
+The team consisted of 2,000 employees, many of whom will be moved to the iPhone maker's artificial intelligence division, according to Bloomberg.</t>
+  </si>
+  <si>
+    <t>- Apple will wind down its team working on electric cars, according to Bloomberg.
+- The news signals an end to Apple's secretive effort to build a car to rival Tesla.
+- Reports of Apple's ambition to build a car first surfaced in 2014.
+Apple will wind down its team working on electric cars, called Special Projects Group, according to Bloomberg.
+The news signals an end to Apple's secretive effort to build a car to rival Tesla. The program employed thousands of employees but never fit with Apple's core business of electronics and online services, and raised questions about where Apple would turn for the manufacturing of a vehicle.
+Reports of Apple's ambition to build a car first surfaced in 2014 after the company recruited automotive engineers and other talent from auto companies. While there was little public information about Apple's plans, the company operated a program with autonomous Apple-owned cars equipped with sensors and safety drivers cruising around the San Francisco Bay Area.
+Apple's Special Projects Group had several reorganizations over the years, including layoffs in 2019, when employees were moved to different parts of the company. Some Apple employees in the car division may move to a generative artificial intelligence team, according to Bloomberg.
+The company has other automotive-related projects, including its infotainment CarPlay software, which Apple says is installed on 80% of new vehicles.
+Apple's car project was part of an internal effort to look for technologies the company could develop with huge potential markets. Apple continues to develop health technologies, especially for the Apple Watch. And last month, the company released its first virtual reality headset, the Vision Pro.
+Some of Apple's Asian rivals in smartphones have invested heavily in designing and potentially manufacturing cars. Xiaomi, a maker of Android smartphones, announced a new electric vehicle this week. Foxconn, Apple's main manufacturing partner, said last year it will build electric vehicles.
+Apple and CEO Tim Cook never acknowledged the car project publicly, instead referring to it as work on "autonomous systems." In 2016, Cook was asked by a shareholder about the project, and teased that "it's going to be Christmas Eve for a long time."
+As part of its silence, Apple's hasn't outlined its expenditures in the auto space. Overall, the company spent about $30 billion on research and development in 2023, a 14% increase over the prior year. Apple's R&amp;D budget includes investments in new software and features for its existing products such as the iPhone.
+Apple shares rose less than 1% on the news on Tuesday. Apple declined to comment.
+Don't miss these stories from CNBC PRO:
+- Berkshire Hathaway is one of the most overbought stocks on Wall Street. Here are the others
+- Want an Nvidia alternative? These 6 chip suppliers look set to gain big from the AI boom
+- Jefferies says buy this under-the-radar software stock with ties to Nvidia and nearly 20% upside
+- 'Opportune time to invest in real estate': Pros name 5 REITs to buy right now</t>
+  </si>
+  <si>
+    <t>Apple cancels secretive electric car project in shift to focus on AI
+Then $75 per month. Complete digital access to quality FT journalism on any device. Cancel anytime during your trial.
+Complete digital access to quality FT journalism with expert analysis from industry leaders. Pay a year upfront and save 20%.
+Then $199 for 12 months. Insight and expertise in your hands with the iconic FT print edition, delivered Monday to Saturday.
+Terms &amp; Conditions apply
+See why over a million readers pay to read the Financial Times.
+International Edition</t>
+  </si>
+  <si>
+    <t>The world was quite different when Apple quietly started its electric vehicle project in 2014.
+The zero-interest-rate policy (ZIRP) era was in its heyday; the iPhone 6 was fresh enough not to feel incremental to consumers, and the problems of a supply chain wrapped up in China only appeared in glimpses.
+That all helped afford Apple the luxury to pursue something behind closed doors far beyond its usual remit of personal gadgets.
+A decade on, however, things are looking quite different.
+So much so, that a Bloomberg report said Apple was calling it quits on its highly secretive EV push known as Project Titan. Senior executives Jeff Williams and Kevin Lynch reportedly broke news on Tuesday to the near-2,000 people working on the project.
+Historically, Apple has had projects in the background that have never made the light of day. For instance, a tablet prototype developed in 1992 called the PenLite never made it to shelves. Neither did the AirPower, a wireless charging mat announced in 2017.
+But in canceling a project that would have taken Apple into an entirely new industry, the company is signaling that it's done with side hobbies. And for good reason.
+AI and mixed reality priorities
+At an almost $3 trillion market capitalization, and as one of the most cash-rich companies today, it's easy to think Apple has the resources to continue plowing cash into side projects.
+But in 2024, it's clear that Apple has a lot of other new areas to throw money at.
+Having launched its Vision Pro mixed reality headset this month, the company has already committed itself to scaling and commercializing a technology that presents an entirely new business area.
+The $3,500 goggles are not expected to be an immediate revenue driver. Still, the company will need to devote serious effort toward innovating the headset over the years, amid user complaints about its weight and comfort.
+That's particularly so as competitors like Mark Zuckerberg post public teardowns of Apple's foray into mixed reality — a technology far from hitting mainstream appeal.
+Apple will also be thinking hard about AI.
+Following the release of ChatGPT, analysts and Apple watchers wondered when the company would share details about its work on AI as other Big Tech rivals like Meta and Google scrambled to make the technology a priority.
+Earlier this month, CEO Tim Cook hinted that Apple would soon unveil its strategy on the technology after mentioning "artificial intelligence" for the first time since ChatGPT's launch in prepared remarks for an earnings call.
+Of course, Apple is likely to have run into the difficulties of building EVs that so many before have encountered. The wheels fell off British billionaire Sir James Dyson's EV plans in 2019, for example. In an email to staff, he acknowledged that commercial viability was a way off.
+AI and mixed reality are plenty to keep it busy for now.</t>
+  </si>
+  <si>
+    <t>As the first earnings season of 2024 comes to a close, Jim Cramer has given his assessment of the latest financial reports from the Magnificent Seven mega-cap companies, with NVIDIA Corp NVDA and Amazon.com Inc AMZN receiving special recognition.
+What Happened: On Wednesday, Cramer commended Nvidia for its record revenue, which saw a 265% increase due to high demand for its AI products. He also lauded Amazon for its growing advertising and web services sector, reported CNBC.
+"To me, a longer-term vision is what's required," Cramer said.
+"Too bad make or break is all that we ever heard during earnings season."
+Nvidia was the first to receive praise from Cramer for its record revenue, which soared by 265% due to sustained high demand for its artificial intelligence products. Cramer then lauded Amazon as the “most definitive summa of all,” highlighting its thriving advertising business and expanding web services sector.
+The CNBC host also praised Meta Platforms Inc. META for its robust advertising and WhatsApp business, and Microsoft Corporation MSFT for its strong cloud business. However, he remarked that Microsoft’s AI product, Co-Pilot, had received mixed reviews.
+See Also: Bitcoin, Ethereum, Dogecoin Gains Remain Intact Going Into Fresh Trading Week — Analyst Says King Crypto
+While Apple Inc. AAPL did not receive “high honors” according to Cramer, he argued that Wall Street was overly harsh. He also had mixed views on Alphabet Inc. GOOGL, praising its cloud business but critiquing its advertising sector. He gave Tesla Inc. TSLA a “gentleman’s C,” expressing uncertainty about the company’s outlook for the year.
+“Overall, the seven truly did acquit themselves well,” he said.
+“Some of these mega-cap companies aced their report cards, getting what I can only describe as ‘summas,’ at least in their orals, meaning the conference call.”
+Why It Matters: Cramer’s assessment of the Magnificent Seven’s earnings comes after he suggested that investors should look beyond these tech stocks for potential high-yield investments. In a previous article, Cramer acknowledged the significant influence of mega-cap tech companies on the market but also pointed out other stocks that could offer substantial returns.
+Earlier in the year, Cramer also made a bold prediction about one of the Magnificent Seven stocks, suggesting that Tesla might be the first to fall. He proposed that if Tesla loses its position, Eli Lilly could be a strong contender to take its place.
+Read Next: NVIDIA Earnings Are Imminent; These Most Accurate Analysts Revise Forecasts Ahead Of Earnings Call
+Image Via Shutterstock
+Engineered by Benzinga Neuro, Edited by Kaustubh Bagalkote
+The GPT-4-based Benzinga Neuro content generation system exploits the extensive Benzinga Ecosystem, including native data, APIs, and more to create comprehensive and timely stories for you. Learn more.
+© 2024 Benzinga.com. Benzinga does not provide investment advice. All rights reserved.</t>
+  </si>
+  <si>
+    <t>These three Magnificent Seven stocks are earnings winners
+The top tech stocks, known as the Magnificent Seven - Amazon (AMZN), Apple (AAPL), Alphabet (GOOG,GOOGL), NVIDIA (NVDA), Meta (META), Microsoft (MSFT), and Tesla (TSLA) have all reported their latest quarterly results. Following the reports, analysts revised their earnings estimates for upcoming quarters.
+Yahoo Finance Markets Reporter Josh Schafer explains how the Wall Street's views on the Magnificent Seven may be evolving.
+For more expert insight and the latest market action, click here to watch this full episode of Yahoo Finance Live.
+Editor's note: This article was written by Nicholas Jacobino
+Video Transcript
+BRAD SMITH: All Magnificent Seven companies have reported their fourth quarter results. The majority seeing upward estimates revision-- estimate revisions rather an average of over 7% for the quarter. That's according to Datatrek
+Now, let's bring in "Yahoo Finance's" Josh Schafer for more details on this. Hey, Josh.
+JOSH SCHAFER: Yeah, Brad. Datatrek did a great job breaking this down in their evening note last night. And I want to zoom out a little bit here and take a look at some of the other earnings revisions they had.
+So we had earnings from all of the Magnificent Seven companies. And then, of course, the big question is, well, what do analysts think are now going to happen for the current quarter for the next year? And maybe even out into 2025? That's what gets priced into these stocks.
+So if you take a look here, this is what's changed in earnings estimates over the last 30 days. So this is not expectations for next year, necessarily, directly, it is what has changed in the last 30 days.
+You see, really, I think the takeaway here, Seana, you're looking at it. There's only three companies that really saw big changes. And that to me is one of the prevailing takeaways here. NVIDIA Amazon, Meta, the big three winners of this earnings season.
+You can see Alphabet actually had its estimates up a little bit. But we were talking about this off air and discussing what do we learn from this. And I think it's the three companies there. And then if you look at year-to-date performance in these stocks, you probably have to give Microsoft a little bit of credit.
+Microsoft is up about 8%. So a little bit over the market. So maybe we'll call it 3 and 1/2. But to me, the prevailing takeaway that we've seen in earnings projections, movements is maybe we're not talking about the Magnificent Seven.
+Maybe, it's the Fantastic Four or the 3 and 1/2. I don't know. But it seems like we're no longer in this seven tech stock phase. And it's certainly narrowed.
+BRAD SMITH: The triple threat. Yeah.
+SEANA SMITH: Triple threat. That was a good one. OK. I was trying to I was sitting over here trying to come up with something quick. You beat me to it.
+But, Josh, I think also for investors is what this means for the broader market. Zooming out even more, talking about how this is factoring into S&amp;P projections for year end. We've seen a number of analysts, even this week with Barclays out this morning, upping their target even more.
+JOSH SCHAFER: And in most of these strategists that are coming out and saying they expect the S&amp;P 500 to rise higher, so Barclays coming out and saying that they think it's going to go to 5,300.
+They're boosting their target from 4,800. The main driver of that is big tech. So they're saying they think the economy is going to hold up well, which is, of course, important, because, big tech also needs the economy to do well.
+But then they're also highlighting that they think that big tech is going to be the big outperformer here. And they said in this release here in their research, they were highlighting, overall, how much more big tech is worth in the earnings story than the rest of the S&amp;P 500, and really, the rest of big tech.
+If you were to remove big tech, I'm looking at their projections for the full year 2024 right now. You're talking about the rest of the S&amp;P 500 being at like $177 worth of earnings. Instead of when you add in big tech you get $46 worth of earnings in that. So it's a significant increase when you're adding in big tech and adding in those high expectations.
+That's what's driving these targets higher right now.
+SEANA SMITH: It seems like nothing stopping-- what is it? Triple threat--
+BRAD SMITH: The trifecta, the hat trick.
+JOSH SCHAFER: One day, we got to just do two hours on just the triple threat. We'll just talk about the three stocks.
+BRAD SMITH: Triple double.
+SEANA SMITH: You're onto something.
+JOSH SCHAFER: It's all the--
+SEANA SMITH: It's going very well.
+JOSH SCHAFER: Who needs the 497?
+BRAD SMITH: Nobody.</t>
   </si>
   <si>
     <t>Tom's Guide Verdict
@@ -375,25 +410,123 @@
 Mark Spoonauer is the global editor in chief of Tom's Guide and has covered technology for over 20 years. In addition to overseeing the direction of Tom's Guide, Mark specializes in covering all things mobile, having reviewed dozens of smartphones and other gadgets. He has spoken at key industry events and appears regularly on TV to discuss the latest trends, including Cheddar, Fox Business and other outlets. Mark was previously editor in chief of Laptop Mag, and his work has appeared in Wired, Popular Science and Inc. Follow him on Twitter at @mspoonauer.</t>
   </si>
   <si>
-    <t>Apple's big bet on India is starting to pay dividends as the company's iPhone sales in the country surpassed those in any individual European Union country in the year 2023. Apple's iPhone revenue in India rose 42% YoY in 2023 to $8.7B, as per a Morgan Stanley note.
-iPhone sales in India outshine the European Union
-Driven by strong consumer demand for premium devices, iPhone revenue in India jumped 42% year-over-year to $8.7 billion last year.
-iPhone shipments to India also grew 39% to 9.2 million units, making India the fifth-largest smartphone market for Apple. This makes India a larger iPhone market for Apple than individual European Union countries like Germany or France.
-"India represented 4% of iPhone shipments and revenue in 2023, up from just 1% five years ago. This compares to a 20% share in China, which declined slightly year-over-year," the Morgan Stanley report stated.
-Indian consumers crave more storage
-Underpinning robust iPhone growth in India is rising consumer appetite for pricier, high-capacity devices. The average iPhone sold in India last year had around 260 GB of storage, a 26% increase from 2021. India's iPhone average selling price also rose 2% to $940. The iPhone 13, 14 series, and 15 were the top sellers, accounting for 86% of sales.
-Old iPhone models drove maximum sales for Apple
-Market research firm IDC's recent data reveals key insights into the models driving iPhone growth in India. The IDC report shows that the iPhone 13, iPhone 14, iPhone 14 Plus, iPhone 14 Pro, and iPhone 15 accounted for a substantial 86% of total iPhone sales in India in 2023.
-While Indian consumers are buying premium devices, Apple's strategy of also selling older generation models at reduced prices is working well. This has allowed Apple to capture a greater slice of the value-focused Indian smartphone market while driving up overall iPhone shipments.
-As per IDC, by catering to various price tiers beyond just the latest flagships, Apple has struck the right chord with Indian buyers. This segment-based approach has been vital to Apple registering a 39% year-on-year growth in iPhone volumes in the country.
-Big India bets paying off for Apple
-With China's iPhone growth stagnating amidst supply issues and market saturation, India is rising up the ranks for Apple. Propelling this growth is the appetite for premium devices instead of the latest models. This allowed Apple to capitalise on consumer demand in a price-sensitive market like India.
-"If India continues its trajectory while China stays flat, India could overtake China to become Apple's largest iPhone market by 2027," Morgan Stanley analysts project.
-In recent years, Apple has been increasing its investments in India, including opening its first retail stores last year. Manufacturing of iPhones in India has also been steadily rising to meet demand.
-Morgan Stanley forecasts that Apple's India revenue will touch $40 billion by 2032. For a company facing market saturation and supply chain constraints in China, the growth in India comes as a boon.
-Last year, Apple's CEO, Tim Cook, expressed his optimism about India during an earnings call, saying, "I'm even more bullish now, hopefully on the other side of it." Then, earlier this month, in the earnings call of Q4 2023, where Apple registered record iPhone revenue for the quarter and an all-time record for services, Cook highlighted India's importance, stating, "India reported strong double digits in revenue terms in the December quarter and hit a quarter revenue record."
-As the second-largest smartphone market globally, India offers Apple a 1.4 billion consumer base that is just starting to trade up to pricier devices. With continued focus on addressing local demand, Apple seems poised for long-term gains in the Indian market.
-For now, all eyes are on India as it emerges as a critical growth engine for Apple's iconic iPhone even as sales decline in China. The iPhone maker’s early mover advantage and understanding of Indian consumer preferences have set the stage for Apple to potentially make India its biggest iPhone market within a few years.</t>
+    <t>Now that Apple has started outfitting its laptops with its M3 generation of chips, it's time to take another look at which is the best MacBook to buy in 2024. That’s not always easy, though, as buying the newest MacBook isn’t always the right decision. Apple has several tiers of performance, as well as various sizes, which can further complicate the matter.
+What’s more, you can also still get M1 and M2 MacBooks, some from Apple’s own website and some from third-party retailers. For instance, while the MacBook Pro has the M3 series, the MacBook Air hasn’t made the jump yet. But if you can wait for the M3 MacBook Air (which is expected early in 2024), we think you should, and we’ll explain why shortly.
+So, if you’ve been considering a MacBook but don’t have a clue as to which model to buy, give our guide a read. It’ll help you narrow down your choices and come away happy with your purchase.
+MacBook Air 13-inch (M2)
+The MacBook for everyone
+- Uses the latest Apple M2 chip
+- Superthin and lightweight
+- Second-lowest price for a MacBook
+- Totally silent fanless design
+- Larger 13.6-inch display and 500-nit brightness
+- Eight-core GPU, with extra cost for 10-core
+- Only passive cooling
+- The screen has a notch
+With a complete redesign, the 13-inch MacBook Air M2 looks a lot like the MacBook Pro, with a uniform thickness instead of the classic taper that the original MacBook Air featured. It's now thinner at the back and 0.1 pounds lighter at 2.7 pounds, despite the increased battery capacity. It uses the fanless design that sets the MacBook Air apart from other Mac laptops, yet still manages to run incredibly cool under normal workloads.
+The MacBook Air M2 is a great budget option for anyone looking to update to Apple silicon or switch to a Mac for general computing on the go. It's small and light enough to disappear in a tech bag and can easily be carried around all day. The 500-nit Liquid Retina display is bright enough for most environments, an important feature for a laptop. Equally important is its long battery life, which lasts up to 18 hours during video playback with the Apple TV app. Apple includes a 30-watt USB-C charger (35-watt with the M2 10-core, 512GB storage model), but it's compatible with Apple's 67-watt USB-C power adapter.
+The 2022 Apple MacBook Air also features a larger screen size. There's a thinner top bezel with a notch for the webcam, allowing the display to increase by a little over a quarter-inch to 13.6 inches diagonally. It doesn't sound like much of a change, but it is quite noticeable when the screen is open. While the slimmer bezel is welcome, the notch has been a bit controversial. Both 2023 MacBook Pro models have notches as well, so this is likely a trend that will continue.
+On the topic of appearance, the MacBook Air M2 has two new color choices, Midnight and Starlight. Starlight is a pale gold tone that lacks the pink tint of the previous-generation's gold. Midnight is nearly black, which looks striking, with a hint of purplish-blue under the right lighting conditions.
+The new MacBook Air M2 can be configured with up to 24GB of memory, 50% more than the older model supported, and memory is one of the best upgrades to invest in since it makes multitasking faster and more efficient.
+The big news about the 2022 MacBook Air was the M2 processor, which provides up to an 18% improvement in CPU performance and 35% greater GPU performance. The GPU boost does use a bit more power, which is why the larger-capacity battery doesn't result in longer battery life than the M1 model. Overall, it's a big upgrade that makes this the best choice for a budget MacBook.
+Note that the M3 chip is expected to land in the MacBook Air in early 2024, so you might want to wait for that. We've already seen it in the MacBook Pro, and it’s an even bigger improvement than the M2 was over the M1.
+MacBook Pro 14-inch (M3 Max)
+The MacBook Pro 14-inch gets supercharged by M3
+- Space Black is the new king
+- GPU performance gets big upgrade
+- XDR display is even brighter
+- Speakers are fantastic
+- Decent webcam
+- Storage and RAM is soldered on
+- M3 model only supports one external display
+There was a lot of hype about the M3 series of chips before they landed, and now that they’re here, we can say a huge amount of the excitement was justified. While they’re not perfect chips, they’ve given the MacBook Pro a serious performance boost.
+Much of that improvement concerns graphics. In our testing, the 14-inch MacBook Pro with M3 Max chip was 13% faster in Cinebench R24’s single-core test versus the M2 Max, and 32% faster in multi-core. In HandBrake, the difference was 38%.
+While that’s not completely earth-shattering, the real gains are to be found in the GPU. Here, we found the M3 Max was a step above what came before, with a 56% performance uplift over the M2 Max in Cinebench R24’s graphics test. Everything from exporting videos to 3D rendering feels snappier and more performant. If you work with graphics and need a chip that can handle whatever you throw at it, the 14-inch MacBook Pro can deliver.
+That extends to gaming, too. The M3 Max is so good here, in fact, that it outperforms every RTX 4070 laptop chip we’ve reviewed. That kind of performance would have been unthinkable just a couple years ago, but now the 14-inch MacBook Pro has the hardware to be considered a gaming contender.
+Once you pair that power with the dazzling mini-LED display with 120Hz refresh rate, you’ve got a gamer’s dream come true. That’s not forgetting its speakers (the best you’ll find on any laptop) and comfy keyboard, too.
+While the M3 Max is the real deal, you might want to think again before buying the M3 Pro version of this MacBook Pro. Its default configuration comes with 8GB of memory, which really isn’t enough for a pro-level laptop, and its memory bandwidth has been reduced compared to the M2 Pro. Instead, it’s better to spend a little more for the M3 Max version. Get that and you’ll have the best MacBook money can buy.
+MacBook Air 15-inch (M2)
+A larger MacBook Air takes the laptop up a notch
+- More screen!
+- Excellent speakers
+- Long lasting battery
+- Shockingly thin
+- Extra performance is welcome
+- Only supports one external display
+Apple has only offered the MacBook Air in one size for years, but in 2023 it switched things up by introducing a 15-inch model. It's only really for a small demographic of users -- people who want the lightness and quietness of the MacBook Air and don't need the power of the MacBook Pro -- but for those people, it's fantastic.
+It retains a lot of the familiar features of the 13-inch MacBook Air, including its slimline chassis, long-lived battery and excellent speakers. If you are just looking for an ultra-portable Apple laptop, the 13-inch MacBook Air might be better suited to your needs. But if the extra screen space is more important, the 15-inch MacBook Air is a superb choice.
+Unsurprisingly, its display is one of its standout features. It's bright and beautiful, with Apple's Liquid Retina display offering 500 nits of peak brightness and hitting 90% of the Adobe RGB color gamut, making it a strong performer for color-accurate work. As we said in our review, "It’s among the best IPS laptop displays you’ll find."
+On the inside is Apple’s M2 chip, with all of its improvements over the M1 series found in the previous generation of MacBook Air. It's not going to break any records, but it's a solid performer for the money. Where the M2 chip really stands out is efficiency, where it helped the 15-inch MacBook Air last almost 19 hours in our testing. That's even more than the 18 hours Apple says you'll get.
+Sure, the extra screen space means this laptop loses a little of the MacBook Air's portability. But if you're looking for a larger MacBook Air that still has almost everything you love about Apple's lightest laptops, this model is a great option.
+MacBook Air 13-inch (M1)
+The best budget MacBook
+- Apple's M1 blows Intel away
+- Phenomenal battery life
+- Excellent keyboard and touchpad
+- Rock-solid build quality
+- Simple good looks
+- Supports only one external display
+Despite updating the MacBook Air to the M2 chip (and being on the brink of launching the M3 MacBook Air), Apple still sells the MacBook Air with M1 chip. The key question, then, is whether you should buy it.
+The answer depends on the price you can get it for. If you can pick it up for $700 or less, you’ll be getting a superb bargain. If, however, prices are higher than that, we’d say you’re better off getting the M2 version instead.
+Why is that? Well, Apple is only charging $100 more for the M2 MacBook Air compared to the M1 model. In return, you get thinner bezels, the MagSafe 3 port, a slimmer design, better speakers, a better webcam and updated wireless connectivity. That’s a lot of extra MacBook for your money.
+None of that is to say the M1 MacBook Air is bad -- it’s still a good option today. Even three years after its launch, it remains a strong device, and its chip will offer plenty of power for most people. It’s so efficient, in fact, that the M1 MacBook Air doesn’t even need a fan to keep itself cool, meaning you get to work in complete silence.
+So, there’s a lot to like about the M1 MacBook Air. Just wait until you find it on sale before pulling the trigger.
+Frequently Asked Questions
+Right now, we recommend you buy the 14-inch MacBook Pro if you need to do any heavy-duty work, plan on playing a lot of games, or simply want a device that offers more power than the standard MacBook Air. Yes, it’s more expensive, but its stunning mini-LED display, beefy M3-series chips and incredible build quality make it worth the outlay.
+The M2 MacBook Air is a close second. It’s far more affordable than the M3 Max MacBook Pro, yet still offers powerful performance that will be more than enough for most people. We’d like to see it with an M3 chip, but we know that’s coming later this year. When it arrives, it might even take the top spot in our list.
+The 15-inch MacBook Air and the 16-inch MacBook Pro are also worth considering, especially if you are looking for a more expansive display. In this regard, the 16-inch MacBook Pro’s mini-LED screen comes out on top, but both devices are great options.
+There’s also the M1 MacBook Air to consider. While these days we recommend the M2 MacBook Air instead, it’s worth a look if you can get it for $700 or under.
+As we’ve seen so far, there are plenty of fantastic MacBooks out there for you to choose from. But there’s no doubt that while Apple’s laptops offer excellent performance and features, they don’t come cheap. But don’t let that put you off getting one -- there’s another way to buy a MacBook without breaking the bank.
+That’s to go for a refurbished model. Doing so can save you a huge amount of money without landing you with a dud of a computer. If you get a refurbished MacBook from a reputable outlet, you can get all that Apple goodness, like strong performance, quiet operation, and premium build quality, without any of the sticker shock.
+If you decide to get a refurbished MacBook, make sure you get it from a well-regarded source that has a proven track record of happy customers. Apple has its own network of “authorized resellers” that often offer revamped laptops. Having this authorized reseller status means the company has access to genuine Apple parts, so you know that any refurbished MacBook it sells is full of high-quality parts rather than cheap knockoffs.
+Apple itself often sells refurbished MacBooks, and this is the route to take if you want the best quality available. The company (obviously) uses genuine parts if anything needs to be replaced, and it then cleans up the laptop and repackages it in a brand-new box with fresh cables and accessories. You essentially get a like-new product with a reduced price tag. Refurbished MacBooks sold by Apple usually cost a little more than refreshed devices from other sellers, but in return, you get the best quality on the market. It’s also worth regularly checking Apple’s stock, as it occasionally increases the discounts it puts on these models.
+Finally, you can also look on secondhand marketplaces like eBay or Back Market. There’s much less of a quality guarantee than you get when you buy from Apple or an authorized reseller, but you’ll likely be able to save more money. Be sure to check the seller’s history and reviews before making a purchase.
+Simply put, no. Apple has gained everything it wants from its chips by going its own route: great power and incredible efficiency. While Intel chips can match (or outperform) Apple’s chip when it comes to power, they can’t come close to Apple’s efficiency. That means hot, noisy laptops -- the very antithesis of the current MacBook lineup.
+But Apple’s switch to its own chips is important for another reason: it gives Apple control of another part of its products. Apple loves bringing things in-house and retaining control over them in this way. Now that it’s done that with its laptop chips, it’s highly unlikely it’ll ever go back to the old way of doing things.
+Next on Apple’s plate is the process of following the MacBook Pro and outfitting its entire laptop range with chips from the M3 series. With the MacBook Air expected to make the leap in early 2024, Apple’s entire MacBook lineup will be on the latest generation of chips. Keep your eyes peeled for news and reviews to see which best suits your needs.
+Editors' Recommendations
+- Best refurbished MacBook deals: Get a MacBook Air for $165 and more
+- 7 best Chromebooks for 2024: the best for every budget
+- The 15-inch MacBook Air is back at its cheapest-ever price
+- 9 best laptops of 2024: tested and reviewed
+- The best Mac apps for 2024: top software for your Mac</t>
+  </si>
+  <si>
+    <t>, Columnist
+So Long, Apple Car, We’ll Never Know What We Missed
+The tech giant’s decision to scrap its auto project brings everyone’s favorite Silicon Valley rumor to an anti-climatic but sadly predictable end.
+What could Apple have done with the humble automobile?
+Ideas, some credible and others less so, have dripped out for a decade. For a time, the company was rumored to be working on something small based on BMW’s i3. Then it was said to actually be a van. With augmented reality, a new kind of battery and smart seat belts.</t>
+  </si>
+  <si>
+    <t>The reviews are in, and the tech press is lauding the Apple Vision Pro headset for delivering on the company's promises. It's well-designed, the video and sound are startlingly precise, the "Minority Report"-style gestural interface is future-tastic. Nobody's exactly sure what it's for, or whether even the Readiest Players One will spend $3,500 on it, but hey — that's gadgets for you.
+Still, this is a new gadget frontier. The Vision Pro, like the similarly kitted-out Quest 3 and Quest Pro headsets from Meta, uses what's known as "passthrough" video — cameras and other sensors that capture imagery of the outside world and reproduce it inside the device. They feed you a synthetic environment made to look like the real one, with Apple apps and other non-real elements floating in front of it. Apple and Meta are hoping that this virtual world will be so compelling that you won't just visit. They're hoping you'll live there.
+That, unfortunately, could have some very weird and very messy consequences for the human brain. Researchers have found that widespread, long-term immersion in VR headsets could literally change the way we perceive the world — and each other. "We now have companies who are advocating that you spend many hours each day in them," says Jeremy Bailenson, director of the Virtual Human Interaction Lab at Stanford. "You've got many, many people, and they're wearing it for many, many hours. And everything magnifies at scale."
+Meaning: Our brains are about to undergo a massive, society-wide experiment that could rewire our sense of the world around us, and make it even harder to agree on what constitutes reality.
+The short-term side effects of virtual reality are well established. People in synthetic environments tend to misjudge distance, both at a distance and close up. That's no surprise: Even in the real, three-dimensional universe, our ability to determine how close or far away something is is subject to all kinds of external factors. Virtual environments, with their lower resolution and synthetic 3D, make all that worse — which is especially bad if you're one of those users posting videos of yourself doing things like skateboarding and driving while wearing a mixed-reality headset. You think your hands are in one place, they're actually in another, and pretty soon you're driving your Honda Civic through a supermarket.
+Objects in a headset can also get funhoused. That's called object distortion — things get warped, and change size or shape or color, especially when you move your head. A video render can't compete with the processing speed and fidelity of your eyes and brain.
+These are all, as the IT people say, known issues. For a few minutes or an hour, long enough to play a game or watch a movie, they're minor annoyances. But wear perception-shifting glasses for days at a time — as Bailenson's team of researchers did — and the problems get worse. Way worse.
+The team wore Vision Pros and Quests around college campuses for a couple of weeks, trying to do all the things they would have done without them (with a minder nearby in case they tripped or walked into a wall). They experienced "simulator sickness" — nausea, headaches, dizziness. That was weird, given how experienced they all were with headsets of all kinds. And they felt all the distance and distortion effects: thinking elevator buttons were farther from their fingers, or experiencing difficulty bringing food to their mouths. But as any of us would, they adapted — their brains and muscles learned to compensate for their new view of the world.
+That seems like a solution, but it ain't. When people adapt to a perceptual change for long enough, the real world starts to look wrong in the opposite direction. If you wore glasses that turned your vision upside down, let's say, you'd have to adapt again when the glasses came off. The longer you're inside a funhouse world, the longer the weird perceptual aftereffects last. So people who spend their workday inside a Vision Pro might go home at night with a miscalibrated targeting system and what feels like a shroom hangover.
+Here's where the passthrough video gets uniquely important. Old-school cyberpunk envisioned virtual reality as an all-encompassing synthetic environment. New-school techies, meanwhile, proposed an augmented reality of digital pop-ups floating on see-through lenses, Google Glass-style. But both of those approaches have limits. Full, sense-isolating VR hasn't progressed much further than niche entertainment, while AR tends to make both its apps and the real world look bad. From a visual standpoint, passthrough is the least-worst solution — but its social consequences are scarier.
+Because passthrough captures and then re-renders reality, it can have an unnerving, distancing effect over time. When Bailenson's colleagues actually tried to talk to people, the world turned into a giant, confusing Zoom. Video chats, as we've all experienced, are plagued by delays in responses and missed social cues. Conversations lose subtlety, but it's good enough for a meeting. But passthrough magnifies the effect — the people you talk to start to seem unreal. Up close, they look like avatars. Farther away, they become just part of the background.
+Bailenson describes the feeling as one of social absence. Other people just aren't fully there. He doesn't put it this way, but I'll wave the warning flag: Long-term use of passthrough headsets could make it easier to think of other people as unhumans — non-player characters in a gamified, uncanny valley.
+We all live in our own perceptual bubbles. Every person has slightly different sensory thresholds — we see colors a little bit differently, hear at different levels of acuity, are more or less sensitive to different odors. And we process all that with brains uniquely tuned first by our genes, and then by a lifetime of neural changes, of thinking and doing.
+But in general, we agree on some common ground. Even if your blue looks a little different than mine, we can agree on what color the sky is. Maybe my tolerance for chili peppers is higher than yours, but we both know when we're eating them.
+Headsets make the walls of those sensory bubbles even thicker, and harder to bridge. We already lack for common ground politically. Now, as millions of Americans wear VR headsets for hours at a time, we may find ourselves unable to agree on our physical reality. The headsets will put things into our visual world that aren't there for anyone else. The objects aren't objective.
+And that's not all. "These headsets can not only add things to the real world, they can also delete them," Bailenson says. He first realized VR's strange editing function while he was playing a game on the Quest 3 that "knocked out" portions of the real walls around him and replaced them with a virtual scene. "I've been doing VR and AR for a while," he says, "and I had never in my life seen deletion work so well."
+At first that seems pretty great. Stuck on a crowded bus? Delete everyone and replace them with the first-class cabin of a jumbo jet. Hate intrusive billboards? Replace all the commercial images with soothing vistas of your choosing.
+But what happens when the technology gets good enough to delete, say, homeless people? Or Pride flags? You can see where I'm going here — literal erasure. When the sci-fi writer William Gibson came up with the concept of cyberspace, he described it as a "consensual hallucination." This is the exact opposite — billions of discrete, unshared hallucinations, each one snowflake-special.
+"What we're about to experience is, using these headsets in public, common ground disappears," Bailenson says. "People will be in the same physical place, experiencing simultaneous, visually different versions of the world. We're going to lose common ground."
+Stipulated: Everyone always freaks out about new consumer technology, and the freak-out is almost always the same. The new form of sensory input will harm kids! It's a dangerous distraction! It's socially alienating! They said it about the iPhone, about the Walkman … hell, half a millennium ago they said it about the book. New technologies arrive, and we adapt.
+And I don't need to lean hard on my nerdiness to imagine fun sci-fi uses for passthrough. The real potential here is the ability to see the invisible informational metastructure of the world — translation overlays; pop-up tags that display people's names and pronouns and where you know them from; walking directions; user-manual-linked X-ray vision for assembling an Ikea coffee table. Link my shopping list to the aisles I need to visit in the supermarket. Maybe even expand my vision beyond what my meatbag eyes can do, and let me see into the ultraviolet, or perceive electrical fields. Passthrough has limits, but it might also have superpowers.
+Like me, Bailenson isn't a freaker-outer; he loves VR, and thinks the new headsets are keen. He knows that over time, screens will get better resolution and faster rendering. New algorithms will minimize distortion. It's not the technology he's worried about. It's how much we're going to become immersed in it.
+"The world's going to be just fine," he says. "People adapt to media. These headsets are incredible. But philosophically, I do not believe we need to be wearing these headsets for hours every day."
+We've been here before — and very recently, at that. A decade or so ago, no one paused to consider the unintended consequences of thrusting millions of people into impossible-to-moderate social networks. And we all know how that turned out. Now, we're on the verge of sticking millions of people into helmets that give us all our own editable realities. That's why the kind of research that Bailenson is conducting on passthrough headsets is so important. "I'm encouraging all scholars to act with some urgency to understand them," he says.
+In the meantime, while he's doing his work, maybe don't forget to take that Vision Pro off once in a while. The longer you keep it on, the more you're turning yourself into a human guinea pig — one with really, really bad depth perception.
+Adam Rogers is a senior correspondent at Business Insider.
+About Discourse Stories
+Through our Discourse journalism, Business Insider seeks to explore and illuminate the day’s most fascinating issues and ideas. Our writers provide thought-provoking perspectives, informed by analysis, reporting, and expertise. Read more Discourse stories here.</t>
   </si>
   <si>
     <t>Apple, Tesla downgraded: Wall Street's top analyst calls
@@ -418,90 +551,123 @@
 JMP Securities initiated coverage of Nuveen Churchill Direct Lending (NCDL) with a Market Perform rating. The firm believes there could be an opportunity for valuation multiple expansion over time, but says this will likely take some time to play out, assuming strong execution. UBS and Wells Fargo also started coverage of the name with Neutral-equivalent ratings, while Truist and BofA started the stock with Buy.</t>
   </si>
   <si>
-    <t>According to the latest findings from the International Data Corporation (IDC), the tablet market in India experienced a notable downturn in 2023, with shipments totaling 4.01 million units, marking a 24.9% decline compared to the previous year.
-The data reveals a mixed performance within the tablet categories, with detachables seeing a 17.7% year-on-year growth, while slates experienced a significant decline of 33.3% during the same period.
-The consumer segment managed a modest 1.9% year-on-year growth, contrasting sharply with the commercial segment, which witnessed a steep 42.3% decline. This drop in the commercial sector was primarily attributed to the postponement or cancellation of several government deals. Additionally, the education segment saw a substantial decline of 53.7% year-on-year, while small and medium-sized businesses (SMBs) experienced a 25.9% decrease in shipments.
-In terms of market leadership, Samsung emerged on top with a commanding 39.5% market share, despite experiencing a 34.7% year-on-year decline. The company maintained its dominance in both the commercial and consumer segments, with shares of 46.6% and 33.4%, respectively.
-Lenovo secured the second position with a 14.3% market share, though its shipments plummeted by 38.6% year-on-year. Apple followed closely behind in third place, holding a 13.9% market share despite an 11.1% year-on-year decline. Acer Group and Realme rounded out the top five with market shares of 7.3% and 6.8%, respectively.
-“As newer Chinese vendors such as realme and Xiaomi became aggressive, consumers had more to choose from. With options under US$300, with bigger screens, and increased usage of tablets for on-the-go productivity and entertainment, the consumer segment grew despite challenging market conditions,” said Bharath Shenoy, senior research analyst, IDC India.
-Navkendar Singh, associate vice president, Devices Research, IDC India, South Asia &amp; ANZ said, “Tablets will be challenged in 2024 due to reduced demand in the commercial segment. Government-driven projects will be limited in the first half of 2024 due to the elections code of conduct. Also, tablets market will witness stiff competition from Chromebooks and entry level Android notebooks such as JioBook in the manifesto deals. With aggressive pricing, wider screens, keyboards, and 4G connectivity, the prospect of these entry-level notebooks in education deals looks positive.”</t>
-  </si>
-  <si>
-    <t>From Apple To BYJU's: CEOs Who Were Fired From Their Own Companies
-Major shareholders of prominent edtech firm Byju’s, including Prosus NV and Peak XV Partners, voted on Friday to oust its founder, Byju Raveendran, from the position of chief executive officer. This move marks an escalation in the ongoing battle for control over the once high-flying online tutoring startup that is currently grappling to sustain its operations.
-From BYJU's To Apple (Image Source: IANS)
-Major shareholders of prominent edtech firm Byju’s, including Prosus NV and Peak XV Partners, voted on Friday to oust its founder, Byju Raveendran, from the position of chief executive officer. This move marks an escalation in the ongoing battle for control over the once high-flying online tutoring startup that is currently grappling to sustain its operations.
-Byju’s swiftly responded by rejecting the resolutions, which not only aimed to remove Raveendran from the CEO role but also sought his removal from the board of the company he established in 2015. The founder's leadership and the company's strategic direction have become contentious issues among major stakeholders.
-This development adds Byju’s to the list of companies that have witnessed CEO upheavals. In a similar line, OpenAI experienced a sudden leadership change as CEO Sam Altman was dismissed by the board on November 18, citing a loss of confidence in his leadership. Altman's return as CEO was announced on November 21 after an agreement was reached, introducing a new initial board.
-Apple also faced a CEO departure in 1985 when co-founder Steve Jobs left due to conflicts with the board over his confrontational management style. Jobs made a triumphant return in 1997, steering Apple to significant success. In 2008, Twitter co-founder Jack Dorsey was removed as CEO, only to make a comeback in 2015, leading the platform for another six years before passing the baton to Parag Agrawal in 2021.
-End of Article
-Subscribe to our daily Newsletter!
-Related News
-How To Slash Your Excess Spending And Generate Wealth? Know In 7 Points
-Income Tax FY23-24: How To Get Tax-Free Returns Through Strategic Investments?
-Sadhav Shipping IPO GMP: Check Subscription Status, Price Band, Allotment Date And Other Details
-Meet Zerodha's Nikhil Kamath, From Earning Rs 8,000 A Month To Leading A Multi-Crore Firm
-GPT Healthcare IPO: Step-By-Step Guide To Check Allotment Status Online On BSE</t>
-  </si>
-  <si>
-    <t>Increases to CEO Compensation Might Be Put On Hold For Now at Apple Inc. (NASDAQ:AAPL)
-Key Insights
-Apple to hold its Annual General Meeting on 28th of February
-CEO Tim Cook's total compensation includes salary of US$3.00m
-Total compensation is 458% above industry average
-Apple's EPS grew by 21% over the past three years while total shareholder return over the past three years was 48%
-Under the guidance of CEO Tim Cook, Apple Inc. (NASDAQ:AAPL) has performed reasonably well recently. As shareholders go into the upcoming AGM on 28th of February, CEO compensation will probably not be their focus, but rather the steps management will take to continue the growth momentum. However, some shareholders will still be cautious of paying the CEO excessively.
-View our latest analysis for Apple
-Comparing Apple Inc.'s CEO Compensation With The Industry
-According to our data, Apple Inc. has a market capitalization of US$2.8t, and paid its CEO total annual compensation worth US$63m over the year to September 2023. Notably, that's a decrease of 36% over the year before. While this analysis focuses on total compensation, it's worth acknowledging that the salary portion is lower, valued at US$3.0m.
-In comparison with other companies in the American Tech industry with market capitalizations over US$8.0b, the reported median total CEO compensation was US$11m. Hence, we can conclude that Tim Cook is remunerated higher than the industry median. Moreover, Tim Cook also holds US$598m worth of Apple stock directly under their own name, which reveals to us that they have a significant personal stake in the company.
-Component
-2023
-2022
-Proportion (2023)
-Salary
-US$3.0m
-US$3.0m
-5%
-Other
-US$60m
-US$96m
-95%
-Total Compensation
-US$63m
-US$99m
-100%
-On an industry level, roughly 14% of total compensation represents salary and 86% is other remuneration. Apple has chosen to walk a path less trodden, opting to compensate its CEO with less of a traditional salary and more non-salary rewards over the last year. If total compensation is slanted towards non-salary benefits, it indicates that CEO pay is linked to company performance.
-A Look at Apple Inc.'s Growth Numbers
-Apple Inc.'s earnings per share (EPS) grew 21% per year over the last three years. Revenue was pretty flat on last year.
-This demonstrates that the company has been improving recently and is good news for the shareholders. The lack of revenue growth isn't ideal, but it is the bottom line that counts most in business. Moving away from current form for a second, it could be important to check this free visual depiction of what analysts expect for the future.
-Has Apple Inc. Been A Good Investment?
-Boasting a total shareholder return of 48% over three years, Apple Inc. has done well by shareholders. As a result, some may believe the CEO should be paid more than is normal for companies of similar size.
-In Summary...
-Apple prefers rewarding its CEO through non-salary benefits. Given that the company's overall performance has been reasonable, the CEO remuneration policy might not be shareholders' central point of focus in the upcoming AGM. Still, not all shareholders might be in favor of a pay raise to the CEO, seeing that they are already being paid higher than the industry.
-While it is important to pay attention to CEO remuneration, investors should also consider other elements of the business. That's why we did some digging and identified 2 warning signs for Apple that investors should think about before committing capital to this stock.
-Arguably, business quality is much more important than CEO compensation levels. So check out this free list of interesting companies that have HIGH return on equity and low debt.
-Have feedback on this article? Concerned about the content? Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.
-This article by Simply Wall St is general in nature. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice. It does not constitute a recommendation to buy or sell any stock, and does not take account of your objectives, or your financial situation. We aim to bring you long-term focused analysis driven by fundamental data. Note that our analysis may not factor in the latest price-sensitive company announcements or qualitative material. Simply Wall St has no position in any stocks mentioned.</t>
-  </si>
-  <si>
     <t>TSLA</t>
   </si>
   <si>
-    <t>Director Robyn Denholm Sells 93,706 Shares of Tesla Inc (TSLA)
-Robyn Denholm, a director at Tesla Inc (NASDAQ:TSLA), sold 93,706 shares of the company on February 21, 2024, according to a recent SEC Filing. Tesla Inc is known for its electric vehicles, energy storage products, and solar energy solutions. The company has been a leader in the electric vehicle industry, aiming to accelerate the world's transition to sustainable energy.
-Over the past year, the insider has sold a total of 93,706 shares and has not made any purchases of the company's stock.
-The insider transaction history for Tesla Inc shows a pattern of 38 insider sells and no insider buys over the past year.
-On the day of the insider's recent sale, shares of Tesla Inc were trading at $194.73, resulting in a market cap of $611,384.216 billion.
-The price-earnings ratio of Tesla Inc stands at 44.54, which is above the industry median of 16.575 but below the company's historical median price-earnings ratio.
-With the current share price of $194.73 and a GuruFocus Value of $381.49, Tesla Inc has a price-to-GF-Value ratio of 0.51, indicating that the stock could be a possible value trap and warrants caution.
-The GF Value is calculated considering historical trading multiples, a GuruFocus adjustment factor based on past returns and growth, and future business performance estimates provided by Morningstar analysts.
-This article, generated by GuruFocus, is designed to provide general insights and is not tailored financial advice. Our commentary is rooted in historical data and analyst projections, utilizing an impartial methodology, and is not intended to serve as specific investment guidance. It does not formulate a recommendation to purchase or divest any stock and does not consider individual investment objectives or financial circumstances. Our objective is to deliver long-term, fundamental data-driven analysis. Be aware that our analysis might not incorporate the most recent, price-sensitive company announcements or qualitative information. GuruFocus holds no position in the stocks mentioned herein.
-This article first appeared on GuruFocus.</t>
-  </si>
-  <si>
-    <t>Fool.com contributor Parkev Tatevosian discusses what the news from Ford (F 0.17%) that sales of electric vehicles (EVs) are falling could mean for Tesla (TSLA -2.76%) and Rivian (RIVN -12.05%) investors.
-*Stock prices used were the afternoon prices of Feb. 20, 2024. The video was published on Feb. 22, 2024.</t>
+    <t>Elon, what are you doing?': Joe Rogan flipped out when he saw Tesla's Optimus Gen 2 robots moving 'exactly like a person' and even gently holding eggs — 3 top robotics stocks to watch now
+Comedian and podcaster Joe Rogan is no stranger to Tesla — he owns a Tesla Model S and has interviewed the company’s CEO Elon Musk multiple times. But when Rogan saw the company’s latest creation — the Optimus Gen 2 robot — he was awe-struck. And concerned.
+“God damn it Elon, what are you doing?” Rogan said as he viewed Tesla’s Optimus video during a recent episode of “The Joe Rogan Experience” podcast.
+Don't miss
+Commercial real estate has beaten the stock market for 25 years — but only the super rich could buy in. Here's how even ordinary investors can become the landlord of Walmart, Whole Foods or Kroger
+Inflation is still white-hot — use these 3 'real assets' to protect your wealth today, no matter what the US Fed does or says
+Anything can happen in 2024. Try these 5 easy money hacks to help you make and save thousands of dollars in the new year (they will only take seconds)
+“This is I, Robot,” he remarked, referencing the 2004 science fiction film starring Will Smith.
+Tesla's presentation of the humanoid robot highlighted its ability to move its fingers, walk, perform squats, and delicately manipulate an egg.
+Rogan expressed his fascination, noting, “Wow! This is nuts… I love the fact that it can extend its fingers, it’s moving its hands exactly like a person does.”
+However, his admiration was tinged with a darker foresight.
+Following the video's conclusion, which teased “Stay tuned to see what Optimus will do next,” Rogan commented, “I’ll tell you what Optimus will do next — it’s going to come out of an aircraft carrier, thousands of them, with machine guns.”
+As the podcast host contemplates a future where robots dramatically change the landscape of modern warfare, investors might also want to turn their attention to the burgeoning field of robotics and automation. Wall Street already sees massive upsides in some key players in the sector.
+Tesla
+For the most part, Tesla (TSLA) is recognized as an electric vehicle manufacturer. However, as evidenced by Rogan’s reaction, the company is also making significant strides in the robotics arena.
+In fact, Musk recently tweeted “Tesla is an AI/robotics company that appears to many to be a car company.”
+Tesla's shares have experienced considerable volatility as one of the market's most dynamic mega-cap names. They doubled in value in 2023 but have seen a decline of almost 20% so far in 2024.
+Wedbush analyst Dan Ives sees a revival on the horizon. He has an “overweight” rating on Tesla and a price target of $315, implying a potential upside of nearly 60%.
+Read more: Rich young Americans have lost confidence in the stock market — and are betting on these 3 assets instead. Get in now for strong long-term tailwinds
+UiPath
+Founded in Bucharest, Romania, UiPath (PATH) is a robotic process automation software company. Its solutions help organizations automate their business processes.
+The stock has drawn considerable attention in recent years, partly because it was one of the top holdings of Cathie Wood’s Ark Invest.
+While Ark Invest has made portfolio adjustments, UiPath continues to be a prominent holding. It currently ranks as the fifth-largest holding in Wood’s flagship fund, the Ark Innovation ETF (ARKK), and the third largest holding in the Ark Autonomous Technology Robotics ETF (ARKQ).
+Over the last 12 months, UiPath shares have climbed 63%.
+Rockwell Automation
+With the rise in labor costs, an increasing number of companies are opting for automation. And that means a significant tailwind for Rockwell Automation (ROK), which focuses on industrial and warehouse automation.
+The company operates through three segments: Intelligent Devices, Software and Control, and Lifecycle Services. It generated $9.1 billion in sales in fiscal 2023. In September, it bought Clearpath, a Canadian company “dedicated to automating the world’s dullest, dirtiest, and deadliest jobs.”
+Rockwell also pays quarterly dividends and has been raising its payout every year.
+The stock, however, has had a choppy ride and is down about 6% over the last 12 months.
+Citigroup analyst Andrew Kaplowitz has a “buy” rating on Rockwell and a price target of $330 — 19% above where the stock sits today.
+What to read next
+Here's how you can invest in rental properties without the responsibility of being a landlord
+‘The biggest crash in history': Robert Kiyosaki warns that millions of 401(k)s and IRAs will be 'toast' — here's what he likes for protection
+'It's not taxed at all': Warren Buffett shares the 'best investment' you can make when battling inflation
+This article provides information only and should not be construed as advice. It is provided without warranty of any kind.</t>
+  </si>
+  <si>
+    <t>Don't Buy EV Stocks (Including Tesla) Until You See This
+Why have electric vehicle stocks struggled over the past year? The answer is pretty simple when you look at the numbers. Supply has increased faster than demand and prices have dropped as a result.
+In this video, Travis Hoium shows why that's going to continue for the foreseeable future and what stocks may be affected most.
+*Stock prices used were end-of-day prices of Feb. 25, 2024. The video was published on Feb. 26, 2024.
+Where to invest $1,000 right now
+When our analyst team has a stock tip, it can pay to listen. After all, the newsletter they have run for two decades, Motley Fool Stock Advisor, has more than tripled the market.*
+They just revealed what they believe are the 10 best stocks for investors to buy right now… and Tesla made the list -- but there are 9 other stocks you may be overlooking.
+*Stock Advisor returns as of February 26, 2024
+Suzanne Frey, an executive at Alphabet, is a member of The Motley Fool's board of directors. John Mackey, former CEO of Whole Foods Market, an Amazon subsidiary, is a member of The Motley Fool's board of directors. Travis Hoium has positions in Alphabet and Apple. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, and Tesla. The Motley Fool has a disclosure policy. Travis Hoium is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.
+Don't Buy EV Stocks (Including Tesla) Until You See This was originally published by The Motley Fool</t>
+  </si>
+  <si>
+    <t>When stocks are categorized into a group and given a catchy nickname, you might say that they've arrived. In the 1960s and early 1970s, the "Nifty 50" were wildly popular. In the 1990s, "The Four Horsemen" grabbed investors' attention. A few years ago, the FAANG stocks were all the rage.
+Today, we have the "Magnificent Seven." With such a superlative adjective in the nickname, you'd expect that these stocks have been huge winners -- and you'd be right. However, winning can come at a cost. That's literally true with these stocks: Most of them now have premium valuations.
+Don't just take my word for it. New York University finance professor Aswath Damodaran is widely known as the "Dean of Valuation" because of his expertise in valuing stocks. Damodaran recently posted on his blog, "On every pricing metric, the Mag Seven stocks trade at a premium over the rest of the stocks in the S&amp;P 500."
+But based on his own analysis, Damodaran doesn't think all of these seven stocks have excessive valuations. There's one "Magnificent Seven" stock that's not overpriced, according to the "Dean of Valuation."
+Crossing two stocks off the list
+It's not Nvidia (NVDA -1.50%).
+Writing in early February, Damodaran ranked the giant chipmaker as the most expensive "Magnificent Seven" stock of all. At the time, he believed that Nvidia was trading nearly 56% above its fair valuation. Damodaran even posted on X, the social media platform formerly known as Twitter, that Nvidia "is a bridge too far for me." He added that he planned to reduce his position in the stock by half.
+Keep in mind that this was before Nvidia announced its blowout fourth-quarter results. The stock is now nearly 19% higher than it was when Damodaran said that it was way too expensive.
+The NYU professor and author also wrote that Microsoft (MSFT -0.31%) was clearly overvalued. In his blog several weeks ago, Damodaran revealed that the tech stock was trading nearly 14% above its fair valuation. Microsoft's share price has risen slightly since then.
+Damodaran did acknowledge, though, that he might be too pessimistic about Nvidia's and Microsoft's growth prospects. He stated, "I have built in substantial value from AI in my valuation of Nvidia, and given Microsoft significantly higher growth because of it, but it is plausible that I have not done enough."
+Not too far off from fair valuations
+Several "Magnificent Seven" stocks weren't too far off from their fair valuations, in Damodaran's view. He wrote that Alphabet (GOOG -1.73%) (GOOGL -1.73%), Apple, and Amazon were "within striking distance of value."
+At the time he wrote those words, all three of these stocks traded at less than 9% above the fair values that Damodaran calculated. Alphabet and Apple have since fallen slightly, while Amazon has risen a little.
+Meta Platforms looked "close to fairly valued," in Damodaran's opinion. The stock was trading at nearly 2.5% over its fair valuation based on his analysis. However, Meta's share price has jumped roughly 8% since Damodaran posted his blog.
+The cheapest "Magnificent Seven" stock of all?
+Damodaran determined that Tesla (TSLA 0.33%) was the cheapest "Magnificent Seven" stock of all. He even revealed that he had bought shares of Tesla in the week before his blog was published online.
+Ranking Tesla as the most attractively valued "Magnificent Seven" stock might be surprising. The electric vehicle maker's forward earnings multiple currently tops 63x. That doesn't scream inexpensive.
+However, Damodaran factors expected growth into his valuation model. He projected that Tesla will be able to increase its revenue by a compound annual growth rate of 31.1% over the next five years. When he crunched the numbers, the stock was only 0.72% above its fair value. After rising some in recent weeks, Tesla is now a little 6% over Damodaran's calculated fair value.
+Because of the price changes for the seven stocks, Alphabet is now closer to Damodaran's fair value than any other "Magnificent Seven" stock. Importantly, the NYU professor didn't assume lofty growth for Alphabet, plugging a revenue CAGR over the next five years of only 8% into his model. This relatively low growth estimate makes his calculations less susceptible to being overly optimistic.
+In my opinion, Alphabet deserves the mantle as the cheapest of the "Magnificent Seven" for now. I suspect that the "Dean of Valuation" might agree.</t>
+  </si>
+  <si>
+    <t>There is a sweet ending to a saga that pitted a San Jose small business owner against a Silicon Valley giant.
+Business has been booming at The Giving Pies after the community learned that the owner was left holding the bag after an order for 4,000 mini pies for Tesla was abruptly canceled.
+This past weekend, community members showed up by the hundreds to support the small Black- and woman-owned business.
+"Oh my gosh, it's incredible," The Giving Pies owner Voahangy Rasetarinera said. "I am blown away. I'm like, 'I didn’t do it for that.' I'm so grateful. It's amazing. People are amazing."
+Get a weekly recap of the latest San Francisco Bay Area housing news. Sign up for NBC Bay Area’s Housing Deconstructed newsletter.
+More than 300 customers showed up to support the business on Friday and Saturday, and Rasetarinera said she received donations from across the country and from a few people as far away as the Netherlands and Sweden.
+Elon Musk personally posted that Tesla would make things right with the bakery, and Tesla has. Rasetarinera said a Tesla manager offered to pay and reimburse her for the $2,000 worth of supplies that she rushed to get ready for the previous order and offered her a new catering job for 3,600 mini pies for a women’s day celebration in March.
+That's a job she had to turn down.
+"Unfortunately, I can not do their catering event because with all the business that we got we depleted our stock of crust, and then we also have Pi Day to prepare for, so there’s no way," she said with a laugh.
+Rasetarinera said she is willing to work with Tesla in the future but wants to make good on the orders she already has.</t>
+  </si>
+  <si>
+    <t>- Tesla paid a bakery $2,000 after it canceled a massive Black History Month order at short notice.
+- The order for 4,000 pies was abruptly canceled, leaving the Black-owned business out of pocket.
+- Elon Musk said he would "make things good" after news reports of the incident spread online.
+Tesla has settled a bill with a bakery that said it ran up $2,000 in costs for a massive order for the company, which was then canceled at short notice, The Guardian reported.
+Voahangy Rasetarinera, the owner of The Giving Pies in San Jose, California, wrote on Instagram last week that Tesla had "hurt my small Black women-owned business" by canceling an order for 4,000 pies after she hastily bought supplies and rallied staff to meet the tight deadline requested by the company.
+"To fulfill the order, I had turned down other Black History Month catering inquiries, purchased supplies, and prepared for a demanding production schedule," she wrote.
+After the story spread, Elon Musk responded on X, writing: "Just hearing about this. Will make things good with the bakery."
+Rasetarinera confirmed to The Guardian Monday that she had received $2,000 from Tesla.
+The situation unfolded after Rasetarinera received an order for 2,000 pies on February 14 from a Tesla representative, which was quickly doubled to 4,000 the next day, she wrote on Instagram.
+The order was worth $16,000, NBC Bay Area reported, though other outlets set that figure at $6,000.
+Rasetarinera told ABC7 that although Tesla did not immediately pay the invoice, she proceeded anyway because she believed "they are professional."
+However, after following up on the invoice she received a text message from the company representative saying the order would no longer be needed, she said.
+While the bakery has a cancellation policy, it could not recoup its costs because Tesla had not paid the invoice, NBC Bay Area reported.
+Tesla did not respond to Business Insider's request for comment, but as the story spread Rasetarinera told ABC7 that a company representative had reached out to her.
+The representative said that the employee who had made the order had not been authorized to promise any payment, the outlet reported.
+Rasetarinera's post garnered massive attention, gaining hundreds of comments — some supportive of her business, others defending Tesla.
+According to local outlet KRON4, the small business has seen an outpouring of community support since she posted about the situation.
+San Jose Mayor Matt Mahan wrote on X that when he visited the bakery on February 25 "the line was wrapped around the block!"
+Rasetarinera said in a February 2 post celebrating Black History Month that she's of Madagascan heritage.
+"As I reflect on this ordeal, I am reminded of the resilience and determination that have propelled me forward as a black woman entrepreneur," Rasetarinera wrote in her original Instagram post.</t>
+  </si>
+  <si>
+    <t>Tesla has reportedly settled its payment to a California bakery owner who said she was stiffed out of thousands of dollars after an employee at the EV-maker cancelled an order for thousands of pies.
+Voahangy Rasetarinera, the owner of Giving Pies, posted her experience working with Tesla on an Instagram post titled, “How Tesla’s Actions Hurt My Small Black Women-Owned Business.” In the post, Rasetarinera said she received an inquiry on Feb. 14 from a Tesla employee named Laura for an order of 2,000 mini pies, but “complications arose when the payment process was redirected.”
+“Despite this hurdle, I remained optimistic as I awaited payment,” she said, but she “grew concerned” when she didn’t receive the payment. Rasetarinera said she heard back from Laura who apologized for not paying on time, and who requested to double the order to 4,000 pies. However, after preparing the extra order, Rasetarinera said she had still not received payment, and could not contact the Tesla employee.
+“[M]y hopes were shattered when I received a text from Laura, CASUALLY informing me that the plan had changed and Tesla would no longer require the order,” Rasetarinera wrote. “This abrupt reversal left me reeling, realizing the extent of the impact on my small business. I had invested time, resources, and effort based on assurances from Tesla, only to be left high and dry.”
+After her story gained media attention, Tesla CEO Elon Musk responded on X, saying, he would “make things good with the bakery.”
+“People should always be able to count on Tesla trying its best,” Musk wrote.
+Rasetarinera confirmed with The Guardian Monday that,“Tesla just paid the $2k that I was out of” for the cost of ingredients for the order. She did not immediately respond to a request for comment from Quartz.
+Despite the fiasco with Tesla, Rasetarinera told ABC 7 sales at her small bakery were up after the story went viral, and she had to close the shop to catch up on orders. She also told the news outlet she would be open to working with Tesla again.
+“I think that we’re all humans, we all make mistakes, and they’re trying to do good on their mistakes,” Rasetarinera said, “So if they want to work with me, and they’re not bitter about the whole experience - then yes, I would love to.”</t>
   </si>
   <si>
     <t>There was a time when an electric Tesla pickup, something designed to go head-to-head against America’s most popular products, the Ford F-150 and Chevrolet Silverado, seemed just the thing to take Tesla truly mainstream.
@@ -532,29 +698,6 @@
 I worried if this truck hit a pedestrian or if someone slipped while climbing over the bed side that the unyielding metal could cause real harm. It’s not actually knife-edged, of course, but, hitting soft flesh with enough force, it seems like it could rip through skin. I emailed Tesla to ask if the automaker had any concerns about this, but I haven’t received a response. Tesla has not responded to CNN inquiries in years.
 This is not a truck that customers will buy in big numbers, and not just because Tesla isn’t making them in big numbers, yet. It’s fun and it’s interesting but, for those who just want to get the job done, there’s not much reason to buy this instead of something more normal and functional. It doesn’t seem like it will do anything – or at least anything that matters – much better than a Ford F-150 Lightning or a Chevrolet Silverado EV and it will definitely be worse in some important ways.
 If you want to draw a crowd, though, this is your ride. At least while the novelty lasts.</t>
-  </si>
-  <si>
-    <t>Elon Musk is not surprised by the bad news hitting Tesla rival Rivian. He’s been warning about it for some time.
-On Wednesday, Rivian announced a disappointing quarter and outlook and said it would cut its salaried workforce by roughly 10%.
-Shortly after, Musk wrote on X that the rival maker of electric vehicles would go bankrupt in about six quarters on the current trajectory, adding, “Maybe that trajectory will change, but so far it hasn’t.
-“They need to cut costs massively, and the exec team needs to live in the factory or they will die,” he wrote.
-Musk, having gone through “production hell” and “sleeping at the factory” himself at Tesla, should know.
-The billionaire has warned about Rivian’s challenges before. In June 2022, he said his advice for the company would be “to cut costs immediately across the board dramatically or they’re doomed.”
-After markets opened on Thursday, Rivian shares fell by as much as 26%, their biggest drop and lowest level since the company went public in 2021.
-Rivian CEO RJ Scaringe pointed to high interest rates as one of the EV maker’s key challenges, something Musk has described as hampering Tesla as well.
-“Our business is not immune to existing economic and geopolitical uncertainties, most notably the impact of historically high interest rates, which has negatively impacted demand,” Scaringe said on an earnings call.
-That’s not the only challenge.
-EV slowdown
-Sales growth of EVs, while still strong, has recently slowed, spurring Ford and GM to pare back their production plans. This is partly because early EV enthusiasts have already bought their vehicles, and regular car shoppers are more likely to be turned off by the higher prices, range anxiety, and poor resale value associated with EVs, among other concerns.
-Tesla, in a call with investors, warned of “notably lower” sales growth this year after a disappointing fourth quarter. Musk said his EV maker is “between two major growth waves” as it aims to start production of a more affordable model late next year.
-Meanwhile Toyota, the world’s top carmaker for four years running, and other legacy automakers are enjoying surging sales of hybrid vehicles, which many car buyers see as a more practical alternative to EVs.
-On March 7, Rivian will unveil its R2, a midsize SUV that will take on Tesla’s popular Model Y and be priced at around $50,000. The model will be smaller and cheaper than what Rivian has offered so far.
-“There is a lack of choice of highly compelling EV products in that $45,000 to $55,000 price range, recognizing the average price of a new vehicle transaction was around $48,000,” Scaringe said. “We remain very bullish on the R2 segment and the R2 product itself.”
-But the R2 is expected to launch in 2026. Asked on CNBC whether a capital raise would be required to get to R2 production, Scaringe replied, “We are very confident in the capital we have supporting operations through the end of 2025.” He added the company is “driving efficiency into everything we do” and expected a fourth-quarter gross profit later this year.
-But Rivian has a long way to go. It accounted for 4.2% of EV sales in the fourth quarter last year, compared with Tesla at 55.1%, according to Kelley Blue Book estimates. The Tesla Model Y alone had 33.2% of the market.
-And Tesla itself, of course, was recently topped in global EV sales by China’s BYD, chief among the Chinese EV makers striking fear into legacy automakers with their low production costs and rapidly expanding exports.
-Musk, in another post following Rivian’s earnings call, wrote: “Their product design is not bad, but the actual hard part of making a car company work is achieving volume production with positive cash flow.”
-Read more: The BYD of Vietnam just reported a huge loss for 2023—a whopping $2.4 billion</t>
   </si>
   <si>
     <t>Tesla Model 3 review
@@ -673,99 +816,211 @@
 |Available colours</t>
   </si>
   <si>
-    <t>Global car market to hit the speed bumps in 2024
-We expect global car sales growth to moderate this year after a strong 2023, which was driven by pent-up demand. The three key regions, the US, China and Europe, are all expected to maintain a mild positive trend. Meanwhile, we think the electrification process may slow although the upward trend should continue
-Strong growth recorded in 2023
-Global auto sales recorded strong growth in 2023, exceeding our positive expectations. According to Moody's estimates, global car sales expanded at a robust rate of +10.8% year-on-year. Car sales recorded a double-digit rate of growth in all three major geographical markets last year, rising +12.4% in the United States, +11.0% in China and +13.7% in Europe (comprising the EU, UK and EFTA markets). Light vehicle sales in the United States, China and Western Europe increased last year by +13.3%, +12.0% and +14.2%, respectively, according to Moody’s statistics which we have been using for our historical data and forecasts. Importantly, the Chinese growth includes a contribution from China’s car exports (up approximately 58% YoY), whereas domestic sales grew by 6.0%, according to Moody’s (+5.6% according to the China Passenger Car Association, when excluding imported cars and commercial vehicles). The strong growth reflected pent-up demand that had been realised after delays with production and delivery experienced in the prior years.
-Momentum to slow this year but remain positive
-In 2024, we expect this positive sales momentum to continue but at a much slower pace after a strong increase in the previous year and given a muted macroeconomic backdrop. Another factor reflected in our forecasts is the expected slowdown in the rate of proliferation of electric vehicles, which has been supportive during the last couple of years. Currently, we forecast global car sales growth of +2.6% in 2024.
-Global car sales growth rate set to slow
-In terms of regions, we assume car sales growth of +2.0% in the United States, +3.0% in China (including exports) and +1.5% in the European market. Our cautious outlook for sales growth across the regions stems from the muted economic outlook for this year across the key geographies with consumer confidence still subdued. With interest rates remaining more elevated right now and second-hand car prices falling, demand for new vehicles is more muted. In addition, as we will discuss later, we expect slower demand for new electric cars during the current year. We also expect Chinese export sales growth to slow after a very strong jump in 2023 while domestic demand may also be less strong. We will monitor our forecasts as the year evolves as new supportive or negative factors may come to the forefront.
-We expect relatively flat production volumes in the current year
-We anticipate that light vehicle production volumes will stay flat or increase only slightly year-on-year in 2024. This is because we believe that after the robust rates of production growth during the past two years, in excess of the respective yearly sales volumes, inventories have now been rebuilt sufficiently to allow for more balanced production volumes relative to sales volumes. In fact, a flattish rate of production growth should still allow for the replenishment and maintenance of inventories at sufficient levels given a more modest expected rate of growth in sales relative to 2023.
-Auto makers' margins to soften this year
-We would expect the profit margins of automakers to come under some pressure during the current year after a period of above-average profitability in the post-pandemic period when OEM’s had relative pricing power and greater influence over the mix of sales. While we anticipate margins softening in 2024 year-on-year, we do not expect, and so far the car manufacturers are not flagging, a particularly pronounced margin dilution this year either. Conversely, we expect that auto parts manufacturers have a higher chance of maintaining or even slightly expanding their margins in 2024. This is because we believe that they will benefit from the tail-end effect of the earlier price adjustments and cost cuts implemented during the prior years. We also note that lower raw material prices should present tailwinds for both car and auto parts manufacturers.
-Sense of reality for electrification while the upward trend continues
-The global penetration rate of electric cars (EVs) continued to increase to 17% of new sales over 2023 (battery electric vehicles BEV + plug-in hybrid electric vehicles PHEV), but the regional picture is currently more mixed. The main engine is still China, also the world’s largest market. With continued fiscal support, an abundance of production capacity and well-developed regional supply chains, Chinese new EV sales hit 9m last year (30% of total sales), making up the vast majority of global sales. Chinese-built cars also gained more traction in the rest of the world. Exports of vehicles - including those of BYD (which overtook Tesla as the largest BEV producer in 4Q 2023) soared (+57%) and growth is set to continue in 2024 as they seem to be meeting customers' needs. Europe is increasingly wary of the adverse effects of dumping and started an investigation that may lead to extra levies, although not before the end of the year.
-At the same time, Europe and also the US, face a slowdown in EV uptake compared to previous expectations. The main reason behind this is the scaling back of subsidies in large car markets, while subsidies are currently still an important driver for EV sales growth. In particular, the sudden termination of purchase subsidies in Europe’s largest market, Germany, will be a drag on EV sales into 2024 and the ending of subsidies has also stalled the further uptake in the UK. But there are more reasons:
-- Residual values of EVs are under significant pressure because of price cuts for new cars. This leads to a more cautious approach among leasing and rental companies. As such, rental companies, Hertz and Sixt, also decided to trim their EV fleets in the US and Europe.
-- EVs are often financed and the combination of higher interest rates and lower residual values pushes up monthly leasing terms.
-- New EV drivers increasingly have to rely on public charging infrastructure and this hasn’t kept up with electrification in countries that have seen a surge recently. The opening of Tesla’s charging network to others can only create some extra charging opportunities.
-Chinese EV rate steams ahead while lower prices support demand in Europe and US
-Despite the current slackening in demand, the electrification trend inevitably continues and EV rates are still expected to hit 25% in Europe (from 23%). The US is behind in the market penetration of EVs but, supported by IRA subsidies, its share is still expected to go up to 11% in 2024, although this is less than previously anticipated. Moderation of demand, combined with receding (battery) raw material prices and largely resolved supply chain constraints puts average EV prices on a downward track again since the last few months of 2023. And gradually, newly introduced models are contributing to this. Increasing affordability brings electric cars closer to break-even again for car drivers, which is a positive signal for 2024. After rounds of reductions, a Tesla model Y now sells below the average car price in the US.
-Within Europe, the differences are still large. A positive element in this is that lagging countries will have to catch up in light of a complete shift to zero emissions in 2035. As such, Europe’s fourth largest market, Italy, with a lagging total EV share of just 9% (BEV + PHEV) is expected to implement a subsidy scheme this year, which supports Europe’s total figure.
-In China, there are still not many signs of a slowdown. The Chinese car market is less mature, and it benefits from growing car ownership (first buyers opting for EVs) and the government is keeping its hands on the subsidy tap. We therefore expect the pace of growth to continue, with EVs reaching a share of 35% in 2024. Nevertheless, the adoption of electric cars is increasingly spreading from early adaptors to middle-class drivers in China, which comes with more concerns around charging possibilities (although battery swapping is seen as a promising concept in the country).
-EV shares continue to climb, while Europe faces a slowdown and the US lags
-Share of electric vehicles (BEV + PHEV) in total new car registrations per region
-Competition mounts in EV race – manufacturers in strategic balancing act between margins and repositioning for the future
-Exporting Chinese car manufacturers have increased the competition in the global EV market. In the run-up to 2024, Tesla added to the pressure by reducing its new prices several times to keep production figures growing. Other car makers were forced to follow suit, such as Ford with its Mustang Mach E. But this eats into margins that are already small or still negative. The pressure on new EV prices challenges new and incumbent manufacturers to reduce costs and puts them in a difficult strategic position. On the one hand, they are pressed to temporise EV production increases as conventional cars still generate higher margins. On the other hand, progress is important to secure future market share in the run-up to 2030, when EVs will likely see more traction among drivers with further improving economics and improved charging infrastructure. Together with the extra time required to bring local production of batteries up to speed (and reduce dependency on China), several of them including Ford and GM in the US decided to push back production ambitions for EVs. In Europe there have been announcements of delays as well, such as for VW's ID.2. Manufacturers face a new European CO2-emission hurdle in 2025 (-15% vs 2021) for the average production, but they can still work around it by buying emission credits from Tesla (delivering $9bn in 2023). But the tumbling share prices of pure EV players also indicate that the EV transition is increasingly putting them under pressure too, indicating that some brands will not survive as the market restructures and matures.
-DownloadDownload article
-This publication has been prepared by ING solely for information purposes irrespective of a particular user's means, financial situation or investment objectives. The information does not constitute investment recommendation, and nor is it investment, legal or tax advice or an offer or solicitation to purchase or sell any financial instrument. Read more</t>
-  </si>
-  <si>
-    <t>Rivian said on Wednesday it would cut its workforce by 10% and forecast EV production this year that widely missed estimates, hurt by downtime for factory upgrades and slowing demand for electric vehicles due to high interest rates.
-Shares of the company tumbled about 17% in extended trading after Rivian said it expects to produce 57,000 vehicles in 2024, well below estimates of 81,700 units, according to eight analysts polled by Visible Alpha. It produced 57,232 vehicles last year.
-"We firmly believe in the full electrification of the automotive industry, but recognize in the short-term, the challenging macro-economic conditions," CEO RJ Scaringe said in a statement on Wednesday.
-Amazon.com-backed Rivian has been burning through cash to ramp up production of its R1S SUV and R1T pickup trucks as it spends on building a new factory in Georgia and loses thousands of dollars on every vehicle it builds.
-The company's cash burn comes at a time when demand for EVs has slowed, with Tesla CEO Elon Musk warning that high interest rates are making cars unaffordable.
-After shying away from reducing the price of its vehicles last year despite a price war sparked by Tesla, Rivian this month cut the price of its R1T pickup trucks and R1S SUVs by $3,100.
-Meanwhile, Lucid also forecast production for 2024 that was much lower than Wall Street's expectations, even after it cut prices of its Lucid Air luxury electric sedans last week.
-Rivian's cash and cash equivalents were $7.86 billion at the end of the December quarter, compared with $7.94 billion in the preceding three-month period.
-It also recorded a 10% fall in deliveries in the fourth quarter, missing estimates, citing lack of deliveries to Amazon in the three-month period to focus on the holiday period.
-However, revenue for the October-December period stood at $1.32 billion, above Wall Street estimates of $1.26 billion, according to LSEG data.
-Rivian has been posting a loss on every vehicle it sells and expects to record its first quarter of positive gross margin later this year.
-The company's R2 platform, which is expected to be cheaper and smaller, is set to be unveiled early next month.
-The company reported a net loss of $1.52 billion for the fourth quarter ended Dec. 31, compared with a loss of $1.72 billion a year earlier.</t>
-  </si>
-  <si>
-    <t>Markets
-Jim Cramer says Nvidia CEO Jensen Huang is a bigger visionary than Elon Musk
-CNBC's Jim Cramer said Thursday he believes Jensen Huang — the co-founder and CEO of leading artificial intelligence chipmaker Nvidia — is a bigger visionary than billionaire entrepreneur Elon Musk, whose panoply of companies includes Tesla , rocket maker SpaceX and brain-tech startup Neuralink. "I think that Musk can see around the corner, but I think that Jensen is thinking about a legacy of changing the entire paradigm about the way the world is," Cramer said Thursday on "Squawk on the Street." Cramer's Charitable Trust, the portfolio used by the CNBC Investing Club, has long been invested in Nvidia. Cramer has espoused the brilliance of Huang for years and even re-named his dog Nvidia. Cramer has likened Huang to Leonardo da Vinci . Ahead of earnings this time, Cramer equated Huang to popstar Taylor Swift , saying their success is unparalleled in their respective fields. "Jensen is creating, singlehandedly, an industrial revolution. And Musk is creating, singlehandedly, a way to be able to deliver things," Cramer continued. "Those are both brilliant things, without a doubt, but to create an industrial revolution yourself — to create the loom, to create the train, to create the steamboat — who does those things?" Cramer's comments came after Nvidia's quarterly earnings report a night earlier exceeded Wall Street's sky-high expectations. The AI chip firm delivered better-than-expected results for the three months ended in January and issued strong guidance for the current quarter, offering evidence that the generative AI boom that's been underway since the launch of ChatGPT in late 2022 is marching on. NVDA TSLA 5Y mountain Nvidia's stock performance compared with Tesla's over the past five years. Nvidia's chips — known as graphics processing units, or GPUs —are at the heart of the boom, providing the computing power needed to train the models underpinning ChatGPT and other AI applications. Demand for Nvidia's products has far exceeded supply over the past year as cloud-computing providers like Microsoft and other companies invest heavily in the technology. Huang co-founded Nvidia in 1993. Its GPUs were initially used to render graphics for video games, but their potential for AI applications became widely apparent in the 2000s, setting the stage for the explosive growth the company has seen in its data-center business in recent years. In the 12 months ended Jan. 28, Nvidia's revenue more than doubled from a year ago to $60.9 billion. Nvidia's valuation has soared, too. The Santa Clara, California-based firm is the third-most valuable company in the S &amp; P 500 , with a market capitalization of nearly $1.9 trillion, based on Thursday's stock price. Its market value trails only Microsoft and Apple , both of which Cramer's Trust owns. Tesla, which also is among the most valuable U.S. companies, carried a market cap of around $615 billion Thursday. Over the years, Cramer has certainly given Musk his due, calling out the Tesla CEO's mercurial genius, incredible work ethic, and the way he brings attention to his companies. In 2019, Cramer said Musk is the P.T. Barnum of our time . Barnum's exploits in the mid-to-late 1800s, as the master promoter of what became the Ringling Bros. and Barnum &amp; Bailey Circus. Of course, since then, Musk has bought Twitter. And, renamed it into X.</t>
+    <t>Car Review
+Tesla Cybertruck Review: It’s Weird. It’s Brash. It’s Not Bad.
+Everything you need to know about driving Tesla’s polarizing electric pickup.
+For the sake of this review, let’s suspend whatever we think of Elon Musk.
+A truck this unusual deserves attention unencumbered by the distractions of its creator. The vehicle itself needs no introduction: Tesla Inc. has been collecting deposits since 2019 and started delivering the trucks in November. The company hasn’t said how many are out there, but we know that Serena Williams’ husband owns one, as does Pharrell Williams.</t>
+  </si>
+  <si>
+    <t>Elon Musk eats humble pie over unpaid bakery bill
+- Published
+Elon Musk has stepped in to foot the bill for 4,000 mini pies after his firm cancelled an order at the last minute.
+Giving Pies bakery in San Jose was left $2,000 (£1,500) out of pocket when Tesla backed out just before delivery.
+But when the small business took to social media to complain, Mr Musk said he would stump up the dough.
+He even had Tesla place a new order - but the bakery said it was now so flooded with business from well-wishers it was too busy to take it on.
+"It's incredible, I'm blown away," Voahangy Rasetarinera, the owner of the California bakery, told NBC.
+"I'm so grateful, it's amazing, people are amazing."
+Allow Instagram content?
+This article contains content provided by Instagram. We ask for your permission before anything is loaded, as they may be using cookies and other technologies. You may want to read Meta’s Instagram cookie policy, external and privacy policy, external before accepting. To view this content choose ‘accept and continue’.
+Her response came after Mr Musk took to social media to resolve the dispute.
+"Just hearing about this," he said in a post on X, formerly Twitter, responding to a local news story about Tesla cancelling the order.
+"Will make things good with the bakery. People should always be able to count on Tesla trying its best."
+Making a crust
+Ms Rasetarinera also explained why Tesla's fresh request - for 3,600 more mini pies - was one she had to turn down.
+"Unfortunately, I can not do their catering event because with all the business that we got, we depleted our stock," she said.
+The mayor of San Jose was even among those popping in for a pie - and he said queues for the bakery "wrapped around the block".
+"It's inspiring to see our community come together to support Voahangy and her small business after a big order recently fell through," he said in a post on X.
+"Stop by The Giving Pies the next time you're looking for a delicious dessert and help support an amazing local entrepreneur.
+"And thanks to Elon Musk for making it right by paying for the pies after all!"
+Allow Twitter content?
+This article contains content provided by Twitter. We ask for your permission before anything is loaded, as they may be using cookies and other technologies. You may want to read Twitter’s cookie policy, external and privacy policy, external before accepting. To view this content choose ‘accept and continue’.</t>
+  </si>
+  <si>
+    <t>Billionaire Elon Musk has promised to “make things good” with a California bakery after his company backed out of a pie order that cost the owner thousands of dollars.
+“Just hearing about this. Will make things good with the bakery,” Musk said on X (formerly Twitter) in response to a story about the cancelled order.
+Musk’s company Tesla ditched an order for 4,000 mini pies from Giving Pies, a Black-owned bakery in San Jose, in central California.
+Owner Voahangy Rasetarinera told KRON-TV that her bakery received a last-minute order for 2,000 pies from Tesla on Valentine’s Day – a $6,000 catch for the small business, KTVU reported.
+While Rasetarinera has previously worked on large catering orders with other tech companies, she said that she had to chase Tesla several times about payment for the order, money needed to secure ingredients and pay her staff.
+On Thursday evening, a Tesla representative named Laura contacted Rasetarinera and apologized about the delayed payment. Laura also upped the order to 4,000 pies, assuring Rasetarinera that money was not an issue.
+Rasetarinera said that she and her team had worked overtime to pull off the mega order. But Tesla never responded to several invoices sent from the pie company for payment.
+Instead, on Friday, Laura messaged Rasetarinera, letting her know that the order was no longer needed.
+Rasetarinera said in a post to Facebook that the casual cancellation “left me reeling, realizing the extent of the impact on my small business”.
+“I had invested time, resources, and effort based on assurances from Tesla, only to be left high and dry,” she added.
+Rasetarinera told KRON that the last-minute canceling of such a large order hurt her business. In order to fulfill Tesla’s order, Rasetarinera had to decline other catering gigs.
+“I’m a small business. I don’t have the luxury of infinite resources so I really need to be paid so I can secure my staff,” Rasetarinera said.
+A representative of Tesla later reached out to Rasetarinera and said that Laura was not authorized to approve payments, KGO-TV, an ABC affiliate, reported.
+As of Thursday, the company did not pay Rasetarinera for the pies but offered her a tour of the factory.
+But Musk’s post on Friday, in light of the viral story, may be a sign that the small business will soon be compensated for its hard work.
+“People should always be able to count on Tesla trying its best,” Musk said in the post to X.</t>
   </si>
   <si>
     <t>MSFT</t>
   </si>
   <si>
-    <t>Meetings with a company’s top brass can provide invaluable insights into its inner workings and shine a light on the opportunities available.
-After spending almost a full day with some of Microsoft’s (NASDAQ:MSFT) senior management team at its Redmond base, Bernstein’s Mark Moerdler, a 5-star analyst rated in the top 2% of the Street’s stock pros, walked away seriously impressed.
-“The company has a high sense of energy and excitement, and you can sense the speed it is moving at and the desire to move even more quickly,” Moerdler noted. “The innovation level is high, and Microsoft is extremely well-positioned to capture so much of the upside from that innovation, which is why Microsoft continues to be our favorite long-term investment. After having held these meetings, we are even more excited about the long-term prospects for the business and Microsoft’s ability to drive strong revenue growth, margin improvement and return of cash.”
-So, what specifically got Moerdler so excited? Obviously, the AI opportunity was a focal point. Microsoft acknowledges that they are at the forefront of the Generative AI trend, setting the standard in contrast to previous cycles, such as the Cloud, where they were playing catch-up. This represents a significant shift for the company, and they are determined to maintain their edge.
-“In fact,” adds Moerdler, “even compared to the Cloud transition where the sense of drive was high, this time it is even higher and there is more excitement within the organization.”
-AI permeates every aspect of Microsoft’s operations, spanning both the SaaS and IaaS/PaaS segments. This interconnectedness fosters a “feedback loop” that few, if any, other companies can utilize to fuel ongoing innovation and widespread adoption.
-The good news is that AI development is still in its infancy, and although management has a “line of sight to revenue,” the broader long-term opportunities are still taking shape. As such, Moerdler anticipates that the tech giant will refrain from setting specific long-term goals or targets. That’s no cause for concern, however, as Microsoft is “executing really well and is simultaneously focused on driving growth while driving margins.”
-While Moerdler was already a big fan ahead of the meetings, the analyst came away even more enthusiastic about the long-term outlook. As investors “recognize near term the value being created,” there’s potential for the stock to become interesting sooner than Moerdler previously anticipated.
-Bottom-line, Moerdler maintained an Outperform (i.e., Buy) rating on MSFT shares to go along with a $465 price target. Should the figure be met, investors will be sitting on returns of 13% a year from now. (To watch Moerdler’s track record, click here)
-Almost no one is arguing with that take on Wall Street. MSFT’s Strong Buy consensus rating is based on 33 Buys and just 1 Hold and Sell each. At $469.58, the average target implies shares will gain 14% over the one-year timeframe. (See Microsoft stock forecast)
-To find good ideas for stocks trading at attractive valuations, visit TipRanks’ Best Stocks to Buy, a tool that unites all of TipRanks’ equity insights.
-Disclaimer: The opinions expressed in this article are solely those of the featured analysts. The content is intended to be used for informational purposes only. It is very important to do your own analysis before making any investment.</t>
-  </si>
-  <si>
-    <t>Boss at one of Microsoft's largest resellers quits, admits secret share deals
-London Stock Exchange listed Bytes Technology Group 'working to clarify details' after Neil Murphy resigns
-Neil Murphy, the boss of Bytes Technology Group – one of Microsoft’s largest cloud and software licensing resellers – has quit with immediate effect, at the same time admitting to making secret stock trades in the company.
-London Stock Exchange-listed biz confirmed yesterday that Sam Mudd is being appointed as a caretaker until a permanent successor is found.
-BTG said yesterday that Murphy, who has run the business since October 1997, had tendered his resignation "effective today," adding: "Neil Murphy has also notified the Board today that he has made a number of trades in the Company's shares that had not been disclosed to the Company or the market in compliance with the PDMR disclosure requirements."
-The directors on the board are currently "working to clarify the details of these undisclosed trades," and based on information provided, Murphy has a shareholding of 2,890,218 units, which remains unchanged from the position notified to the LSE on 28 November, 2023.
-Soon-to-be replacement CEO Mudd is currently the executive director of BTG and managing director of Phoenix Software Lit. Phoenix was acquired by BTG in 2017 in a buy that opened the door to agreements with Dell, VMware, Checkpoint, Citrix, and Mimecast.
-- Microsoft signs 1.5 million seat contract for Office 365 and more
-- NHS England spends £8M to extend Microsoft deals by a month
-- There is still gold to be had in the world of Microsoft resellers
-- Bytes' NHS deal loss hits revs – but biz margins rise
-According to the most recent full-year trading figures for the 12 months ended February 20, 2023, the company turned over £1.439 billion ($1.82 billion) in sales, up 19.1 percent year-on-year, and booked an operating profit of £50.9 million ($64.5 million), up 20.6 percent.
-Bytes is positively dripping in certifications, and remains one of the few local solution providers to have all six Microsoft designations for business applications, data &amp; AI, distal and app innovation, infrastructure, security and modern workplace.
-The company, established in a shop in Epsom, floated on the LSE in December 2020 for 332 pence and is currently trading at 545 pence. The valuation dipped by almost 13 percent after Murphy’s resignation was made public. ®</t>
-  </si>
-  <si>
-    <t>Google, Microsoft Will Dominate AI as Computing Costs Surge
-Start-up firms in artificial intelligence can’t afford to keep the lights on.
-Sam Altman’s goal of raising about $7 trillion to make artificial-intelligence chips tells a story beyond his borderline-insane ambitions. First, the infrastructure needed to build AI has become exorbitantly expensive. Second, most of that value is still — still! — held by a handful of large technology companies — and the oligopoly is only going to get worse.
-For all the competition that was spurred by the launch of ChatGPT in late 2022, and the flurry of new startups that jumped into the hyped-up generative AI market, most of those new players will likely fold or be folded into the incumbents over the next year or so. The costs of doing business are too high for them to survive on their own.</t>
-  </si>
-  <si>
-    <t>Can Perplexity do to Google what Microsoft did to IBM back in the day?
-Summary
-- Srinivas is optimistic that Perplexity could capture the most valuable segment of the Search &amp; ChatGPT user base, potentially leading to increased advertising revenue and new opportunities
-Perplexity, the new kid on the AI block, offers an intriguing business model that closely resembles how users interact with platforms like ChatGPT or Gemini. Essentially acting as a "wrapper" for ChatGPT, Perplexity combines the delivery of relevant URLs, akin to traditional search engines, with clear, ChatGPT-style textual explanations.</t>
+    <t>- Pete Ballmer, the son of Microsoft's former CEO, shared what it's like to grow up with a rich dad.
+- The product manager-turned-comedian said he got unwanted attention and differential treatment.
+- Still, he doesn't spend his wealth lavishly because of his parents' humble upbringings.
+Pete Ballmer, one of three sons of ex-Microsoft CEO Steve Ballmer, got real about what it's like growing up with an uber-wealthy father during a recent episode of the podcast "Cash Cuties."
+"I was deeply uncomfortable with all this for the longest time," Pete Ballmer said in the interview released earlier this month.
+Steve Ballmer, who led the software giant from 2000 to 2014, has a net worth of $121 billion as of February 27, according to Forbes.
+The billionaire's son — a 29-year-old stand-up comedian who used to be a project manager — remembered getting preferential treatment up until his mid-20s.
+He remembered visiting the Statue of Liberty with his family as a kid and eating a "nice lunch spread" at an exclusive, roped-off dining area that sat right next to a long line of visitors waiting to order food.
+"When you're a billionaire, people will lay down for you," Ballmer said.
+Ballmer also got plenty of unwanted attention. After a lacrosse game in middle school, Ballmer distinctly remembered his teammates shouting, "Apple is better," as he made his way through the handshake line.
+During a basketball game, one teammate brought up his father and said, "I would kill to be in your position."
+His discomfort with his family ties continued into his adulthood. When he first started doing stand-up in college, he said he changed his stage name to "Pete Bronson" to avoid being associated with his father.
+"It was not something I wanted to be a part of who I was," Ballmer said. "It was frustrating to have people plant that on me."
+Of course, money was never an issue. Ballmer said his dad was already president of Microsoft when he was born and got promoted to CEO when he was 9.
+Pete Ballmer said his grandpa gave him a "decent percentage" of Microsoft stock, which he said was worth "hundreds and thousands of dollars" by the time he turned 25.
+He went on nice family vacations and grew up in a home with five bathrooms. He even convinced his father to purchase the LA Clippers basketball team.
+That doesn't mean Ballmer doesn't see money as disposable. Given his parents' upbringing — his mom grew up on a rural farm in Oregon and his dad in a middle-class household — Bronson internalized the belief that cash needed to be spent wisely.
+As a kid, he got $10 a week for allowance. When he got older, he drove a 1998 Lincoln Town Car his father passed down to him.
+Ballmer said he does spend big bucks on conveniences like "stupid irresponsible" Uber rides and DoorDash takeout to save time, and he uses his generational wealth to support his full-time stand-up comedy career.
+He can "wipe financial errors" like last-minute flight changes without worrying about the cost.
+"I don't want people to see my car and think, 'He's got money,' " Ballmer said.
+While Ballmer seems aware that he grew up with an unusual amount of privilege, he joked that his prestige can only take him so far.
+Towards the end of the episode, he recalled a time when he was hitting on a woman in Las Vegas by telling her that his dad was the CEO of Microsoft.
+"You need to get a different line," she said and walked away.
+Correction February 28, 2024: An earlier version of this story incorrectly described how Pete and Steve Ballmer discussed money. Pete Ballmer says he and his father have spoken twice in the last decade about finances with a moderator. The moderator is not present every time they speak about money.</t>
+  </si>
+  <si>
+    <t>- Microsoft on Monday announced a new partnership with French start-up Mistral AI as the U.S. tech giant seeks to expand its footprint in the fast-evolving artificial intelligence industry.
+- Under the deal, Mistral's large language models will be available on Microsoft's Azure cloud computing platform, while its ChatGPT style multilingual conversational assistant "Le Chat" will be rolled out.
+- "I really think this day is one of the most important days in terms of Microsoft's technology support for Europe," Microsoft President Brad Smith told CNBC on Monday.
+Microsoft on Monday announced a new partnership with French start-up Mistral AI – Europe's answer to ChatGPT maker OpenAI — as the U.S. tech giant seeks to expand its footprint in the fast-evolving artificial intelligence industry.
+Microsoft said in a statement that it was investing in the 2 billion euro ($2.1 billion), 10-month-old business to help it unlock "new commercial opportunities" and expand to global markets. A Microsoft spokesperson confirmed Tuesday that it was investing 15 million euros, which would convert into equity in Mistral's next funding round.
+Under the deal, Mistral's large language models (LLM) — the technology behind generative AI products — will be available on Microsoft's Azure cloud computing platform, becoming only the second company to host its LLM on the platform after OpenAI.
+It will also see Microsoft bolster the start-up's access to new customers as it rolls out its ChatGPT-style multilingual conversational assistant "Le Chat," or "the cat."
+Microsoft President Brad Smith said on Monday that the deal was an "important" signal of the company's backing of European technology.
+"I really think this day is one of the most important days in terms of Microsoft's technology support for Europe," Smith told CNBC's Karen Tso at the Mobile World Congress tech conference in Barcelona, Spain.
+"What we're fundamentally agreeing to a long-term partnership with Mistral AI so that they can train and deploy their next generation models for AI on our AI data centres, our infrastructure, effective immediately," he added.
+Growing scrutiny
+It comes as Microsoft is facing pressure from EU antitrust regulators over its reported $13 billion investment in San Francisco-based OpenAI. Asked whether the investment was an effort to appease competition concerns, Smith said the company was committed to having a diverse product offering.
+"It's important for us to show that this isn't just about Microsoft technology, it's not just about American products. This is going to be an engine for technology, innovation and growth in Europe as well," he said.
+Smith said the investment in Mistral AI would also see funds dedicated to research and development, including AI models for public sector services in Europe.
+"I think Europe wants, needs and deserves a wide range of offerings," Smith said.
+Earlier on Monday, Spanish telecoms giant Telefónica announced that it had struck a deal to integrate Microsoft's Azure AI Studio into its digital ecosystem, Kernel, allowing staff to interpret data using generative AI language models.
+Rival tech giants such as Google and Amazon have also been ramping up their investments in AI amid a growing frenzy around the emerging technology. Global markets hit record highs last week on the back of bumper results from AI chipmaker Nvidia.</t>
+  </si>
+  <si>
+    <t>Microsoft’s Mistral AI Investment to Be Examined by EU Watchdog
+- Partnership amounts to €15 million investment, Microsoft says
+- EU analysis could lead to future formal investigation
+Microsoft Corp.’s Mistral AI investment is set to be analyzed by the European Union’s competition watchdog at the same time that its deep ties to OpenAI Inc come under regulatory scrutiny.
+Mistral announced a “strategic partnership” with Microsoft on Monday that includes making the startup’s latest artificial intelligence models available to customers of Microsoft’s Azure cloud. Microsoft said the investment amounted to €15 million ($16.3 million.)</t>
+  </si>
+  <si>
+    <t>France had no prior knowledge of Microsoft's Mistral AI deal, official says
+By Martin Coulter and Leigh Thomas
+LONDON (Reuters) -France had no prior knowledge of Microsoft's partnership with tech startup Mistral AI, a finance ministry official told Reuters, denying suggestions that French lobbying for looser European AI rules had been on behalf of the U.S. tech giant.
+Earlier this week, Microsoft said it had made a 15-million euro ($16 million) investment in Mistral, and would soon make the Paris-based company's AI models available via its Azure cloud computing platform.
+Following the announcement, a Microsoft spokesperson told Reuters it had invested in Mistral without taking a stake. Later, Microsoft clarified that its investment would convert into equity in Mistral's next funding round, a common practice among big tech companies investing in AI startups.
+Mistral and the French government had previously lobbied for looser regulations under the European Union's wide-ranging AI Act, ostensibly to avoid over-regulating smaller startups.
+Some EU lawmakers on Tuesday questioned whether Mistral had lobbied on Microsoft's behalf, and the extent of the French government's knowledge of the partnership.
+"That story seems to have been a front for an American-influenced big tech lobby," Kim van Sparrentak, an EU lawmaker who worked closely on the AI Act, told Reuters. "The Act almost collapsed under the guise of no rules for 'European champions', and now look. European regulators have been played."
+But the French government denied any prior knowledge of the agreement.
+"Yesterday, we learned of the technological partnership between Mistral and Microsoft. It's great news that a young French company has joined Microsoft's previously exclusive partnership with OpenAI on its Azure platform," a French finance ministry official told Reuters.
+"France, like all other member states, took part in the writing the AI Act. At the time, we were not aware of this partnership project, but it has no specific consequences."
+On Wednesday afternoon, Mistral CEO Arthur Mensch said the company remained committed to its mission as an independent European company.
+"We have a reselling agreement with Microsoft, that we’re very excited about," he wrote on social media platform X. "Alongside similar partnerships, it will accelerate our growth."
+Microsoft did not immediately respond to requests for comment.
+(Reporting by Martin CoulterEditing by Mark Potter, Kirsten Donovan)</t>
+  </si>
+  <si>
+    <t>Topline
+Microsoft delivered another blowout earnings report Tuesday, tallying its best-ever quarterly revenue for its fifth quarter in a row – a stretch directly coinciding with an explosion in investor interest in artificial intelligence and Microsoft-backed OpenAI’s debut of ChatGPT.
+Key Facts
+Microsoft’s $62 billion of sales in the three-month period ending last month topped average analyst estimates of $61.1 billion, according to FactSet, while its $2.93 earnings per share topped forecasts of $2.77.
+The booming sales topped the prior quarter’s record $56.5 billion, marking an 18% year-over-year increase.
+Profits were slightly down last quarter, as the $21.9 billion in net income compared to the September quarter’s $22.3 billion profit, but profits remained up about 30% on an annual basis.
+Microsoft shares dipped slightly following the earnings report’s release, moving against the stock’s sweltering stretch, with shares up 11% in 2024 and 70% since the beginning of 2023.
+Big Number
+30%. That’s how much year-over-year revenue growth Microsoft reported in its intelligent cloud division encompassing its AI-heavy Azure cloud service.
+Key Background
+Microsoft eclipsed a $3 trillion market capitalization for the first time ever last week, and was the most valuable company in the world as of Tuesday’s market close. Microsoft’s valuation narrowly topped that of Apple, which held the mantle of world’s biggest company for a majority of the last three years until Microsoft reclaimed the throne earlier this month. The Washington-based Microsoft has enjoyed a renaissance on Wall Street largely due to the legacy tech firm’s position as the leader of the broader AI movement.
+What To Watch For
+Apple will report earnings Thursday afternoon, as will fellow big tech firms Amazon and Meta.
+Further Reading
+.</t>
+  </si>
+  <si>
+    <t>- Microsoft and Alphabet reported results that beat analysts' expectations on Tuesday.
+- But shares of both companies fell following the reports.
+- "In my general conversations with public market investors and sell-side analysts, few have a correct view of the advertising market," said Brian Wieser, an analyst at Madison and Wall.
+Results were good, but not good enough.
+That's Wall Street's reaction to quarterly results on Tuesday from Alphabet and Microsoft. Both companies reported revenue and earnings that exceeded estimates, yet the stocks sold off after hours, a drop that carried over into Wednesday's trading session.
+In investor speak, the stocks were priced for perfection. Prior to earnings, Alphabet was up 56% for the year and climbed to a fresh high last week, exceeding the prior record from late 2021, the peak of the tech boom. Microsoft was up 70% over the past 12 months, also reaching a fresh high recently and surpassing Apple as the most valuable publicly traded company.
+The companies generated excitement last year by riding the artificial intelligence wave, and were also lauded by shareholders for their dramatic cost-cutting efforts, which included eliminating thousands of jobs.
+In the weeks heading into their earnings reports, investors were buying as if they expected positive surprises. They were left disappointed and nitpicked the numbers.
+Alphabet on Tuesday reported 13% revenue growth, the fastest rate of expansion since early 2022. Sales of $86.31 billion topped the average estimate of $85.33 billion, according to LSEG, formerly known as Refinitiv. Earnings per share of $1.64 beat estimates by 5 cents.
+Revenue at Microsoft increased 18% to $62.02 billion, topping the $61.12 billion average analyst estimate. EPS of $2.93 was 15 cents above consensus.
+Both companies also beat expectations in their cloud businesses, with Google Cloud reporting 25% growth and Microsoft's larger Azure and other cloud services expanding 30%.
+The one disappointment from Alphabet was in Google's ad business, which delivered revenue of $65.52 billion, trailing analysts' estimates of $65.94 billion, according to StreetAccount. Within ads, YouTube came in just shy of expectations.
+Stifel analysts, who recommend buying the stock, said in a quick-take report on Tuesday that Alphabet produced "healthy advertising results, but not enough."
+Brian Wieser, an analyst at media and advertising consultancy Madison and Wall, said the market has unrealistic expectations for Google given its size and dominance.
+"In my general conversations with public market investors and sell-side analysts, few have a correct view of the advertising market," Wieser said. "Many think that growth can continue at double-digit levels for the fastest-growing companies for much longer a period of time than is realistic to expect."
+Alphabet shares dropped 7.5% on Wednesday. Microsoft's decline was less severe, with the stock falling 2.7%.
+Microsoft's outlook was a bit light, overshadowing the earnings and revenue beat. The company called for fiscal third-quarter sales between $60 billion and $61 billion, while analysts polled by LSEG had expected $60.93 billion.
+Shares of chipmaker AMD also dropped despite better-than-expected revenue numbers and profit that met estimates. The stock, which is up 137% in the past year on excitement about its artificial intelligence processors, fell almost 6% after the announcement.
+Attention now turns to Thursday, when Amazon, Apple and Meta all report quarterly results. Similar to Alphabet and Microsoft, Meta shares have climbed to a record this month. Apple hit its all-time high in December, while Amazon remains about 6% below its record from 2022.
+— CNBC's Jonathan Vanian, Jordan Novet and Kif Leswing contributed to this report.
+Don't miss these stories from CNBC PRO:
+- Forget the 'Magnificent 7,' these Nasdaq stocks are next in line to lead the rally, according to the charts
+- Nvidia is now 'deeply overbought' and due for 'consolidation,' says chart analyst
+- Eli Lilly's Zepbound is off to a strong start, but here's what needs to happen to push shares higher
+- Investors are shifting into this type of bond fund at the fastest pace in three years</t>
+  </si>
+  <si>
+    <t>Tesla Slides
+It’s been a rough year for Tesla TSLA. As other members of the so-called magnificent 7 rocket to record valuations – Nvidia NVDA is up over 235% since last February; Microsoft MSFT is up over 50% – the EV pioneer is flat, trading near the same level as this time last year and down about 30% from its summer peak.
+The company released its quarterly numbers at the end of January, missing again on earnings per share and revenue. The stock dropped over 12% on the day.
+So why did Cathie Wood scoop up 377,000 shares of the stock for her ARK Innovation ETF ARKK?
+Business As Usual
+This is the investing guru's strategy. Wood still believes in the long-term vision of the company, so buying after a large dip means she is getting a discount.
+Wood constantly rebalances her fund's holdings by selling off overperforming stocks and buying underperforming ones. This is the strategy that has helped ARKK return 22% on the year.
+Eyes On The Horizon
+Tesla still has a lot of promise; Wood is betting big on the company delivering on its promise. Tesla has a vision of the future where its autonomous driving technology drives the automotive industry and its autonomous robots are ubiquitous. The company is investing heavily in the AI and robotics necessary for this vision to come to fruition. If it delivers, the potential revenue will easily validate a stock price much higher than the roughly $200 it currently sits at.
+Max View
+Traders bullish on Wood and her fund can buy the ETF directly or for those who want to further maximize their view, leveraged funds can help. For example, the award-winning AXS 2X Innovation ETF TARK aims to return twice the daily return of ARKK.
+And for traders not buying what Wood is selling, AXS offers an option for the bears. The AXS Short Innovation Daily ETF SARK, which aims to return the inverse performance of ARKK, can be an attractive option.
+TARK was just awarded Best ETF Launch at Benzinga's 2023 Fintech Awards. The innovative fund was launched in May of 2022 and the care and skill with which the fund is operated is clear.
+© 2024 Benzinga.com. Benzinga does not provide investment advice. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Elon Musk, the enigmatic entrepreneur behind Tesla and SpaceX, has intensified his dispute with tech giant Microsoft, urging its Chairman and CEO Satya Nadella to grant users the option of setting up a new Windows PC without the mandatory creation of a Microsoft account.
+The clash between Musk and Microsoft unfolded on Tuesday when Nadella shared news of the company's collaboration with Mistral AI, a frontrunner in generative artificial intelligence. In response, Musk expressed his plea to Nadella, stating, “Satya, I don’t mean to be a pest, but please allow people setting up a new Windows PC to skip creating a Microsoft account.”
+Highlighting his predicament, Musk pointed out that the option to bypass creating an account vanishes once the computer connects to WiFi. Additionally, he noted the restriction of using only non-work email addresses for sign-up, which poses an obstacle as he solely possesses work email addresses.
+As of the latest update, Nadella has yet to respond to Musk's entreaties.
+The saga unfolded over the preceding weekend when Musk aired grievances about encountering hurdles while setting up his new Windows PC. The billionaire encountered a roadblock as he attempted to finalize the setup process without succumbing to the requirement of establishing a Microsoft account.
+Copyright©2024 Living Media India Limited. For reprint rights: Syndications Today</t>
+  </si>
+  <si>
+    <t>Even Elon Musk is not above making tech support calls. It’s another matter that his requests are addressed directly to the CEO of Microsoft.
+As Satya Nadella shared a post announcing Microsoft’s partnership with Mistral AI, Elon Musk responded to his X post with more mundane matters – a request to allow users setting up their new Windows PC to do so without creating a Microsoft account.
+The billionaire CEO of Tesla said the option to set up a new Windows device without a Microsoft account disappears when the device is connected to WiFi. He also pointed out that Windows does not allow uses to sign up with their work email address.
+This latter point, in particular, is an issue for Musk, who pointed out that he only has work email addresses, not personal ones.
+“Satya, I don’t mean to be a pest, but please allow people setting up a new Windows PC to skip creating a Microsoft account,” the world’s richest man wrote in response to Microsoft CEO Satya Nadella’s post.
+Satya, I don’t mean to be a pest, but please allow people setting up a new Windows PC to skip creating a Microsoft account.
+This option disappears if the computer is connected to WiFi.
+Also, even if you do want to sign up, it won’t allow you use a work email address and I…
+— Elon Musk (@elonmusk) February 26, 2024
+“This will go down in history as the most famous tech support X post of all time,” wrote one X user.
+“Be so rich that you can treat the CEO of MS as a consumer service representative,” another joked.
+Meanwhile, Nadella’s announcement on partnering with French startup Mistral AI is indicative of Microsoft’ attempts to tighten its grip on the emerging technology.
+The US firm, which has already ploughed billions into ChatGPT maker OpenAI, called Mistral "an innovator and trailblazer" in a statement on Monday.
+(With inputs from AFP)
+Discover the latest business news, Sensex, and Nifty updates. Obtain Personal Finance insights, tax queries, and expert opinions on Moneycontrol or download the Moneycontrol App to stay updated!</t>
   </si>
   <si>
     <t>Aabesh De was a self-proclaimed “serial plant killer” who had a high-paying job at Microsoft in Chicago that he quit to launch a houseplant health company Flora. The startup builds a soil meter and an app to alert people about the health of their houseplants.
@@ -777,118 +1032,267 @@
 Discover the latest business news, Sensex, and Nifty updates. Obtain Personal Finance insights, tax queries, and expert opinions on Moneycontrol or download the Moneycontrol App to stay updated!</t>
   </si>
   <si>
-    <t>A 29-Year-Old CEO Quit Microsoft To Build His Startup — And Just Scored A Deal on Shark Tank Aabesh De tapped into a niche need during the pandemic and founded Flora, a houseplant care startup.
-Key Takeaways
-- Aabesh De quit working at Microsoft three years ago to focus on…his houseplants.
-- “My dear mother gave me her prized rose bush plant that she had for years," De said on Shark Tank. “And I ended up killing it in eight short days."
-- So De created the Flora Pod, and scored a $300,000 deal on Shark Tank.
-Three years ago, Aabesh De quit his customer service job at Microsoft to work on an idea that became his plant sensor startup, Flora. On a "Shark Tank" episode that aired on February 16, the 29-year-old founder and CEO earned a deal worth $300,000 for his houseplant care solutions.
-Shark Tank investor Lori Greiner gave De $300,000 for 15% equity and 5% in advisory shares, along with a $2 per unit royalty until she recoups her investment. De revealed that Flora brought in $192,000 in gross sales last year, but isn't yet profitable.
-Flora came to life when De tried and failed to keep his houseplants alive during the pandemic. He was overwhelmed by the plethora of articles out there, and the different instructions that were needed to care for various species of houseplants. More personally, he was frustrated that every plant he touched kept dying — even a prized plant that his mom gave him.
-"My dear mother gave me her prized rose bush plant that she had for years," De said on Shark Tank. "And I ended up killing it in eight short days."
-Related: The Down-to-earth Founders
-De was looking for a product that could act as a wellness tracker for his plants. When he couldn't find it, he invented it — the Flora Pod is a small $64 attachment that goes beyond the surface of the soil of an indoor or outdoor plant and acts as a coach to keep the plant alive. It makes sure that the plant is getting enough water and light and lets the user know if anything is amiss.
-Related: Startup Spotlight: Jordan-Based Smart Green Is On A Mission To Digitally Transform Conventional Farming Practices Across The MENA Region
-Another Flora offering is the popular app, which has reached more than 300,000 people in 190 countries. The pod isn't required to use the app; app users can set customized reminders, scan their plant to get information about its species, and earn game-like rewards as they care for their plants.
-Flora also offers locally sourced houseplants for sale online.
-De started his business from scratch, teaching himself what he needed to know about electronics and computer science so that he could build the prototype moisture sensor for the Flora Pod and code the Flora iOS app.
-"It's been incredibly rewarding seeing how far we've come," De told his alma mater, the Indiana University Kelley School of Business.</t>
-  </si>
-  <si>
     <t>GOOG</t>
   </si>
   <si>
-    <t>The Ultimate Growth Stock to Buy With $1,000 Right Now
-Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) owns and operates some of the most widely used digital properties on Earth. There are no other websites in the world that are visited more than the company's two key assets, Google and YouTube. And Alphabet has many other products and services that consumers, businesses, and governments need in their daily lives.
-This success has made Alphabet a winning investment in the past. Shares have soared 367% in the last decade, a gain that far exceeds the 272% rise of the tech-heavy Nasdaq Composite Index.
-Here's why I think this is the best growth stock to buy with $1,000 right now.
-Strong financial performance
-The days of Alphabet posting greater-than-20% year-over-year revenue growth might be gone. But despite macro headwinds that rattled the economy, particularly higher interest rates, inflationary pressures, and ongoing economic uncertainty, the company reported a sales gain of 9.8% in 2022 and 8.7% last year. This is healthy expansion given the slowdown in the digital ad market.
-Alphabet is also incredibly profitable. Thanks to cost-cutting measures implemented to right-size operations, like eliminating tens of thousands of workers, the operating margin expanded to 27% in Q4 2023, up from 24% in the prior-year period. The business has shown its ability to boost the bottom line at a faster clip than revenue, a clear sign of its economies of scale.
-Turning our attention from the income statement to the balance sheet, Alphabet proves once again that it's a superior enterprise. As of Dec. 31, it had roughly $111 billion of cash, cash equivalents, and marketable securities. This compared to just $13 billion of long-term debt. This favorable situation reduces financial risk, while giving Alphabet the valuable ability to continue investing aggressively in growth opportunities no matter what the economic backdrop looks like.
-One of the widest moats around
-Google Search, which brought in more than half of the company's revenue last quarter, remains Alphabet's bread-and-butter segment. With 91% of the global market for search activity, this product has a monopoly in the industry, even with all the attention that has gone to OpenAI's ChatGPT and its integration with Microsoft's Bing.
-Google Search benefits from powerful network effects. As the internet expands and the amount of information grows, users will depend more and more on Google Search's ability to organize all of this. And because of all this activity, marketers will continue to spend ad dollars on this three-sided platform.
-Besides the network effect, which on its own is probably one of the strongest sources of economic moat on the face of the planet, Alphabet benefits from having a data advantage because of the billions of users that interact with its products and services daily. In the internet age, one in which the world is becoming increasingly digital, this gives the business another edge.
-Valuation and growth
-Thanks to such an impressive past performance for the stock, coupled with this being one of the most successful enterprises of all time, Alphabet today carries a market cap of over $1.7 trillion. This makes it the sixth-most-valuable business in the world. But that doesn't mean that shares can't reward investors going forward.
-As of this writing, the stock sells for a price-to-earnings (P/E) ratio of 24.4. The current valuation looks extremely attractive relative to those of other "Magnificent Seven" stocks, as Alphabet trades at a lower P/E multiple than all of them.
-Looking ahead, Wall Street is optimistic. Analysts expect revenue and diluted earnings per share to rise at annualized rates of 10.6% and 15.3%, respectively, between 2023 and 2026. While it's always a good idea to take these forecasts with a grain of salt, based on the company's track record, investors have every right to remain bullish.
-Allocating $1,000 to Alphabet looks to be a smart financial decision.
+    <t>Topline
+Google parent Alphabet lost some $90 billion in market value Monday as controversy over the Silicon Valley giant’s generative artificial intelligence product made its way to Wall Street.
+Key Facts
+Shares of Alphabet fell 4.5% to $138.75 Monday, closing at its lowest price since Jan. 5 and registering its second-steepest daily loss of the last year.
+The selloff followed a spate of controversy surrounding Google’s Gemini AI service, with issues including Gemini’s image-generating service producing racially inaccurate depictions of historical figures and its chatbot refusing to determine the more negatively impactful historical figure between Adolf Hitler and Elon Musk, culminating in the company’s admission it “missed the mark” with Gemini’s early rollout and taking its AI image service offline for the next few weeks.
+“This is a meaningful blunder in the PR battle surrounding [generative AI] and further suggests that Google is trailing and mis-executing in a fast-moving and high-stakes space,” Loop Capital analyst Rob Sanderson wrote in a note to clients Sunday.
+Alphabet’s losses came as major stock indexes were flat in a rather uneventful day of trading, and Alphabet was the biggest percentage faller among S&amp;P 500 constituents with a market capitalization over $50 billion.
+Crucial Quote
+“The issue for the stock is not the debate [over Gemini] itself, it is the perception of truth behind the brand,” Melius Research analysts Ben Reitzes and Nick Monroe wrote in a Monday note to clients. “Regardless of your view, if Google is seen as an unreliable source for AI to a portion of the population, that isn’t good for business,” the analysts continued.
+Key Background
+Alphabet propulsion into the “crosshairs” of the culture war debate could challenge its stranglehold in the online search market, the Melius group hypothesized, considering AI’s burgeoning role in online search and the possibility of “a meaningful portion of users grow[ing] concerned about Google’s hallucinations and bias.” Gemini’s apparent bias is the latest flub by Alphabet during the AI arms race, in which rival Microsoft appears to be in pole position. Alphabet famously lost more than $100 billion in market capitalization on the day of the announcement of its AI chatbot service last February after the press release included factual errors made by the service.
+Surprising Fact
+Alphabet stock is down 1% year-to-date, trailing the S&amp;P’s 7% gain and tech-heavy Nasdaq’s 8% rally, as well as the double-digit gains of rivals like Microsoft and Meta.
+Further Reading</t>
+  </si>
+  <si>
+    <t>Credit Cards
+Loans
+Banking
+Mortgages
+Insurance
+Credit Monitoring
+Personal Finance
+Small Business
+Taxes
+Help for Low Credit Scores
+Investing
+SELECT
+All Credit Cards
+Find the Credit Card for You
+Best Credit Cards
+Best Rewards Credit Cards
+Best Travel Credit Cards
+Best 0% APR Credit Cards
+Best Balance Transfer Credit Cards
+Best Cash Back Credit Cards
+Best Credit Card Welcome Bonuses
+Best Credit Cards to Build Credit
+SELECT
+All Loans
+Find the Best Personal Loan for You
+Best Personal Loans
+Best Debt Consolidation Loans
+Best Loans to Refinance Credit Card Debt
+Best Loans with Fast Funding
+Best Small Personal Loans
+Best Large Personal Loans
+Best Personal Loans to Apply Online
+Best Student Loan Refinance
+SELECT
+All Banking
+Find the Savings Account for You
+Best High Yield Savings Accounts
+Best Big Bank Savings Accounts
+Best Big Bank Checking Accounts
+Best No Fee Checking Accounts
+No Overdraft Fee Checking Accounts
+Best Checking Account Bonuses
+Best Money Market Accounts
+Best CDs
+Best Credit Unions
+SELECT
+All Mortgages
+Best Mortgages
+Best Mortgages for Small Down Payment
+Best Mortgages for No Down Payment
+Best Mortgages with No Origination Fee
+Best Mortgages for Average Credit Score
+Adjustable Rate Mortgages
+Affording a Mortgage
+SELECT
+All Insurance
+Best Life Insurance
+Best Homeowners Insurance
+Best Renters Insurance
+Best Car Insurance
+Travel Insurance
+SELECT
+All Credit Monitoring
+Best Credit Monitoring Services
+Best Identity Theft Protection
+How to Boost Your Credit Score
+Credit Repair Services
+SELECT
+All Personal Finance
+Best Budgeting Apps
+Best Expense Tracker Apps
+Best Money Transfer Apps
+Best Resale Apps and Sites
+Buy Now Pay Later (BNPL) Apps
+Best Debt Relief
+SELECT
+All Small Business
+Best Small Business Savings Accounts
+Best Small Business Checking Accounts
+Best Credit Cards for Small Business
+Best Small Business Loans
+Best Tax Software for Small Business
+SELECT
+All Taxes
+Filing For Free
+Best Tax Software
+Best Tax Software for Small Businesses
+Tax Refunds
+Tax Brackets
+Tax Tips
+Tax By State
+Tax Payment Plans
+SELECT
+All Help for Low Credit Scores
+Best Credit Cards for Bad Credit
+Best Personal Loans for Bad Credit
+Best Debt Consolidation Loans for Bad Credit
+Personal Loans if You Don't Have Credit
+Best Credit Cards for Building Credit
+Personal Loans for 580 Credit Score or Lower
+Personal Loans for 670 Credit Score or Lower
+Best Mortgages for Bad Credit
+Best Hardship Loans
+How to Boost Your Credit Score
+SELECT
+All Investing
+Best IRA Accounts
+Best Roth IRA Accounts
+Best Investing Apps
+Best Free Stock Trading Platforms
+Best Robo-Advisors
+Index Funds
+Mutual Funds
+ETFs
+Bonds</t>
+  </si>
+  <si>
+    <t>Last Wednesday, when the questions about Gemini’s political viewpoint were still limited to its image creation capabilities, I accused the company of being timid:
+Stepping back, I don’t, as a rule, want to wade into politics, and definitely not into culture war issues. At some point, though, you just have to state plainly that this is ridiculous. Google specifically, and tech companies broadly, have long been sensitive to accusations of bias; that has extended to image generation, and I can understand the sentiment in terms of depicting theoretical scenarios. At the same time, many of these images are about actual history; I’m reminded of George Orwell in 1984:
+Every record has been destroyed or falsified, every book has been rewritten, every picture has been repainted, every statue and street and building has been renamed, every date has been altered. And that process is continuing day by day and minute by minute. History has stopped. Nothing exists except an endless present in which the Party is always right. I know, of course, that the past is falsified, but it would never be possible for me to prove it, even when I did the falsification myself. After the thing is done, no evidence ever remains. The only evidence is inside my own mind, and I don’t know with any certainty that any other human being shares my memories.
+Even if you don’t want to go so far as to invoke the political implications of Orwell’s book, the most generous interpretation of Google’s over-aggressive RLHF of their models is that they are scared of being criticized. That, though, is just as bad: Google is blatantly sacrificing its mission to “organize the world’s information and make it universally accessible and useful” by creating entirely new realities because it’s scared of some bad press. Moreover, there are implications for business: Google has the models and the infrastructure, but winning in AI given their business model challenges will require boldness; this shameful willingness to change the world’s information in an attempt to avoid criticism reeks — in the best case scenario! — of abject timidity.
+If timidity were the motivation, then it’s safe to say that the company’s approach with Gemini has completely backfired; while Google turned off Gemini’s image generation capabilities, it’s text generation is just as absurd:
+I was able to replicate this! They need to shut Gemini down. It is several months away from being ready for prime time. It is astounding that Google released it in this state. https://t.co/wCqKE1eLbI pic.twitter.com/dxWavP3oei
+— Nate Silver (@NateSilver538) February 25, 2024
+That is just one examples of many: Gemini won’t help promote meat, write a brief about fossil fuels, or even help sell a goldfish. It says that effective accelerationism is a violent ideology, that libertarians are morally equivalent to Stalin, and insists that it’s hard to say what caused more harm: repealing net neutrality or Hitler.
+Some of these examples, particularly the Hitler comparisons (or Mao vs George Washington), are obviously absurd and downright offensive; others are merely controversial. They do, though, all seem to have a consistent viewpoint: Nate Silver, in another tweet, labeled it “the politics of the median member of the San Francisco Board of Supervisors.”
+Needless to say, overtly expressing those opinions is not timid, which raises another question from Silver:
+Gemini is behaving exactly as instructed. Asking it to draw different groups of people (e.g. "Vikings" or "NHL players") is the base case, not an edge case. The questions are all about how it got greenlit by a $1.8T market cap company despite this incredibly predictable behavior.
+— Nate Silver (@NateSilver538) February 23, 2024
+In fact, I think there is a precedent for Gemini; like many comparison points for modern-day Google, it comes from Microsoft.
+Microsoft and The Curse of Culture
+Microsoft workers celebrated the release to manufacturing of Windows Phone 7 by parading through their Redmond campus on Friday with iPhone and BlackBerry hearses. Employees dressed up in fancy dress and also modified cars to include Windows Phone branding. Aside from the crazy outfits the workers made fake hearses for giant BlackBerry and iPhone devices. Employees cheekily claimed they had buried the competition with Windows Phone 7.
+This was, to be clear, insane. I wrote about the episode in 2013’s The Curse of Culture; it’s been eight years, so I hope you’ll allow me a particularly long excerpt:
+As with most such things, culture is one of a company’s most powerful assets right until it isn’t: the same underlying assumptions that permit an organization to scale massively constrain the ability of that same organization to change direction. More distressingly, culture prevents organizations from even knowing they need to do so. From Edgar Schein’s Organizational Culture and Leadership:
+Basic assumptions, like theories-in-use, tend to be nonconfrontable and nondebatable, and hence are extremely difficult to change. To learn something new in this realm requires us to resurrect, reexamine, and possibly change some of the more stable portions of our cognitive structure…Such learning is intrinsically difficult because the reexamination of basic assumptions temporarily destabilizes our cognitive and interpersonal world, releasing large quantities of basic anxiety. Rather than tolerating such anxiety levels, we tend to want to perceive the events around us as congruent with our assumptions, even if that means distorting, denying, projecting, or in other ways falsifying to ourselves what may be going on around us. It is in this psychological process that culture has its ultimate power.
+Probably the canonical example of this mindset was Microsoft after the launch of the iPhone. It’s hard to remember now, but no company today comes close to matching the stranglehold Microsoft had on the computing industry from 1985 to 2005 or so. The company had audacious goals — “A computer on every desk and in every home, running Microsoft software” — which it accomplished and then surpassed: the company owned enterprise back offices as well. This unprecedented success changed that goal — originally an espoused belief — into an unquestioned assumption that of course all computers should be Microsoft-powered. Given this, the real shock would have been then-CEO Steve Ballmer not laughing at the iPhone.
+A year-and-a-half later, Microsoft realized that Windows Mobile, their current phone OS, was not competitive with the iPhone and work began on what became Windows Phone. Still, unacknowledged cultural assumptions remained: one, that Microsoft had the time to bring to bear its unmatched resources to make something that might be worse at the beginning but inevitably superior over time, and two, that the company could leverage Windows’ dominance and their Office business. Both assumptions had become cemented in Microsoft’s victory in the browser wars and their slow-motion takeover of corporate data centers; in truth, though, Microsofts’ mobile efforts were already doomed, and nearly everyone realized it before Windows Phone even launched with a funeral for the iPhone.
+Steve Ballmer never figured it out; his last acts were to reorganize the company around a “One Microsoft” strategy centered on Windows, and to buy Nokia to prop up Windows Phone. It fell to Satya Nadella, his successor, to change the culture, and it’s why the fact his first public event was to announce Office for iPad was so critical. I wrote at the time:
+This is the power CEOs have. They cannot do all the work, and they cannot impact industry trends beyond their control. But they can choose whether or not to accept reality, and in so doing, impact the worldview of all those they lead.
+Microsoft under Nadella’s leadership has, over the last three years, undergone a tremendous transformation, embracing its destiny as a device-agnostic service provider; still, it is fighting the headwinds of Amazon’s cloud, open source tooling, and the fact that mobile users had six years to get used to a world without Microsoft software. How much stronger might the company have been had it faced reality in 2007, but the culture made that impossible.
+Google is not in nearly as bad of shape as Microsoft was when it held that funeral. The company’s revenue and profits are as high as ever, and the release of Gemini 1.5 in particular demonstrated how well-placed the company is for the AI era: the company not only has leading research, it also has unmatched infrastructure that enables entirely new and valuable use cases. That, though, makes the Gemini fiasco all the more notable.
+Don’t Be Evil
+The questions around Google and AI have, to date, been mostly about business model. In last year’s AI and the Big Five I talked about how Kodak invented the digital camera, but didn’t pursue it because of business model reasons, and made the obvious analogy to Google’s seeming inability to ship:
+Google has long been a leader in using machine learning to make its search and other consumer-facing products better (and has offered that technology as a service through Google Cloud). Search, though, has always depended on humans as the ultimate arbiter: Google will provide links, but it is the user that decides which one is the correct one by clicking on it. This extended to ads: Google’s offering was revolutionary because instead of charging advertisers for impressions — the value of which was very difficult to ascertain, particularly 20 years ago — it charged for clicks; the very people the advertisers were trying to reach would decide whether their ads were good enough…
+That, though, ought only increase the concern for Google’s management that generative AI may, in the specific context of search, represent a disruptive innovation instead of a sustaining one. Disruptive innovation is, at least in the beginning, not as good as what already exists; that’s why it is easily dismissed by managers who can avoid thinking about the business model challenges by (correctly!) telling themselves that their current product is better. The problem, of course, is that the disruptive product gets better, even as the incumbent’s product becomes ever more bloated and hard to use — and that certainly sounds a lot like Google Search’s current trajectory.
+Google has started shipping, and again, Gemini 1.5 is an incredible breakthrough; the controversy over Gemini, though, is a reminder that culture can restrict success as well. Google has its own unofficial motto — “Don’t Be Evil” — that founder Larry Page explained in the company’s S-1:
+Don’t be evil. We believe strongly that in the long term, we will be better served — as shareholders and in all other ways — by a company that does good things for the world even if we forgo some short term gains. This is an important aspect of our culture and is broadly shared within the company.
+Google users trust our systems to help them with important decisions: medical, financial and many others. Our search results are the best we know how to produce. They are unbiased and objective, and we do not accept payment for them or for inclusion or more frequent updating. We also display advertising, which we work hard to make relevant, and we label it clearly. This is similar to a newspaper, where the advertisements are clear and the articles are not influenced by the advertisers’ payments. We believe it is important for everyone to have access to the best information and research, not only to the information people pay for you to see.
+Google has by-and-large held to that promise, at least as defined by Page: the company does not sell search result placement. Of course the company has made ads look more and more like organic results, and crammed ever more into the search results page, and squeezed more and more verticals, but while there are always whispers about what is or isn’t included in search, or the decisions made by the algorithm, most people still trust the product, and use it countless times every day.
+One does wonder, though, if the sanctity of search felt limiting to some inside of Google. In 2018 a video leaked of an all-hands meeting after the 2016 election where Google executives expressed dismay over the results; the footage was damaging enough that Google felt compelled to issue a statement:
+At a regularly scheduled all hands meeting, some Google employees and executives expressed their own personal views in the aftermath of a long and divisive election season. For over 20 years, everyone at Google has been able to freely express their opinions at these meetings. Nothing was said at that meeting, or any other meeting, to suggest that any political bias ever influences the way we build or operate our products. To the contrary, our products are built for everyone, and we design them with extraordinary care to be a trustworthy source of information for everyone, without regard to political viewpoint.
+Perhaps this seemed to some employees to be an outdated view of the world; I’m reminded of that quote from Angela Y Davis: “In a racist society it is not enough to be non-racist, we must be anti-racist.” In this view calls for color-blindness in terms of opportunity are insufficient; the only acceptable outcome is one in which outcomes are equal as well. The equivalent in the case of Google would be that it is not enough to not be evil; one must be “anti-evil” as well.
+The end result is that just as Microsoft could, shielded by years of a Windows monopoly, delude themselves into thinking they had an iPhone killer, Google could, shielded by years of a search monopoly, delude themselves into thinking they had not just the right but the obligation to tell users what they ought to believe.
+After Gemini
+As I noted in the excerpt, I very much try to avoid politics on Stratechery; I want to talk about business models and societal impact, and while that has political implications, it doesn’t need to be partisan (for example, I think this piece about the 2016 election holds up very well, and isn’t partisan in the slightest). AI, though, is increasingly giving all of us no choice in the matter.
+To that end, my Article last fall about the Biden executive order, Attenuating Innovation, was clearly incomplete: not only must we keep in mind the potential benefits of AI — which are massive — but it is clearly essential that we allow open source models to flourish as well. It is Google or OpenAI’s prerogative to train their models to have whatever viewpoint they want; any meaningful conception of freedom should make space for an open market of alternatives, and that means open source.
+Secondly, it behooves me, and everyone else in tech, to write Articles like the one you are reading; “the politics of the median member of the San Francisco Board of Supervisors” has had by far the loudest voice in tech because most people just want to build cool new things, or write about them, without being fired or yelled at on social media. This does, though, give the perception that tech is out of touch, or actively authoritarian; I don’t think that’s true, but those of us who don’t want to tell everyone else what to think, do, paradoxically, need to say so.
+The biggest question of all, though, is Google. Again, this is a company that should dominate AI, thanks to their research and their infrastructure. The biggest obstacle, though, above and beyond business model, is clearly culture. To that end, the nicest thing you can say about Google’s management is to assume that they, like me and everyone else, just want to build products and not be yelled at; that, though, is not leadership. Schein writes:
+When we examine culture and leadership closely, we see that they are two sides of the same coin; neither can really be understood by itself. On the one hand, cultural norms define how a given nation or organizations will define leadership — who will get promoted, who will get the attention of followers. On the other hand, it can be argued that the only thing of real importance that leaders do is to create and manage culture; that the unique talent of leaders is their ability to understand and work with culture; and that it is an ultimate act of leadership to destroy culture when it is viewed as dysfunctional.
+That is exactly what Nadella did at Microsoft. I recounted in The End of Windows how Nadella changed the company’s relationship to Windows, unlocking the astronomical growth that has happened under his watch, including the company’s position in AI.
+Google, quite clearly, needs a similar transformation: the point of the company ought not be to tell users what to think, but to help them make important decisions, as Page once promised. That means, first and foremost, excising the company of employees attracted to Google’s power and its potential to help them execute their political program, and return decision-making to those who actually want to make a good product. That, by extension, must mean removing those who let the former run amok, up to and including CEO Sundar Pichai. The stakes, for Google specifically and society broadly, are too high to simply keep one’s head down and hope that the San Francisco Board of Supervisors magically comes to its senses.
+Image credit Carl J on Flickr ↩</t>
+  </si>
+  <si>
+    <t>Are These the 2 Best "Magnificent Seven" Stocks to Buy Right Now?
+A significant portion of the market's impressive run since the start of 2023 can be attributed to the monumental rise of the "Magnificent Seven" stocks. These businesses are industry-leading entities with a focus on innovation and tech-forward thinking.
+A quick look at these companies reveals that their stock prices might be on the expensive side of things. This makes sense, given how much they've rewarded shareholders in recent times. Prospective investors might be discouraged in thinking they missed the rally.
+But there are two Magnificent Seven constituents that still appear to be extremely smart buys right now. Let's take a closer look at Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG) and Meta Platforms (NASDAQ: META).
+Dominating the industry
+Both of these internet giants touch the lives of billions of people on a daily basis. Alphabet has six products and services that have more than 2 billion users each. And Google Search, for instance, commands a remarkable 91% share of the global search industry.
+Meta, with its popular social media apps, counts 4 billion monthly active users. That figure was up 6% year over year in the fourth quarter of 2023.
+When it comes to unrivaled scale and limited competitive threats, I don't know if there are any two businesses on the planet that hold a candle to Alphabet and Meta. While it's true that anyone with some funding and tech prowess can create a new search engine or social media app from scratch, adding users would be an insurmountable task.
+Both of these companies benefit from powerful network effects and tremendous data advantages that minimize the risk of disruption. I don't think any other characteristics exemplify just how high quality Alphabet and Meta are.
+The result is that combined, they generate 57% of the world's digital ad revenue in an industry that is set to register sizable growth going forward. And with both enterprises focused on making huge investments in artificial intelligence capabilities, their ability to serve up better-targeted ads will be compelling for marketers.
+Impressive financials
+These companies have impressive track records of growing both revenue and income at high rates in the past, which has propelled their share prices. In the last five years, Alphabet's and Meta's operating margins averaged 25.8% and 34.2%, respectively, a clear sign of their outsized profitability.
+These are financially sound businesses that generate tens of billions of dollars in operating cash flow on a quarterly basis. Combined, they had a net cash position of $145 billion on their balance sheets as of Dec. 31. This favorable situation virtually eliminates any financial risk from their businesses, while providing seemingly unlimited resources to continue investing aggressively in growth opportunities.
+While Meta just announced a tiny dividend, these companies have generally returned capital to shareholders via stock buybacks. In the past few years, they have done a wonderful job at shrinking their outstanding share counts, which boosts their earnings per share.
+It's not too late
+Even after their gains in the last year, these stocks aren't trading at nosebleed valuations. It's actually the opposite.
+As of this writing, Alphabet and Meta sell for forward price-to-earnings (P/E) ratios of 21.2 and 24.3, respectively. For comparison's sake, the tech-heavy Nasdaq-100 index trades at a forward P/E multiple of 30.3. And even more noteworthy, based on this metric, these two stocks are cheaper than any of the other Magnificent Seven companies.
+Based on all of the fantastic qualities, adding these two businesses to your portfolio looks like a no-brainer decision.
 Should you invest $1,000 in Alphabet right now?
 Before you buy stock in Alphabet, consider this:
 The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Alphabet wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
 Stock Advisor provides investors with an easy-to-follow blueprint for success, including guidance on building a portfolio, regular updates from analysts, and two new stock picks each month. The Stock Advisor service has more than tripled the return of S&amp;P 500 since 2002*.
-*Stock Advisor returns as of February 20, 2024
-Suzanne Frey, an executive at Alphabet, is a member of The Motley Fool’s board of directors. Neil Patel has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet and Microsoft. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
-The Ultimate Growth Stock to Buy With $1,000 Right Now was originally published by The Motley Fool</t>
-  </si>
-  <si>
-    <t>Where should you invest your hard-earned money? That's probably the hardest question any investor faces. Different individuals arrive at different conclusions, of course.
-I think, though, that three stocks especially stand out right now as excellent choices. Here are my picks for the best stocks to invest $5,000 in right now.
-1. Alphabet
-Two technologies hold the potential to transform our world over the next few decades -- artificial intelligence (AI) and quantum computing. Alphabet (GOOG -0.02%) (GOOGL -0.09%) is a leader in both of them.
-The company's recent launch of its Gemini AI model proves that it won't be left behind in the AI race. Gemini Ultra beat the top AI models available (including GPT-4) on 30 of 32 key benchmarks. It's also the first AI system to outperform human experts on the MMLU (massive multitask language understanding) test, which includes 57 subjects.
-I fully expect future versions of Gemini will be even more powerful. That's great news for Google Cloud, as more customers move their apps and data to the cloud to harness the power of AI.
-Quantum computing still has a long way to go. However, Alphabet has achieved two key milestones. The company thinks it could realistically develop a functional commercial quantum computer within the next decade.
-In the meantime, Alphabet is highly profitable with a huge cash stockpile. The company dominates multiple markets, including search. Its valuation also isn't as ridiculously high as many other top AI stocks. Alphabet's shares are trading at less than 21x forward earnings.
-2. PayPal Holdings
-You might be surprised to see PayPal Holdings (PYPL 1.39%) on this list. The fintech stock has been a big loser in recent years and is down more than 20% over the last 12 months.
-But this steep sell-off has caused PayPal's shares to become dirt cheap. The stock trades at a forward earnings multiple of less than 11.6x. Is PayPal a value trap? I don't think so.
-The company's business continues to perform relatively well, even though growth isn't as impressive as in the past. PayPal's revenue jumped 9% year over year in the fourth quarter of 2023 and adjusted earnings per share soared 19%.
-PayPal's Braintree payments platform, which processes credit cards, debit cards, and more, is an especially important growth driver. The company also has solid growth opportunities with its Venmo peer-to-peer payment offering.
-3. Vertex Pharmaceuticals
-Vertex Pharmaceuticals (VRTX 0.78%) is arguably one of the most resilient stocks on the market. The big-biotech's shares jumped in 2022 when the overall market plunged and last year, when the market was booming. Over the last 12 months, Vertex's share price has more than doubled.
-I expect those winning ways to continue. Vertex recently won U.S. and U.K. approvals for Casgevy in treating sickle cell disease and transfusion-dependent beta-thalassemia. The gene-editing therapy is effectively a cure for the two rare genetic diseases. Casgevy looks like a sure-fire megablockbuster.
-Vertex expects to file for regulatory approvals for two other drugs this summer. VX-548 has significant potential as a non-opioid treatment for acute pain. The company's vanzacaftor triple-drug combo could be its most powerful and most profitable cystic fibrosis (CF) therapy yet.
-Speaking of CF, Vertex still has plenty of growth opportunities in this market. The company continues to push for label expansions of its already-approved therapies to treat younger children and secure additional reimbursements.
-More game-changing therapies could be on the way. Vertex is advancing inaxaplin into late-stage testing as a treatment for APOL1-mediated kidney disease (AMKS). There are currently no approved drugs that treat the underlying cause of AMKD, and the disease affects more patients than CF does worldwide. In addition, Vertex has multiple programs in early-stage testing that hold the potential to cure type 1 diabetes.</t>
-  </si>
-  <si>
-    <t>Alphabet stock (NASDAQ:GOOGL) (NASDAQ:GOOG) is now my largest tech holding, making up about 8% of my portfolio. Lately, I have added multiple times to my position, as Alphabet’s Q4 results showed strong revenue growth, expanding margins, surging profits, and increasing capital returns. Further, even though Alphabet retains double-digit top and bottom-line growth prospects, the stock appears cheap both independently and compared to the Magnificent Seven stocks. Thus, I remain bullish on the stock.
-Q4 Results Reinforced My Conviction in the Stock
-I have recently increased my Alphabet position multiple times, with its Q4 results further reinforcing my conviction in the stock’s bull case. To begin with, Alphabet posted reaccelerating revenue growth of 13% to $83.6 billion — a notable uptick from the previous quarter’s 11% and last year’s 1%.
-Furthermore, EPS surged 56% to $1.64, as the bottom line was also boosted by an expansion in Alphabet’s operating margin from 24% to 27%. Notably, Q4’s revenues and EPS beat prior consensus estimates by 1.2% and 2.5%, respectively, surpassing market expectations. Let’s take a closer look.
-Google, YouTube Drive Strong Advertising Momentum Backed by AI
-Strength in Google and YouTube were the primary drivers of Alphabet’s revenue growth in Q4. Google Search revenues surged 13% to $48 billion, while YouTube advertising revenues grew by an even more significant 16% to $9.2 billion. The results benefited from an improving advertising environment, particularly in retail, and, interestingly, from Google’s investments in AI over the past year.
-During the Q4 earnings call, Sundar Pichai, Google’s CEO, underscored the transformative impact of AI on the company’s growth across various platforms. Pichai emphasized the critical role of generative AI in improving Search. By utilizing generative AI, Search has addressed a broader spectrum of information needs and responded to novel queries with diverse perspectives. This, in turn, has significantly bolstered ad performance metrics for advertisers.
-Then, on YouTube, the company continues to reap the rewards of prioritizing a creator-first economy within its platform. By offering creators unparalleled opportunities to monetize their content and establish their own businesses, YouTube has become the preferred growth channel for many creators. This has led to an influx of content, which, in turn, has led to increased viewership and, thus, growing ad revenue.
-Once more, the power of AI, specifically Google’s generative AI, is pushing these capabilities to extraordinary levels. Think about this: with just a smartphone, anyone can effortlessly change their backdrop, eliminate unnecessary elements from the background, and easily translate their videos into numerous languages without a big studio budget. The success of these initiatives is evident in YouTube’s staggering numbers, with Shorts now boasting over two billion logged-in users per month and 70 billion daily views.
-Google Cloud: Profits Are Snowballing
-Alphabet’s Google Cloud division also posted impressive numbers, with the main highlight, for me, being its snowballing profits. Google Cloud’s unit economics continued to improve, with Q4 being the division’s fourth consecutive profitable quarter. Specifically, Google Cloud revenue growth came in at an impressive 26%, accelerating from Q3’s revenue growth of 22%, driving robust economies of scale. Consequently, the division’s operating margin surged to 9.4%. The year before, it was negative.
-With Duet AI, Google Cloud’s AI-powered collaborator, the company now empowers top-tier brands such as PayPal (NASDAQ:PYPL) and Deutsche Bank (NYSE:DB) to supercharge developer productivity. At the same time, AI capabilities offered in the Cloud facilitate retailers like Aritzia (OTC:ATZAF) and Gymshark to understand their customers by breaking down priceless insights. As Alphabet utilizes Google Cloud to cater to each customer’s needs, I believe its momentum is set to continue for many quarters.
-Record EPS &amp; Capital Returns, Yet the Stock Remains Cheap
-Alphabet’s strong revenue growth and margin expansion across the board led to the company posting record quarterly EPS of $1.66 for Q4 and a record annual EPS of $5.84 for FY2023. In turn, the company was able to afford increased capital returns to reward shareholders, with share repurchases for the year reaching a record $61.5 billion, up from $59.3 billion last year.
-At its current market cap, this implies a buyback yield of 3.5%, which I find rather substantial given that Alphabet is expected to keep growing in the double digits. Specifically, consensus estimates for FY2024 point toward revenues of $342.41 billion and EPS of $6.76, suggesting year-over-year growth of 11.4% and 16.6%, respectively.
-This leads us back to a crucial point I highlighted earlier in this article. Here, you have Alphabet, returning 3.5%+ per annum through buybacks, growing in the double-digits, and being at the forefront of the AI craze, Yet its stock is currently valued at just under 21 times Wall Street’s projected EPS for the year.
-Notably, Alphabet is arguably the cheapest stock among the glorified “Magnificent Seven.” I’m not a fan of drawing direct comparisons among the Magnificent Seven as many investors do, given that their business models are widely different. However, this analogy highlights that Alphabet stock has not seen the same excessive investor exuberance most of the companies in this group have. Here are their forward P/Es.
-Alphabet’s below-average valuation could serve as a potent catalyst for future upside, particularly in contrast to the potential valuation contractions that might affect the rest of Magnificent Seven should their earnings growth fall short of the current lofty expectations.
-Is GOOGL Stock a Buy, According to Analysts?
-Regarding Wall Street’s view on the stock, Alphabet features a Strong Buy consensus rating based on 29 Buys and eight Holds assigned in the past three months. At $164.56, the average Alphabet stock price target implies 17.11% upside potential.
-If you’re wondering which analyst you should follow if you want to buy and sell GOOGL stock, the most profitable analyst covering the stock (on a one-year timeframe) is Mark Kelley from Stifel Nicolaus, boasting an average return of 28.48% per rating and a 90% success rate. Click on the image below to learn more.
-The Takeaway
-Overall, Alphabet’s Q4 results, marked by accelerated revenue growth, margin expansion, and record-breaking EPS, have solidified my bullish stance on the stock.
-Google’s AI-driven innovations, particularly in Search and YouTube, keep driving advertising momentum, while Google Cloud’s snowballing profitability reflects its growing significance within Alphabet’s business mix.
-Despite its lively performance and growing capital returns, Alphabet appears undervalued both when assessed independently and when compared to its Magnificent Seven counterparts. This adds a layer of safety to its investment case and has also contributed to my decision to increase my position in the stock lately. Thus, Alphabet will remain a pillar tech position within my investment portfolio.</t>
-  </si>
-  <si>
-    <t>In the race for AI supremacy, investors are up in arms, trying to snatch anything that offers the potential to change the industry. With governments seeing its potential as well, it comes as no surprise that investors are flocking to stocks at the mere mention of AI in any of their announcements. Here, however, lies the problem: When everyone wants a piece of the pie, everyone gets a smaller piece.
-Like in the dot-com bubble, AI stocks are getting expensive. That, and their financials are nowhere near enough to justify their inflated values. That’s why I like to forgo the noise and focus on stocks that deserve their top spots through robust financials, proven excellence or outstanding prospects. Here are three AI stocks to own at the forefront of the industry.
-Nvidia (NVDA)
-There’s no doubt that Nvidia (NASDAQ:NVDA) is one of the biggest winners of the AI revolution. Before that, the company was well-known for its GPUs, primarily aimed at gaming and workstation computers. Then came the cryptocurrency boom in 2020, and miners quickly emptied Nvidia GPU shelves worldwide.
-When the AI boom came, the company successfully leveraged its leading position in the GPU space to develop faster, more energy-efficient GPUs and processors that matched the massive demands of generative AI systems. Thanks to the explosion in generative AI apps, its data center business has become its biggest revenue stream. Estimates of NVDA’s market share for AI data center chips range from 70% to 90%, making it the undisputed leader in the space and the primary driver for its current trillion-dollar market cap.
-On February 21, NVDA released its 4th quarter earnings and showed precisely how hard it is to stop a snowball once it starts rolling. Revenue got a massive 265% bump year-over-year (YoY), ending at $22.1 billion. Net income reached $12.28 billion, up nearly 33% from Q3. The company’s data center segment continues to be its primary growth driver. This quarter, it came in at $18.40 billion, representing a 409% growth rate YoY. Gaming also saw a 56% increase YoY, primarily driven by its RTX line. NVDA continues to impress with its growing results, further cementing its place as a market leader and one of the best AI stocks to own.
-Microsoft (MSFT)
-The maker of the Windows operating system, Microsoft (NASDAQ:MSFT), has come a long way from being a software developer. It has grown from a software provider to a technology giant that caters to consumers, businesses and enterprises with its wide suite of productivity, personal computing and intelligent cloud services.
-While its position in tech is undeniable, MSFT’s biggest and most recent success story is betting on OpenAI in 2019. By investing $1 billion, MSFT secured an exclusive partnership with the ChatGPT creator. Microsoft is now entitled to a share of OpenAI’s profits and rights to integrate the AI system into its products, among other perks, but without direct operational control.
-Its latest financials showcased a strong reception for its services that support the growing AI trend. Microsoft Cloud’s revenue hit $33.7 billion, up 24% YoY. Its dynamics products and cloud services revenue also rose by 21%, and its Intelligent Cloud segment, server products and cloud services revenues increased by 22%, driven by Azure and other cloud services. In addition, total revenue reached $62.0 billion, an 18% YoY growth.
-These outstanding numbers show that MSFT is on the right track. Its CEO, Satya Nadella, highlighted that the company’s transition from discussing AI to implementing AI at scale has attracted new customers and improved productivity across various sectors. So, if you’re ready to jump onto the AI train, MSFT has one more seat just for you.
-Alphabet (GOOG, GOOGL)
-A company that came from humble beginnings, Alphabet (NASDAQ:GOOG, NASDAQ:GOOGL), more popularly known as Google, has grown from one of the most used search engines into a diversified industry giant. It offers various products and services like Android Ads, Google Maps and YouTube.
-Google’s entry into the generative AI space, Gemini (previously known as Bard), is seen as one of the closest rivals to ChatGPT. GOOGL is at the forefront of the technical revolution and is making waves with AI integration in its products and other services like Google Cloud, which offers analytics and AI infrastructure.
-The company’s consolidated revenue is up 13% YoY, reaching $86.31 billion in Q4. Meanwhile, full-year revenue reached $307.4 billion for 2023. Google Cloud paid off for the company, as it showed promising expansion by reaching $9.19 billion in quarterly revenue compared to its previous year’s $7.31 billion. Capping off this great quarter was a 51.84% jump in net income from $13.62 billion to $20.69 billion.
-CEO Sundar Pichai highlighted the company’s promising growth and investments into AI and innovation, touting that the company is starting the “Gemini era.” The promise of brighter horizons for Google makes for a compelling reason to consider it one of the top AI stocks to own.
-On the date of publication, Rick Orford held long positions in MSFT and GOOGL. The opinions expressed in this article are those of the writer, subject to the InvestorPlace.com Publishing Guidelines.</t>
+*Stock Advisor returns as of February 26, 2024
+Suzanne Frey, an executive at Alphabet, is a member of The Motley Fool's board of directors. Randi Zuckerberg, a former director of market development and spokeswoman for Facebook and sister to Meta Platforms CEO Mark Zuckerberg, is a member of The Motley Fool's board of directors. Neil Patel and his clients have no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet and Meta Platforms. The Motley Fool has a disclosure policy.
+Are These the 2 Best "Magnificent Seven" Stocks to Buy Right Now? was originally published by The Motley Fool</t>
+  </si>
+  <si>
+    <t>The historically inaccurate images and text generated by Google’s Gemini AI have “offended our users and shown bias,” CEO Sundar Pichai told employees in an internal memo obtained by The Verge.
+Last week, Google paused Gemini’s ability to generate images after it was widely discovered that the model generated racially diverse, Nazi-era German soldiers, US Founding Fathers who were non-white, and even inaccurately portrayed the races of Google’s own co-founders. While Google has since apologized for “missing the mark” and said it’s working to re-enable image generation in the coming weeks, Tuesday’s memo is the first time the CEO has widely addressed the controversy.
+In the memo, which was first reported by Semafor, Pichai says the company has “been working around the clock” to address “problematic text and image responses in the Gemini app.” He doesn’t say that Google has fixed the problem. “No Al is perfect, especially at this emerging stage of the industry’s development, but we know the bar is high for us and we will keep at it for however long it takes,” he writes.
+You can read Sundar Pichai’s full memo to Google employees below:
+Hi everyone
+I want to address the recent issues with problematic text and image responses in the Gemini app (formerly Bard). I know that some of its responses have offended our users and shown bias — to be clear, that’s completely unacceptable and we got it wrong.
+Our teams have been working around the clock to address these issues. We’re already seeing a substantial improvement on a wide range of prompts. No Al is perfect, especially at this emerging stage of the industry’s development, but we know the bar is high for us and we will keep at it for however long it takes. And we’ll review what happened and make sure we fix it at scale.
+Our mission to organize the world’s information and make it universally accessible and useful is sacrosanct. We’ve always sought to give users helpful, accurate, and unbiased information in our products. That’s why people trust them. This has to be our approach for all our products, including our emerging Al products.
+We’ll be driving a clear set of actions, including structural changes, updated product guidelines, improved launch processes, robust evals and red-teaming, and technical recommendations. We are looking across all of this and will make the necessary changes.
+Even as we learn from what went wrong here, we should also build on the product and technical announcements we’ve made in Al over the last several weeks. That includes some foundational advances in our underlying models e.g. our 1 million long-context window breakthrough and our open models, both of which have been well received.
+We know what it takes to create great products that are used and beloved by billions of people and businesses, and with our infrastructure and research expertise we have an incredible springboard for the Al wave. Let’s focus on what matters most: building helpful products that are deserving of our users’ trust.</t>
+  </si>
+  <si>
+    <t>Topline
+Google CEO Sundar Pichai addressed the controversy around its Gemini AI service generating misleading and historically inaccurate images Tuesday, in an internal note saying the issue was “completely unacceptable,” a week after the company paused its ability to generate images of people.
+Key Facts
+In an internal note first reported by Semafor, Pichai wrote he was aware that some of Gemini’s responses “have offended our users and shown bias” and added: “To be clear, that’s completely unacceptable and we got it wrong.”
+Pichai said teams are “working around the clock to address these issues” and the company has seen a “substantial improvement,” without going into further detail.
+The CEO’s note then promised a “clear set of actions” to resolve the issue, including structural changes, refreshed product guidelines, technical recommendations, better evaluations and red-teaming (a process of simulating harmful behavior to spot vulnerabilities).
+Pichai’s note also signaled that the company will move forward with its AI roadmap and “build on the product and technical announcements” made in the past few weeks.
+Crucial Quote
+Addressing concerns of bias in Gemini’s AI model, Pichai wrote: “We’ve always sought to give users helpful, accurate, and unbiased information in our products. That’s why people trust them. This has to be our approach for all our products, including our emerging AI products.”
+Big Number
+3.58%. That is how much Google’s stock value has fallen since the end of last week as the company scrambled to deal with the fallout. The selloff shaved $90 billion off the company’s market cap Monday before the stock mounted a slight recovery over the next few days to end at $140.10 per share.
+Key Background
+Google widely launched Gemini earlier this month, replacing its former AI-powered chatbot Bard. Built on the company’s latest AI models, Gemini was touted as a competitor to Microsoft and OpenAI’s offerings like CoPilot, ChatGPT and DALL-E and other generative AI tools like Midjourney and Stability AI’s Stable Diffusion. The controversy around Gemini’s image generation tool emerged last week after users found they were able to generate historically inaccurate images like Black vikings, racially diverse Nazi soldiers and a female pope. Billionaire Elon Musk, who is building xAI as a competitor to Gemini, attacked Google’s service, calling it “woke” and “racist.” Other outlets like the Verge pointed out Gemini’s inaccuracies, noting that a prompt for a “US senator from the 1800s” generated images of a Black woman, even though the first Black woman was elected to the U.S. Senate in 1992. Google halted the service from generating images of people after the controversy spiraled and said the company would “further tune” Gemini to offer more accurate historical contexts.
+Further Reading
+Google’s Gemini Controversy Explained: AI Model Criticized By Musk And Others Over Alleged Bias (Forbes)</t>
+  </si>
+  <si>
+    <t>Google's Gemini AI Gaffe: Sundar Pichai should be fired or resign, says investor Samir Arora
+Replying to a user on social media site X, Samir Arora said Alphabet CEO Sundar Pichai should ‘be fired or resign’ after being in the lead on AI and ‘let other take over'.
+Google parent Alphabet's CEO Sundar Pichai is likely to be fired or will resign soon amid the Gemini debacle — as he should, believes Helios Capital founder Samir Arora.
+Also Read | Google admits Gemini AI is ‘missing the mark’, pauses image generation capabilities
+What is Gemini AI?
+Google recently rebranded its chatbot Bard as Gemini, while officially unrolling the artificial intelligence (AI) tool for users globally. According to the tech giant, users can now engage with the Gemini Pro 1.0 model in over 40 languages across more than 230 countries and territories.
+Gemini Advanced is part of the Google One AI Premium Plan, priced at $19.99/month, starting with a complimentary two-month trial period. AI Premium subscribers can anticipate the integration of Gemini into various Google applications such as Gmail, Docs, Slides, Sheets, and more (formerly known as Duet AI), as mentioned in the latest Google blog post.
+Also Read | Elon Musk on Gemini AI chatbot: Google's insane, racist, anti-civilization programming clear to all
+A Whirlwind of Controversies
+Within a week of launch, there have already been controversies. Google apologised on February 23 for its faulty rollout of a new AI image-generator linked to Gemini AI, acknowledging that in some cases the tool would “overcompensate" for lack of diversity even when it didn't make sense, as per an AP report.
+Addressing concerns, Google said it has decided to temporarily halt the chatbot's image generation. Prabhakar Raghavan, a senior vice president overseeing Google's search engine and other businesses, in a blog post stated, "It’s clear that this feature missed the mark", and apologised for inaccurate and offensive images, and expressed gratitude for user feedback.
+Also Read | Gemini AI's controversial stance on Elon Musk and Hitler comparison leaves netizens furious: Know what it said…
+Although Raghavan did not cite specific examples, social media highlighted instances where the Gemini AI image generator depicted a Black woman as a United States founding father, besides showing Black and Asian individuals as Nazi-era German soldiers, AP reported.
+Raghavan defended the chatbot's intent, adding that the goal for the feature was to cater to diverse requests, but added that some prompts triggered "overcompensation".
+Also Read | US presidential candidate Vivek Ramaswamy slams Google Gemini: Globally embarrassing rollout, blatantly racist
+India May Issue Notice to Google over 'Biased' Gemini AI
+The Ministry of Electronics and Information Technology (Meity) is likely to issue a notice to Google over Gemini's “biased" response to a question about Prime Minister Narendra Modi, reports said on February 23.
+Gemini came under fire for allegedly being "biased" against PM Modi after an X user took to the social media platform to complain about the too, The viral post claims to show the AI model's "bias" to a query on PM Modi, former US president Donald Trump and Ukrainian President Volodymyr Zelenskyy.
+It was claimed that when asked a question about fascism, the Gemini AI tool displayed a proper reply about PM Modi. However, when the same question was asked about Donald Trump and Zelenskyy, the AI tool refused to give a clear answer.
+Earlier in the day, Union Minister Rajeev Chandrasekhar reacted to the complaint by the X user and said that the platform violates IT rules and other laws. "These are direct violations of Rule 3(1)(b) of Intermediary Rules (IT rules) of the IT act and violations of several provisions of the Criminal code," Chandrasekhar said, tagging Google and the Meity, indicating further action in the matter.
+Unlock a world of Benefits! From insightful newsletters to real-time stock tracking, breaking news and a personalized newsfeed – it's all here, just a click away! Login Now!</t>
   </si>
 </sst>
 </file>
@@ -1235,14 +1639,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -1257,27 +1661,28 @@
     <col min="14" max="14" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1286,8 +1691,9 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="2157.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1303,131 +1709,155 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>16</v>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="1510.5">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="428.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="336">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="1524">
       <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
